--- a/Excel/14_item.xlsx
+++ b/Excel/14_item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hoon\EEA\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD10FFE7-ED11-4EF7-9A86-8223D272AF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAF57E2-C2A3-4B14-96B3-C29058DFE8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38835" yWindow="1200" windowWidth="27600" windowHeight="13530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7710" yWindow="5100" windowWidth="26175" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -359,7 +359,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>No</t>
   </si>
@@ -422,17 +422,22 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>UI/Temp/Sprites/Props.png[Exp 0]</t>
+    <t>Object/DropItem/DropItemExp.prefab</t>
   </si>
   <si>
-    <t>UI/Temp/Sprites/Props.png[Exp 1]</t>
-  </si>
-  <si>
-    <t>UI/Temp/Sprites/Props.png[Exp 2]</t>
+    <t>Object/DropItem/DropItemExp.prefab</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>Object/DropItem/DropItemExp.prefab</t>
+    <t>UI/Temp/exp_1.png</t>
+  </si>
+  <si>
+    <t>UI/Temp/exp_2.png</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Temp/exp_3.png</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -846,7 +851,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -856,7 +861,7 @@
     <col min="3" max="3" width="22.140625" customWidth="1"/>
     <col min="4" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.5703125" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" customWidth="1"/>
     <col min="9" max="9" width="13.5703125" customWidth="1"/>
     <col min="10" max="10" width="19.42578125" customWidth="1"/>
@@ -1261,10 +1266,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1347,10 +1352,10 @@
         <v>3</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1433,10 +1438,10 @@
         <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>

--- a/Excel/14_item.xlsx
+++ b/Excel/14_item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hoon\EEA\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAF57E2-C2A3-4B14-96B3-C29058DFE8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE586AA-DC1C-4035-BB5E-00520B4E4AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7710" yWindow="5100" windowWidth="26175" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6210" yWindow="4635" windowWidth="26175" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -429,14 +429,15 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>UI/Temp/exp_1.png</t>
-  </si>
-  <si>
-    <t>UI/Temp/exp_2.png</t>
+    <t>UI/Temp/DropItem/exp_1.png</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>UI/Temp/exp_3.png</t>
+    <t>UI/Temp/DropItem/exp_2.png</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Temp/DropItem/exp_3.png</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -851,7 +852,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>

--- a/Excel/14_item.xlsx
+++ b/Excel/14_item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hoon\EEA\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE586AA-DC1C-4035-BB5E-00520B4E4AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0E6BB6-EB77-4D94-B560-FE3D27848537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6210" yWindow="4635" windowWidth="26175" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39135" yWindow="330" windowWidth="29010" windowHeight="16515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -308,7 +308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -326,7 +326,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="BD1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -359,7 +359,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>No</t>
   </si>
@@ -438,6 +438,22 @@
   </si>
   <si>
     <t>UI/Temp/DropItem/exp_3.png</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>parts_code</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>single_stack</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>level_code</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>evolution_code</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -846,13 +862,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BQ1000"/>
+  <dimension ref="A1:BU1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -860,62 +876,67 @@
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="28.140625" customWidth="1"/>
     <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" customWidth="1"/>
-    <col min="11" max="11" width="92.140625" style="14" customWidth="1"/>
-    <col min="12" max="13" width="11.42578125" customWidth="1"/>
-    <col min="14" max="15" width="21.42578125" customWidth="1"/>
-    <col min="16" max="18" width="8.42578125" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" customWidth="1"/>
-    <col min="20" max="20" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="28" width="21.42578125" customWidth="1"/>
-    <col min="29" max="29" width="14.140625" customWidth="1"/>
-    <col min="30" max="30" width="10.28515625" customWidth="1"/>
-    <col min="31" max="31" width="20.5703125" customWidth="1"/>
-    <col min="32" max="32" width="21.42578125" customWidth="1"/>
-    <col min="33" max="33" width="20.5703125" customWidth="1"/>
-    <col min="34" max="34" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="46.5703125" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" customWidth="1"/>
+    <col min="15" max="15" width="92.140625" style="14" customWidth="1"/>
+    <col min="16" max="17" width="11.42578125" customWidth="1"/>
+    <col min="18" max="19" width="21.42578125" customWidth="1"/>
+    <col min="20" max="22" width="8.42578125" customWidth="1"/>
+    <col min="23" max="23" width="10.7109375" customWidth="1"/>
+    <col min="24" max="24" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="32" width="21.42578125" customWidth="1"/>
+    <col min="33" max="33" width="14.140625" customWidth="1"/>
+    <col min="34" max="34" width="10.28515625" customWidth="1"/>
     <col min="35" max="35" width="20.5703125" customWidth="1"/>
     <col min="36" max="36" width="21.42578125" customWidth="1"/>
     <col min="37" max="37" width="20.5703125" customWidth="1"/>
     <col min="38" max="38" width="21.42578125" customWidth="1"/>
     <col min="39" max="39" width="20.5703125" customWidth="1"/>
     <col min="40" max="40" width="21.42578125" customWidth="1"/>
-    <col min="41" max="41" width="19.7109375" customWidth="1"/>
-    <col min="42" max="42" width="20.42578125" customWidth="1"/>
-    <col min="43" max="43" width="19.7109375" customWidth="1"/>
-    <col min="44" max="44" width="20.42578125" customWidth="1"/>
+    <col min="41" max="41" width="20.5703125" customWidth="1"/>
+    <col min="42" max="42" width="21.42578125" customWidth="1"/>
+    <col min="43" max="43" width="20.5703125" customWidth="1"/>
+    <col min="44" max="44" width="21.42578125" customWidth="1"/>
     <col min="45" max="45" width="19.7109375" customWidth="1"/>
     <col min="46" max="46" width="20.42578125" customWidth="1"/>
     <col min="47" max="47" width="19.7109375" customWidth="1"/>
     <col min="48" max="48" width="20.42578125" customWidth="1"/>
     <col min="49" max="49" width="19.7109375" customWidth="1"/>
-    <col min="50" max="51" width="20.42578125" customWidth="1"/>
-    <col min="52" max="52" width="13" customWidth="1"/>
-    <col min="53" max="53" width="12.5703125" customWidth="1"/>
-    <col min="54" max="54" width="13" customWidth="1"/>
-    <col min="55" max="55" width="12.5703125" customWidth="1"/>
+    <col min="50" max="50" width="20.42578125" customWidth="1"/>
+    <col min="51" max="51" width="19.7109375" customWidth="1"/>
+    <col min="52" max="52" width="20.42578125" customWidth="1"/>
+    <col min="53" max="53" width="19.7109375" customWidth="1"/>
+    <col min="54" max="55" width="20.42578125" customWidth="1"/>
     <col min="56" max="56" width="13" customWidth="1"/>
     <col min="57" max="57" width="12.5703125" customWidth="1"/>
     <col min="58" max="58" width="13" customWidth="1"/>
     <col min="59" max="59" width="12.5703125" customWidth="1"/>
-    <col min="60" max="60" width="17.42578125" customWidth="1"/>
-    <col min="61" max="61" width="18.140625" customWidth="1"/>
-    <col min="62" max="62" width="17.42578125" customWidth="1"/>
-    <col min="63" max="63" width="18.140625" customWidth="1"/>
+    <col min="60" max="60" width="13" customWidth="1"/>
+    <col min="61" max="61" width="12.5703125" customWidth="1"/>
+    <col min="62" max="62" width="13" customWidth="1"/>
+    <col min="63" max="63" width="12.5703125" customWidth="1"/>
     <col min="64" max="64" width="17.42578125" customWidth="1"/>
     <col min="65" max="65" width="18.140625" customWidth="1"/>
     <col min="66" max="66" width="17.42578125" customWidth="1"/>
     <col min="67" max="67" width="18.140625" customWidth="1"/>
-    <col min="68" max="68" width="84.7109375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="13.85546875" customWidth="1"/>
+    <col min="68" max="68" width="17.42578125" customWidth="1"/>
+    <col min="69" max="69" width="18.140625" customWidth="1"/>
+    <col min="70" max="70" width="17.42578125" customWidth="1"/>
+    <col min="71" max="71" width="18.140625" customWidth="1"/>
+    <col min="72" max="72" width="84.7109375" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" ht="12.75" customHeight="1">
+    <row r="1" spans="1:73" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -929,18 +950,26 @@
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -959,10 +988,10 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
       <c r="AH1" s="3"/>
       <c r="AI1" s="3"/>
       <c r="AJ1" s="3"/>
@@ -981,10 +1010,10 @@
       <c r="AW1" s="3"/>
       <c r="AX1" s="3"/>
       <c r="AY1" s="3"/>
-      <c r="AZ1" s="4"/>
-      <c r="BA1" s="4"/>
-      <c r="BB1" s="4"/>
-      <c r="BC1" s="4"/>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="3"/>
       <c r="BD1" s="4"/>
       <c r="BE1" s="4"/>
       <c r="BF1" s="4"/>
@@ -997,10 +1026,14 @@
       <c r="BM1" s="4"/>
       <c r="BN1" s="4"/>
       <c r="BO1" s="4"/>
-      <c r="BP1" s="1"/>
+      <c r="BP1" s="4"/>
       <c r="BQ1" s="4"/>
-    </row>
-    <row r="2" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR1" s="4"/>
+      <c r="BS1" s="4"/>
+      <c r="BT1" s="1"/>
+      <c r="BU1" s="4"/>
+    </row>
+    <row r="2" spans="1:73" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1014,18 +1047,26 @@
         <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
@@ -1066,10 +1107,10 @@
       <c r="AW2" s="6"/>
       <c r="AX2" s="6"/>
       <c r="AY2" s="6"/>
-      <c r="AZ2" s="7"/>
-      <c r="BA2" s="7"/>
-      <c r="BB2" s="7"/>
-      <c r="BC2" s="7"/>
+      <c r="AZ2" s="6"/>
+      <c r="BA2" s="6"/>
+      <c r="BB2" s="6"/>
+      <c r="BC2" s="6"/>
       <c r="BD2" s="7"/>
       <c r="BE2" s="7"/>
       <c r="BF2" s="7"/>
@@ -1082,10 +1123,14 @@
       <c r="BM2" s="7"/>
       <c r="BN2" s="7"/>
       <c r="BO2" s="7"/>
-      <c r="BP2" s="6"/>
+      <c r="BP2" s="7"/>
       <c r="BQ2" s="7"/>
-    </row>
-    <row r="3" spans="1:69" ht="16.5">
+      <c r="BR2" s="7"/>
+      <c r="BS2" s="7"/>
+      <c r="BT2" s="6"/>
+      <c r="BU2" s="7"/>
+    </row>
+    <row r="3" spans="1:73" ht="16.5">
       <c r="A3" s="3">
         <f t="shared" ref="A3:A7" si="0">ROW()-2</f>
         <v>1</v>
@@ -1102,16 +1147,24 @@
       <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
       <c r="J3" s="1"/>
-      <c r="K3" s="13"/>
+      <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="O3" s="13"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1148,10 +1201,10 @@
       <c r="AW3" s="1"/>
       <c r="AX3" s="1"/>
       <c r="AY3" s="1"/>
-      <c r="AZ3" s="10"/>
-      <c r="BA3" s="10"/>
-      <c r="BB3" s="10"/>
-      <c r="BC3" s="10"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BC3" s="1"/>
       <c r="BD3" s="10"/>
       <c r="BE3" s="10"/>
       <c r="BF3" s="10"/>
@@ -1164,10 +1217,14 @@
       <c r="BM3" s="10"/>
       <c r="BN3" s="10"/>
       <c r="BO3" s="10"/>
-      <c r="BP3" s="1"/>
+      <c r="BP3" s="10"/>
       <c r="BQ3" s="10"/>
-    </row>
-    <row r="4" spans="1:69" ht="16.5">
+      <c r="BR3" s="10"/>
+      <c r="BS3" s="10"/>
+      <c r="BT3" s="1"/>
+      <c r="BU3" s="10"/>
+    </row>
+    <row r="4" spans="1:73" ht="16.5">
       <c r="A4" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1184,16 +1241,24 @@
       <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
       <c r="J4" s="1"/>
-      <c r="K4" s="13"/>
+      <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="O4" s="13"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -1230,10 +1295,10 @@
       <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
       <c r="AY4" s="1"/>
-      <c r="AZ4" s="10"/>
-      <c r="BA4" s="10"/>
-      <c r="BB4" s="10"/>
-      <c r="BC4" s="10"/>
+      <c r="AZ4" s="1"/>
+      <c r="BA4" s="1"/>
+      <c r="BB4" s="1"/>
+      <c r="BC4" s="1"/>
       <c r="BD4" s="10"/>
       <c r="BE4" s="10"/>
       <c r="BF4" s="10"/>
@@ -1246,10 +1311,14 @@
       <c r="BM4" s="10"/>
       <c r="BN4" s="10"/>
       <c r="BO4" s="10"/>
-      <c r="BP4" s="1"/>
+      <c r="BP4" s="10"/>
       <c r="BQ4" s="10"/>
-    </row>
-    <row r="5" spans="1:69" ht="16.5">
+      <c r="BR4" s="10"/>
+      <c r="BS4" s="10"/>
+      <c r="BT4" s="1"/>
+      <c r="BU4" s="10"/>
+    </row>
+    <row r="5" spans="1:73" ht="16.5">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1264,22 +1333,30 @@
         <v>11</v>
       </c>
       <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="13"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="O5" s="13"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -1316,10 +1393,10 @@
       <c r="AW5" s="1"/>
       <c r="AX5" s="1"/>
       <c r="AY5" s="1"/>
-      <c r="AZ5" s="10"/>
-      <c r="BA5" s="10"/>
-      <c r="BB5" s="10"/>
-      <c r="BC5" s="10"/>
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="1"/>
+      <c r="BB5" s="1"/>
+      <c r="BC5" s="1"/>
       <c r="BD5" s="10"/>
       <c r="BE5" s="10"/>
       <c r="BF5" s="10"/>
@@ -1332,10 +1409,14 @@
       <c r="BM5" s="10"/>
       <c r="BN5" s="10"/>
       <c r="BO5" s="10"/>
-      <c r="BP5" s="1"/>
+      <c r="BP5" s="10"/>
       <c r="BQ5" s="10"/>
-    </row>
-    <row r="6" spans="1:69" ht="16.5">
+      <c r="BR5" s="10"/>
+      <c r="BS5" s="10"/>
+      <c r="BT5" s="1"/>
+      <c r="BU5" s="10"/>
+    </row>
+    <row r="6" spans="1:73" ht="16.5">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1350,22 +1431,30 @@
         <v>11</v>
       </c>
       <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
         <v>3</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="13"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="O6" s="13"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -1402,10 +1491,10 @@
       <c r="AW6" s="1"/>
       <c r="AX6" s="1"/>
       <c r="AY6" s="1"/>
-      <c r="AZ6" s="10"/>
-      <c r="BA6" s="10"/>
-      <c r="BB6" s="10"/>
-      <c r="BC6" s="10"/>
+      <c r="AZ6" s="1"/>
+      <c r="BA6" s="1"/>
+      <c r="BB6" s="1"/>
+      <c r="BC6" s="1"/>
       <c r="BD6" s="10"/>
       <c r="BE6" s="10"/>
       <c r="BF6" s="10"/>
@@ -1418,10 +1507,14 @@
       <c r="BM6" s="10"/>
       <c r="BN6" s="10"/>
       <c r="BO6" s="10"/>
-      <c r="BP6" s="1"/>
+      <c r="BP6" s="10"/>
       <c r="BQ6" s="10"/>
-    </row>
-    <row r="7" spans="1:69" ht="16.5">
+      <c r="BR6" s="10"/>
+      <c r="BS6" s="10"/>
+      <c r="BT6" s="1"/>
+      <c r="BU6" s="10"/>
+    </row>
+    <row r="7" spans="1:73" ht="16.5">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1436,22 +1529,30 @@
         <v>11</v>
       </c>
       <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
         <v>6</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="13"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="O7" s="13"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -1488,10 +1589,10 @@
       <c r="AW7" s="1"/>
       <c r="AX7" s="1"/>
       <c r="AY7" s="1"/>
-      <c r="AZ7" s="10"/>
-      <c r="BA7" s="10"/>
-      <c r="BB7" s="10"/>
-      <c r="BC7" s="10"/>
+      <c r="AZ7" s="1"/>
+      <c r="BA7" s="1"/>
+      <c r="BB7" s="1"/>
+      <c r="BC7" s="1"/>
       <c r="BD7" s="10"/>
       <c r="BE7" s="10"/>
       <c r="BF7" s="10"/>
@@ -1504,10 +1605,14 @@
       <c r="BM7" s="10"/>
       <c r="BN7" s="10"/>
       <c r="BO7" s="10"/>
-      <c r="BP7" s="1"/>
+      <c r="BP7" s="10"/>
       <c r="BQ7" s="10"/>
-    </row>
-    <row r="8" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR7" s="10"/>
+      <c r="BS7" s="10"/>
+      <c r="BT7" s="1"/>
+      <c r="BU7" s="10"/>
+    </row>
+    <row r="8" spans="1:73" ht="12.75" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
@@ -1518,11 +1623,11 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="13"/>
+      <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="O8" s="13"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -1559,10 +1664,10 @@
       <c r="AW8" s="1"/>
       <c r="AX8" s="1"/>
       <c r="AY8" s="1"/>
-      <c r="AZ8" s="10"/>
-      <c r="BA8" s="10"/>
-      <c r="BB8" s="10"/>
-      <c r="BC8" s="10"/>
+      <c r="AZ8" s="1"/>
+      <c r="BA8" s="1"/>
+      <c r="BB8" s="1"/>
+      <c r="BC8" s="1"/>
       <c r="BD8" s="10"/>
       <c r="BE8" s="10"/>
       <c r="BF8" s="10"/>
@@ -1575,10 +1680,14 @@
       <c r="BM8" s="10"/>
       <c r="BN8" s="10"/>
       <c r="BO8" s="10"/>
-      <c r="BP8" s="1"/>
+      <c r="BP8" s="10"/>
       <c r="BQ8" s="10"/>
-    </row>
-    <row r="9" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR8" s="10"/>
+      <c r="BS8" s="10"/>
+      <c r="BT8" s="1"/>
+      <c r="BU8" s="10"/>
+    </row>
+    <row r="9" spans="1:73" ht="12.75" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
@@ -1589,11 +1698,11 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="13"/>
+      <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="O9" s="13"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -1630,10 +1739,10 @@
       <c r="AW9" s="1"/>
       <c r="AX9" s="1"/>
       <c r="AY9" s="1"/>
-      <c r="AZ9" s="10"/>
-      <c r="BA9" s="10"/>
-      <c r="BB9" s="10"/>
-      <c r="BC9" s="10"/>
+      <c r="AZ9" s="1"/>
+      <c r="BA9" s="1"/>
+      <c r="BB9" s="1"/>
+      <c r="BC9" s="1"/>
       <c r="BD9" s="10"/>
       <c r="BE9" s="10"/>
       <c r="BF9" s="10"/>
@@ -1646,10 +1755,14 @@
       <c r="BM9" s="10"/>
       <c r="BN9" s="10"/>
       <c r="BO9" s="10"/>
-      <c r="BP9" s="1"/>
+      <c r="BP9" s="10"/>
       <c r="BQ9" s="10"/>
-    </row>
-    <row r="10" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR9" s="10"/>
+      <c r="BS9" s="10"/>
+      <c r="BT9" s="1"/>
+      <c r="BU9" s="10"/>
+    </row>
+    <row r="10" spans="1:73" ht="12.75" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
@@ -1660,11 +1773,11 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="13"/>
+      <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="O10" s="13"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -1701,10 +1814,10 @@
       <c r="AW10" s="1"/>
       <c r="AX10" s="1"/>
       <c r="AY10" s="1"/>
-      <c r="AZ10" s="10"/>
-      <c r="BA10" s="10"/>
-      <c r="BB10" s="10"/>
-      <c r="BC10" s="10"/>
+      <c r="AZ10" s="1"/>
+      <c r="BA10" s="1"/>
+      <c r="BB10" s="1"/>
+      <c r="BC10" s="1"/>
       <c r="BD10" s="10"/>
       <c r="BE10" s="10"/>
       <c r="BF10" s="10"/>
@@ -1717,10 +1830,14 @@
       <c r="BM10" s="10"/>
       <c r="BN10" s="10"/>
       <c r="BO10" s="10"/>
-      <c r="BP10" s="1"/>
+      <c r="BP10" s="10"/>
       <c r="BQ10" s="10"/>
-    </row>
-    <row r="11" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR10" s="10"/>
+      <c r="BS10" s="10"/>
+      <c r="BT10" s="1"/>
+      <c r="BU10" s="10"/>
+    </row>
+    <row r="11" spans="1:73" ht="12.75" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
@@ -1731,11 +1848,11 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="13"/>
+      <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+      <c r="O11" s="13"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -1772,10 +1889,10 @@
       <c r="AW11" s="1"/>
       <c r="AX11" s="1"/>
       <c r="AY11" s="1"/>
-      <c r="AZ11" s="10"/>
-      <c r="BA11" s="10"/>
-      <c r="BB11" s="10"/>
-      <c r="BC11" s="10"/>
+      <c r="AZ11" s="1"/>
+      <c r="BA11" s="1"/>
+      <c r="BB11" s="1"/>
+      <c r="BC11" s="1"/>
       <c r="BD11" s="10"/>
       <c r="BE11" s="10"/>
       <c r="BF11" s="10"/>
@@ -1788,10 +1905,14 @@
       <c r="BM11" s="10"/>
       <c r="BN11" s="10"/>
       <c r="BO11" s="10"/>
-      <c r="BP11" s="1"/>
+      <c r="BP11" s="10"/>
       <c r="BQ11" s="10"/>
-    </row>
-    <row r="12" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR11" s="10"/>
+      <c r="BS11" s="10"/>
+      <c r="BT11" s="1"/>
+      <c r="BU11" s="10"/>
+    </row>
+    <row r="12" spans="1:73" ht="12.75" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
@@ -1802,11 +1923,11 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="13"/>
+      <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+      <c r="O12" s="13"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -1843,10 +1964,10 @@
       <c r="AW12" s="1"/>
       <c r="AX12" s="1"/>
       <c r="AY12" s="1"/>
-      <c r="AZ12" s="10"/>
-      <c r="BA12" s="10"/>
-      <c r="BB12" s="10"/>
-      <c r="BC12" s="10"/>
+      <c r="AZ12" s="1"/>
+      <c r="BA12" s="1"/>
+      <c r="BB12" s="1"/>
+      <c r="BC12" s="1"/>
       <c r="BD12" s="10"/>
       <c r="BE12" s="10"/>
       <c r="BF12" s="10"/>
@@ -1859,10 +1980,14 @@
       <c r="BM12" s="10"/>
       <c r="BN12" s="10"/>
       <c r="BO12" s="10"/>
-      <c r="BP12" s="1"/>
+      <c r="BP12" s="10"/>
       <c r="BQ12" s="10"/>
-    </row>
-    <row r="13" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR12" s="10"/>
+      <c r="BS12" s="10"/>
+      <c r="BT12" s="1"/>
+      <c r="BU12" s="10"/>
+    </row>
+    <row r="13" spans="1:73" ht="12.75" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
@@ -1873,11 +1998,11 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="13"/>
+      <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+      <c r="O13" s="13"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -1914,10 +2039,10 @@
       <c r="AW13" s="1"/>
       <c r="AX13" s="1"/>
       <c r="AY13" s="1"/>
-      <c r="AZ13" s="10"/>
-      <c r="BA13" s="10"/>
-      <c r="BB13" s="10"/>
-      <c r="BC13" s="10"/>
+      <c r="AZ13" s="1"/>
+      <c r="BA13" s="1"/>
+      <c r="BB13" s="1"/>
+      <c r="BC13" s="1"/>
       <c r="BD13" s="10"/>
       <c r="BE13" s="10"/>
       <c r="BF13" s="10"/>
@@ -1930,10 +2055,14 @@
       <c r="BM13" s="10"/>
       <c r="BN13" s="10"/>
       <c r="BO13" s="10"/>
-      <c r="BP13" s="1"/>
+      <c r="BP13" s="10"/>
       <c r="BQ13" s="10"/>
-    </row>
-    <row r="14" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR13" s="10"/>
+      <c r="BS13" s="10"/>
+      <c r="BT13" s="1"/>
+      <c r="BU13" s="10"/>
+    </row>
+    <row r="14" spans="1:73" ht="12.75" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
@@ -1944,11 +2073,11 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="13"/>
+      <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
+      <c r="O14" s="13"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -1985,10 +2114,10 @@
       <c r="AW14" s="1"/>
       <c r="AX14" s="1"/>
       <c r="AY14" s="1"/>
-      <c r="AZ14" s="10"/>
-      <c r="BA14" s="10"/>
-      <c r="BB14" s="10"/>
-      <c r="BC14" s="10"/>
+      <c r="AZ14" s="1"/>
+      <c r="BA14" s="1"/>
+      <c r="BB14" s="1"/>
+      <c r="BC14" s="1"/>
       <c r="BD14" s="10"/>
       <c r="BE14" s="10"/>
       <c r="BF14" s="10"/>
@@ -2001,10 +2130,14 @@
       <c r="BM14" s="10"/>
       <c r="BN14" s="10"/>
       <c r="BO14" s="10"/>
-      <c r="BP14" s="1"/>
+      <c r="BP14" s="10"/>
       <c r="BQ14" s="10"/>
-    </row>
-    <row r="15" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR14" s="10"/>
+      <c r="BS14" s="10"/>
+      <c r="BT14" s="1"/>
+      <c r="BU14" s="10"/>
+    </row>
+    <row r="15" spans="1:73" ht="12.75" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
@@ -2015,11 +2148,11 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="13"/>
+      <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
+      <c r="O15" s="13"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -2056,10 +2189,10 @@
       <c r="AW15" s="1"/>
       <c r="AX15" s="1"/>
       <c r="AY15" s="1"/>
-      <c r="AZ15" s="10"/>
-      <c r="BA15" s="10"/>
-      <c r="BB15" s="10"/>
-      <c r="BC15" s="10"/>
+      <c r="AZ15" s="1"/>
+      <c r="BA15" s="1"/>
+      <c r="BB15" s="1"/>
+      <c r="BC15" s="1"/>
       <c r="BD15" s="10"/>
       <c r="BE15" s="10"/>
       <c r="BF15" s="10"/>
@@ -2072,10 +2205,14 @@
       <c r="BM15" s="10"/>
       <c r="BN15" s="10"/>
       <c r="BO15" s="10"/>
-      <c r="BP15" s="1"/>
+      <c r="BP15" s="10"/>
       <c r="BQ15" s="10"/>
-    </row>
-    <row r="16" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR15" s="10"/>
+      <c r="BS15" s="10"/>
+      <c r="BT15" s="1"/>
+      <c r="BU15" s="10"/>
+    </row>
+    <row r="16" spans="1:73" ht="12.75" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
@@ -2086,11 +2223,11 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="13"/>
+      <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
+      <c r="O16" s="13"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -2127,10 +2264,10 @@
       <c r="AW16" s="1"/>
       <c r="AX16" s="1"/>
       <c r="AY16" s="1"/>
-      <c r="AZ16" s="10"/>
-      <c r="BA16" s="10"/>
-      <c r="BB16" s="10"/>
-      <c r="BC16" s="10"/>
+      <c r="AZ16" s="1"/>
+      <c r="BA16" s="1"/>
+      <c r="BB16" s="1"/>
+      <c r="BC16" s="1"/>
       <c r="BD16" s="10"/>
       <c r="BE16" s="10"/>
       <c r="BF16" s="10"/>
@@ -2143,10 +2280,14 @@
       <c r="BM16" s="10"/>
       <c r="BN16" s="10"/>
       <c r="BO16" s="10"/>
-      <c r="BP16" s="1"/>
+      <c r="BP16" s="10"/>
       <c r="BQ16" s="10"/>
-    </row>
-    <row r="17" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR16" s="10"/>
+      <c r="BS16" s="10"/>
+      <c r="BT16" s="1"/>
+      <c r="BU16" s="10"/>
+    </row>
+    <row r="17" spans="1:73" ht="12.75" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
@@ -2157,11 +2298,11 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="13"/>
+      <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
+      <c r="O17" s="13"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -2198,10 +2339,10 @@
       <c r="AW17" s="1"/>
       <c r="AX17" s="1"/>
       <c r="AY17" s="1"/>
-      <c r="AZ17" s="10"/>
-      <c r="BA17" s="10"/>
-      <c r="BB17" s="10"/>
-      <c r="BC17" s="10"/>
+      <c r="AZ17" s="1"/>
+      <c r="BA17" s="1"/>
+      <c r="BB17" s="1"/>
+      <c r="BC17" s="1"/>
       <c r="BD17" s="10"/>
       <c r="BE17" s="10"/>
       <c r="BF17" s="10"/>
@@ -2214,10 +2355,14 @@
       <c r="BM17" s="10"/>
       <c r="BN17" s="10"/>
       <c r="BO17" s="10"/>
-      <c r="BP17" s="1"/>
+      <c r="BP17" s="10"/>
       <c r="BQ17" s="10"/>
-    </row>
-    <row r="18" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR17" s="10"/>
+      <c r="BS17" s="10"/>
+      <c r="BT17" s="1"/>
+      <c r="BU17" s="10"/>
+    </row>
+    <row r="18" spans="1:73" ht="12.75" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
@@ -2228,11 +2373,11 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="13"/>
+      <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
+      <c r="O18" s="13"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -2269,10 +2414,10 @@
       <c r="AW18" s="1"/>
       <c r="AX18" s="1"/>
       <c r="AY18" s="1"/>
-      <c r="AZ18" s="10"/>
-      <c r="BA18" s="10"/>
-      <c r="BB18" s="10"/>
-      <c r="BC18" s="10"/>
+      <c r="AZ18" s="1"/>
+      <c r="BA18" s="1"/>
+      <c r="BB18" s="1"/>
+      <c r="BC18" s="1"/>
       <c r="BD18" s="10"/>
       <c r="BE18" s="10"/>
       <c r="BF18" s="10"/>
@@ -2285,10 +2430,14 @@
       <c r="BM18" s="10"/>
       <c r="BN18" s="10"/>
       <c r="BO18" s="10"/>
-      <c r="BP18" s="1"/>
+      <c r="BP18" s="10"/>
       <c r="BQ18" s="10"/>
-    </row>
-    <row r="19" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR18" s="10"/>
+      <c r="BS18" s="10"/>
+      <c r="BT18" s="1"/>
+      <c r="BU18" s="10"/>
+    </row>
+    <row r="19" spans="1:73" ht="12.75" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
@@ -2299,11 +2448,11 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="13"/>
+      <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
+      <c r="O19" s="13"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -2340,10 +2489,10 @@
       <c r="AW19" s="1"/>
       <c r="AX19" s="1"/>
       <c r="AY19" s="1"/>
-      <c r="AZ19" s="10"/>
-      <c r="BA19" s="10"/>
-      <c r="BB19" s="10"/>
-      <c r="BC19" s="10"/>
+      <c r="AZ19" s="1"/>
+      <c r="BA19" s="1"/>
+      <c r="BB19" s="1"/>
+      <c r="BC19" s="1"/>
       <c r="BD19" s="10"/>
       <c r="BE19" s="10"/>
       <c r="BF19" s="10"/>
@@ -2356,10 +2505,14 @@
       <c r="BM19" s="10"/>
       <c r="BN19" s="10"/>
       <c r="BO19" s="10"/>
-      <c r="BP19" s="1"/>
+      <c r="BP19" s="10"/>
       <c r="BQ19" s="10"/>
-    </row>
-    <row r="20" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR19" s="10"/>
+      <c r="BS19" s="10"/>
+      <c r="BT19" s="1"/>
+      <c r="BU19" s="10"/>
+    </row>
+    <row r="20" spans="1:73" ht="12.75" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
@@ -2370,11 +2523,11 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="13"/>
+      <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
+      <c r="O20" s="13"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -2411,10 +2564,10 @@
       <c r="AW20" s="1"/>
       <c r="AX20" s="1"/>
       <c r="AY20" s="1"/>
-      <c r="AZ20" s="10"/>
-      <c r="BA20" s="10"/>
-      <c r="BB20" s="10"/>
-      <c r="BC20" s="10"/>
+      <c r="AZ20" s="1"/>
+      <c r="BA20" s="1"/>
+      <c r="BB20" s="1"/>
+      <c r="BC20" s="1"/>
       <c r="BD20" s="10"/>
       <c r="BE20" s="10"/>
       <c r="BF20" s="10"/>
@@ -2427,10 +2580,14 @@
       <c r="BM20" s="10"/>
       <c r="BN20" s="10"/>
       <c r="BO20" s="10"/>
-      <c r="BP20" s="1"/>
+      <c r="BP20" s="10"/>
       <c r="BQ20" s="10"/>
-    </row>
-    <row r="21" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR20" s="10"/>
+      <c r="BS20" s="10"/>
+      <c r="BT20" s="1"/>
+      <c r="BU20" s="10"/>
+    </row>
+    <row r="21" spans="1:73" ht="12.75" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
@@ -2441,11 +2598,11 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="13"/>
+      <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
+      <c r="O21" s="13"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -2482,10 +2639,10 @@
       <c r="AW21" s="1"/>
       <c r="AX21" s="1"/>
       <c r="AY21" s="1"/>
-      <c r="AZ21" s="10"/>
-      <c r="BA21" s="10"/>
-      <c r="BB21" s="10"/>
-      <c r="BC21" s="10"/>
+      <c r="AZ21" s="1"/>
+      <c r="BA21" s="1"/>
+      <c r="BB21" s="1"/>
+      <c r="BC21" s="1"/>
       <c r="BD21" s="10"/>
       <c r="BE21" s="10"/>
       <c r="BF21" s="10"/>
@@ -2498,10 +2655,14 @@
       <c r="BM21" s="10"/>
       <c r="BN21" s="10"/>
       <c r="BO21" s="10"/>
-      <c r="BP21" s="1"/>
+      <c r="BP21" s="10"/>
       <c r="BQ21" s="10"/>
-    </row>
-    <row r="22" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR21" s="10"/>
+      <c r="BS21" s="10"/>
+      <c r="BT21" s="1"/>
+      <c r="BU21" s="10"/>
+    </row>
+    <row r="22" spans="1:73" ht="12.75" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
@@ -2512,11 +2673,11 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="13"/>
+      <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
+      <c r="O22" s="13"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -2553,10 +2714,10 @@
       <c r="AW22" s="1"/>
       <c r="AX22" s="1"/>
       <c r="AY22" s="1"/>
-      <c r="AZ22" s="10"/>
-      <c r="BA22" s="10"/>
-      <c r="BB22" s="10"/>
-      <c r="BC22" s="10"/>
+      <c r="AZ22" s="1"/>
+      <c r="BA22" s="1"/>
+      <c r="BB22" s="1"/>
+      <c r="BC22" s="1"/>
       <c r="BD22" s="10"/>
       <c r="BE22" s="10"/>
       <c r="BF22" s="10"/>
@@ -2569,10 +2730,14 @@
       <c r="BM22" s="10"/>
       <c r="BN22" s="10"/>
       <c r="BO22" s="10"/>
-      <c r="BP22" s="1"/>
+      <c r="BP22" s="10"/>
       <c r="BQ22" s="10"/>
-    </row>
-    <row r="23" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR22" s="10"/>
+      <c r="BS22" s="10"/>
+      <c r="BT22" s="1"/>
+      <c r="BU22" s="10"/>
+    </row>
+    <row r="23" spans="1:73" ht="12.75" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
@@ -2583,11 +2748,11 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="13"/>
+      <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
+      <c r="O23" s="13"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -2624,10 +2789,10 @@
       <c r="AW23" s="1"/>
       <c r="AX23" s="1"/>
       <c r="AY23" s="1"/>
-      <c r="AZ23" s="10"/>
-      <c r="BA23" s="10"/>
-      <c r="BB23" s="10"/>
-      <c r="BC23" s="10"/>
+      <c r="AZ23" s="1"/>
+      <c r="BA23" s="1"/>
+      <c r="BB23" s="1"/>
+      <c r="BC23" s="1"/>
       <c r="BD23" s="10"/>
       <c r="BE23" s="10"/>
       <c r="BF23" s="10"/>
@@ -2640,10 +2805,14 @@
       <c r="BM23" s="10"/>
       <c r="BN23" s="10"/>
       <c r="BO23" s="10"/>
-      <c r="BP23" s="1"/>
+      <c r="BP23" s="10"/>
       <c r="BQ23" s="10"/>
-    </row>
-    <row r="24" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR23" s="10"/>
+      <c r="BS23" s="10"/>
+      <c r="BT23" s="1"/>
+      <c r="BU23" s="10"/>
+    </row>
+    <row r="24" spans="1:73" ht="12.75" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
@@ -2654,11 +2823,11 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="13"/>
+      <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
+      <c r="O24" s="13"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -2695,10 +2864,10 @@
       <c r="AW24" s="1"/>
       <c r="AX24" s="1"/>
       <c r="AY24" s="1"/>
-      <c r="AZ24" s="10"/>
-      <c r="BA24" s="10"/>
-      <c r="BB24" s="10"/>
-      <c r="BC24" s="10"/>
+      <c r="AZ24" s="1"/>
+      <c r="BA24" s="1"/>
+      <c r="BB24" s="1"/>
+      <c r="BC24" s="1"/>
       <c r="BD24" s="10"/>
       <c r="BE24" s="10"/>
       <c r="BF24" s="10"/>
@@ -2711,10 +2880,14 @@
       <c r="BM24" s="10"/>
       <c r="BN24" s="10"/>
       <c r="BO24" s="10"/>
-      <c r="BP24" s="1"/>
+      <c r="BP24" s="10"/>
       <c r="BQ24" s="10"/>
-    </row>
-    <row r="25" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR24" s="10"/>
+      <c r="BS24" s="10"/>
+      <c r="BT24" s="1"/>
+      <c r="BU24" s="10"/>
+    </row>
+    <row r="25" spans="1:73" ht="12.75" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
@@ -2725,11 +2898,11 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="13"/>
+      <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
+      <c r="O25" s="13"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -2766,10 +2939,10 @@
       <c r="AW25" s="1"/>
       <c r="AX25" s="1"/>
       <c r="AY25" s="1"/>
-      <c r="AZ25" s="10"/>
-      <c r="BA25" s="10"/>
-      <c r="BB25" s="10"/>
-      <c r="BC25" s="10"/>
+      <c r="AZ25" s="1"/>
+      <c r="BA25" s="1"/>
+      <c r="BB25" s="1"/>
+      <c r="BC25" s="1"/>
       <c r="BD25" s="10"/>
       <c r="BE25" s="10"/>
       <c r="BF25" s="10"/>
@@ -2782,10 +2955,14 @@
       <c r="BM25" s="10"/>
       <c r="BN25" s="10"/>
       <c r="BO25" s="10"/>
-      <c r="BP25" s="1"/>
+      <c r="BP25" s="10"/>
       <c r="BQ25" s="10"/>
-    </row>
-    <row r="26" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR25" s="10"/>
+      <c r="BS25" s="10"/>
+      <c r="BT25" s="1"/>
+      <c r="BU25" s="10"/>
+    </row>
+    <row r="26" spans="1:73" ht="12.75" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
@@ -2796,11 +2973,11 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="13"/>
+      <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
+      <c r="O26" s="13"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
@@ -2837,10 +3014,10 @@
       <c r="AW26" s="1"/>
       <c r="AX26" s="1"/>
       <c r="AY26" s="1"/>
-      <c r="AZ26" s="10"/>
-      <c r="BA26" s="10"/>
-      <c r="BB26" s="10"/>
-      <c r="BC26" s="10"/>
+      <c r="AZ26" s="1"/>
+      <c r="BA26" s="1"/>
+      <c r="BB26" s="1"/>
+      <c r="BC26" s="1"/>
       <c r="BD26" s="10"/>
       <c r="BE26" s="10"/>
       <c r="BF26" s="10"/>
@@ -2853,10 +3030,14 @@
       <c r="BM26" s="10"/>
       <c r="BN26" s="10"/>
       <c r="BO26" s="10"/>
-      <c r="BP26" s="1"/>
+      <c r="BP26" s="10"/>
       <c r="BQ26" s="10"/>
-    </row>
-    <row r="27" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR26" s="10"/>
+      <c r="BS26" s="10"/>
+      <c r="BT26" s="1"/>
+      <c r="BU26" s="10"/>
+    </row>
+    <row r="27" spans="1:73" ht="12.75" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
@@ -2867,11 +3048,11 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="13"/>
+      <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
+      <c r="O27" s="13"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
@@ -2908,10 +3089,10 @@
       <c r="AW27" s="1"/>
       <c r="AX27" s="1"/>
       <c r="AY27" s="1"/>
-      <c r="AZ27" s="10"/>
-      <c r="BA27" s="10"/>
-      <c r="BB27" s="10"/>
-      <c r="BC27" s="10"/>
+      <c r="AZ27" s="1"/>
+      <c r="BA27" s="1"/>
+      <c r="BB27" s="1"/>
+      <c r="BC27" s="1"/>
       <c r="BD27" s="10"/>
       <c r="BE27" s="10"/>
       <c r="BF27" s="10"/>
@@ -2924,10 +3105,14 @@
       <c r="BM27" s="10"/>
       <c r="BN27" s="10"/>
       <c r="BO27" s="10"/>
-      <c r="BP27" s="1"/>
+      <c r="BP27" s="10"/>
       <c r="BQ27" s="10"/>
-    </row>
-    <row r="28" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR27" s="10"/>
+      <c r="BS27" s="10"/>
+      <c r="BT27" s="1"/>
+      <c r="BU27" s="10"/>
+    </row>
+    <row r="28" spans="1:73" ht="12.75" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
@@ -2938,11 +3123,11 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="13"/>
+      <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
+      <c r="O28" s="13"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
@@ -2979,10 +3164,10 @@
       <c r="AW28" s="1"/>
       <c r="AX28" s="1"/>
       <c r="AY28" s="1"/>
-      <c r="AZ28" s="10"/>
-      <c r="BA28" s="10"/>
-      <c r="BB28" s="10"/>
-      <c r="BC28" s="10"/>
+      <c r="AZ28" s="1"/>
+      <c r="BA28" s="1"/>
+      <c r="BB28" s="1"/>
+      <c r="BC28" s="1"/>
       <c r="BD28" s="10"/>
       <c r="BE28" s="10"/>
       <c r="BF28" s="10"/>
@@ -2995,10 +3180,14 @@
       <c r="BM28" s="10"/>
       <c r="BN28" s="10"/>
       <c r="BO28" s="10"/>
-      <c r="BP28" s="1"/>
+      <c r="BP28" s="10"/>
       <c r="BQ28" s="10"/>
-    </row>
-    <row r="29" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR28" s="10"/>
+      <c r="BS28" s="10"/>
+      <c r="BT28" s="1"/>
+      <c r="BU28" s="10"/>
+    </row>
+    <row r="29" spans="1:73" ht="12.75" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="8"/>
       <c r="C29" s="9"/>
@@ -3009,11 +3198,11 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="13"/>
+      <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
+      <c r="O29" s="13"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -3050,10 +3239,10 @@
       <c r="AW29" s="1"/>
       <c r="AX29" s="1"/>
       <c r="AY29" s="1"/>
-      <c r="AZ29" s="10"/>
-      <c r="BA29" s="10"/>
-      <c r="BB29" s="10"/>
-      <c r="BC29" s="10"/>
+      <c r="AZ29" s="1"/>
+      <c r="BA29" s="1"/>
+      <c r="BB29" s="1"/>
+      <c r="BC29" s="1"/>
       <c r="BD29" s="10"/>
       <c r="BE29" s="10"/>
       <c r="BF29" s="10"/>
@@ -3066,10 +3255,14 @@
       <c r="BM29" s="10"/>
       <c r="BN29" s="10"/>
       <c r="BO29" s="10"/>
-      <c r="BP29" s="1"/>
+      <c r="BP29" s="10"/>
       <c r="BQ29" s="10"/>
-    </row>
-    <row r="30" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR29" s="10"/>
+      <c r="BS29" s="10"/>
+      <c r="BT29" s="1"/>
+      <c r="BU29" s="10"/>
+    </row>
+    <row r="30" spans="1:73" ht="12.75" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="8"/>
       <c r="C30" s="9"/>
@@ -3080,11 +3273,11 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="13"/>
+      <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
+      <c r="O30" s="13"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -3121,10 +3314,10 @@
       <c r="AW30" s="1"/>
       <c r="AX30" s="1"/>
       <c r="AY30" s="1"/>
-      <c r="AZ30" s="10"/>
-      <c r="BA30" s="10"/>
-      <c r="BB30" s="10"/>
-      <c r="BC30" s="10"/>
+      <c r="AZ30" s="1"/>
+      <c r="BA30" s="1"/>
+      <c r="BB30" s="1"/>
+      <c r="BC30" s="1"/>
       <c r="BD30" s="10"/>
       <c r="BE30" s="10"/>
       <c r="BF30" s="10"/>
@@ -3137,10 +3330,14 @@
       <c r="BM30" s="10"/>
       <c r="BN30" s="10"/>
       <c r="BO30" s="10"/>
-      <c r="BP30" s="1"/>
+      <c r="BP30" s="10"/>
       <c r="BQ30" s="10"/>
-    </row>
-    <row r="31" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR30" s="10"/>
+      <c r="BS30" s="10"/>
+      <c r="BT30" s="1"/>
+      <c r="BU30" s="10"/>
+    </row>
+    <row r="31" spans="1:73" ht="12.75" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
@@ -3151,11 +3348,11 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="13"/>
+      <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
+      <c r="O31" s="13"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
@@ -3192,10 +3389,10 @@
       <c r="AW31" s="1"/>
       <c r="AX31" s="1"/>
       <c r="AY31" s="1"/>
-      <c r="AZ31" s="10"/>
-      <c r="BA31" s="10"/>
-      <c r="BB31" s="10"/>
-      <c r="BC31" s="10"/>
+      <c r="AZ31" s="1"/>
+      <c r="BA31" s="1"/>
+      <c r="BB31" s="1"/>
+      <c r="BC31" s="1"/>
       <c r="BD31" s="10"/>
       <c r="BE31" s="10"/>
       <c r="BF31" s="10"/>
@@ -3208,10 +3405,14 @@
       <c r="BM31" s="10"/>
       <c r="BN31" s="10"/>
       <c r="BO31" s="10"/>
-      <c r="BP31" s="1"/>
+      <c r="BP31" s="10"/>
       <c r="BQ31" s="10"/>
-    </row>
-    <row r="32" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR31" s="10"/>
+      <c r="BS31" s="10"/>
+      <c r="BT31" s="1"/>
+      <c r="BU31" s="10"/>
+    </row>
+    <row r="32" spans="1:73" ht="12.75" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="8"/>
       <c r="C32" s="9"/>
@@ -3222,11 +3423,11 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="13"/>
+      <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
+      <c r="O32" s="13"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
@@ -3263,10 +3464,10 @@
       <c r="AW32" s="1"/>
       <c r="AX32" s="1"/>
       <c r="AY32" s="1"/>
-      <c r="AZ32" s="10"/>
-      <c r="BA32" s="10"/>
-      <c r="BB32" s="10"/>
-      <c r="BC32" s="10"/>
+      <c r="AZ32" s="1"/>
+      <c r="BA32" s="1"/>
+      <c r="BB32" s="1"/>
+      <c r="BC32" s="1"/>
       <c r="BD32" s="10"/>
       <c r="BE32" s="10"/>
       <c r="BF32" s="10"/>
@@ -3279,10 +3480,14 @@
       <c r="BM32" s="10"/>
       <c r="BN32" s="10"/>
       <c r="BO32" s="10"/>
-      <c r="BP32" s="1"/>
+      <c r="BP32" s="10"/>
       <c r="BQ32" s="10"/>
-    </row>
-    <row r="33" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR32" s="10"/>
+      <c r="BS32" s="10"/>
+      <c r="BT32" s="1"/>
+      <c r="BU32" s="10"/>
+    </row>
+    <row r="33" spans="1:73" ht="12.75" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
@@ -3293,11 +3498,11 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="13"/>
+      <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
+      <c r="O33" s="13"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
@@ -3334,10 +3539,10 @@
       <c r="AW33" s="1"/>
       <c r="AX33" s="1"/>
       <c r="AY33" s="1"/>
-      <c r="AZ33" s="10"/>
-      <c r="BA33" s="10"/>
-      <c r="BB33" s="10"/>
-      <c r="BC33" s="10"/>
+      <c r="AZ33" s="1"/>
+      <c r="BA33" s="1"/>
+      <c r="BB33" s="1"/>
+      <c r="BC33" s="1"/>
       <c r="BD33" s="10"/>
       <c r="BE33" s="10"/>
       <c r="BF33" s="10"/>
@@ -3350,10 +3555,14 @@
       <c r="BM33" s="10"/>
       <c r="BN33" s="10"/>
       <c r="BO33" s="10"/>
-      <c r="BP33" s="1"/>
+      <c r="BP33" s="10"/>
       <c r="BQ33" s="10"/>
-    </row>
-    <row r="34" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR33" s="10"/>
+      <c r="BS33" s="10"/>
+      <c r="BT33" s="1"/>
+      <c r="BU33" s="10"/>
+    </row>
+    <row r="34" spans="1:73" ht="12.75" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="8"/>
       <c r="C34" s="9"/>
@@ -3364,11 +3573,11 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="13"/>
+      <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
+      <c r="O34" s="13"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
@@ -3405,10 +3614,10 @@
       <c r="AW34" s="1"/>
       <c r="AX34" s="1"/>
       <c r="AY34" s="1"/>
-      <c r="AZ34" s="10"/>
-      <c r="BA34" s="10"/>
-      <c r="BB34" s="10"/>
-      <c r="BC34" s="10"/>
+      <c r="AZ34" s="1"/>
+      <c r="BA34" s="1"/>
+      <c r="BB34" s="1"/>
+      <c r="BC34" s="1"/>
       <c r="BD34" s="10"/>
       <c r="BE34" s="10"/>
       <c r="BF34" s="10"/>
@@ -3421,10 +3630,14 @@
       <c r="BM34" s="10"/>
       <c r="BN34" s="10"/>
       <c r="BO34" s="10"/>
-      <c r="BP34" s="1"/>
+      <c r="BP34" s="10"/>
       <c r="BQ34" s="10"/>
-    </row>
-    <row r="35" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR34" s="10"/>
+      <c r="BS34" s="10"/>
+      <c r="BT34" s="1"/>
+      <c r="BU34" s="10"/>
+    </row>
+    <row r="35" spans="1:73" ht="12.75" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="8"/>
       <c r="C35" s="9"/>
@@ -3435,11 +3648,11 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="13"/>
+      <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
+      <c r="O35" s="13"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
@@ -3476,10 +3689,10 @@
       <c r="AW35" s="1"/>
       <c r="AX35" s="1"/>
       <c r="AY35" s="1"/>
-      <c r="AZ35" s="10"/>
-      <c r="BA35" s="10"/>
-      <c r="BB35" s="10"/>
-      <c r="BC35" s="10"/>
+      <c r="AZ35" s="1"/>
+      <c r="BA35" s="1"/>
+      <c r="BB35" s="1"/>
+      <c r="BC35" s="1"/>
       <c r="BD35" s="10"/>
       <c r="BE35" s="10"/>
       <c r="BF35" s="10"/>
@@ -3492,10 +3705,14 @@
       <c r="BM35" s="10"/>
       <c r="BN35" s="10"/>
       <c r="BO35" s="10"/>
-      <c r="BP35" s="1"/>
+      <c r="BP35" s="10"/>
       <c r="BQ35" s="10"/>
-    </row>
-    <row r="36" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR35" s="10"/>
+      <c r="BS35" s="10"/>
+      <c r="BT35" s="1"/>
+      <c r="BU35" s="10"/>
+    </row>
+    <row r="36" spans="1:73" ht="12.75" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="8"/>
       <c r="C36" s="9"/>
@@ -3506,11 +3723,11 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="13"/>
+      <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
+      <c r="O36" s="13"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -3547,10 +3764,10 @@
       <c r="AW36" s="1"/>
       <c r="AX36" s="1"/>
       <c r="AY36" s="1"/>
-      <c r="AZ36" s="10"/>
-      <c r="BA36" s="10"/>
-      <c r="BB36" s="10"/>
-      <c r="BC36" s="10"/>
+      <c r="AZ36" s="1"/>
+      <c r="BA36" s="1"/>
+      <c r="BB36" s="1"/>
+      <c r="BC36" s="1"/>
       <c r="BD36" s="10"/>
       <c r="BE36" s="10"/>
       <c r="BF36" s="10"/>
@@ -3563,10 +3780,14 @@
       <c r="BM36" s="10"/>
       <c r="BN36" s="10"/>
       <c r="BO36" s="10"/>
-      <c r="BP36" s="1"/>
+      <c r="BP36" s="10"/>
       <c r="BQ36" s="10"/>
-    </row>
-    <row r="37" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR36" s="10"/>
+      <c r="BS36" s="10"/>
+      <c r="BT36" s="1"/>
+      <c r="BU36" s="10"/>
+    </row>
+    <row r="37" spans="1:73" ht="12.75" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
@@ -3577,11 +3798,11 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
-      <c r="K37" s="13"/>
+      <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
+      <c r="O37" s="13"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -3618,10 +3839,10 @@
       <c r="AW37" s="1"/>
       <c r="AX37" s="1"/>
       <c r="AY37" s="1"/>
-      <c r="AZ37" s="10"/>
-      <c r="BA37" s="10"/>
-      <c r="BB37" s="10"/>
-      <c r="BC37" s="10"/>
+      <c r="AZ37" s="1"/>
+      <c r="BA37" s="1"/>
+      <c r="BB37" s="1"/>
+      <c r="BC37" s="1"/>
       <c r="BD37" s="10"/>
       <c r="BE37" s="10"/>
       <c r="BF37" s="10"/>
@@ -3634,10 +3855,14 @@
       <c r="BM37" s="10"/>
       <c r="BN37" s="10"/>
       <c r="BO37" s="10"/>
-      <c r="BP37" s="1"/>
+      <c r="BP37" s="10"/>
       <c r="BQ37" s="10"/>
-    </row>
-    <row r="38" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR37" s="10"/>
+      <c r="BS37" s="10"/>
+      <c r="BT37" s="1"/>
+      <c r="BU37" s="10"/>
+    </row>
+    <row r="38" spans="1:73" ht="12.75" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="8"/>
       <c r="C38" s="9"/>
@@ -3648,11 +3873,11 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
-      <c r="K38" s="13"/>
+      <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
+      <c r="O38" s="13"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
@@ -3689,10 +3914,10 @@
       <c r="AW38" s="1"/>
       <c r="AX38" s="1"/>
       <c r="AY38" s="1"/>
-      <c r="AZ38" s="10"/>
-      <c r="BA38" s="10"/>
-      <c r="BB38" s="10"/>
-      <c r="BC38" s="10"/>
+      <c r="AZ38" s="1"/>
+      <c r="BA38" s="1"/>
+      <c r="BB38" s="1"/>
+      <c r="BC38" s="1"/>
       <c r="BD38" s="10"/>
       <c r="BE38" s="10"/>
       <c r="BF38" s="10"/>
@@ -3705,10 +3930,14 @@
       <c r="BM38" s="10"/>
       <c r="BN38" s="10"/>
       <c r="BO38" s="10"/>
-      <c r="BP38" s="1"/>
+      <c r="BP38" s="10"/>
       <c r="BQ38" s="10"/>
-    </row>
-    <row r="39" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR38" s="10"/>
+      <c r="BS38" s="10"/>
+      <c r="BT38" s="1"/>
+      <c r="BU38" s="10"/>
+    </row>
+    <row r="39" spans="1:73" ht="12.75" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="8"/>
       <c r="C39" s="9"/>
@@ -3719,11 +3948,11 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
-      <c r="K39" s="13"/>
+      <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
+      <c r="O39" s="13"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
@@ -3760,10 +3989,10 @@
       <c r="AW39" s="1"/>
       <c r="AX39" s="1"/>
       <c r="AY39" s="1"/>
-      <c r="AZ39" s="10"/>
-      <c r="BA39" s="10"/>
-      <c r="BB39" s="10"/>
-      <c r="BC39" s="10"/>
+      <c r="AZ39" s="1"/>
+      <c r="BA39" s="1"/>
+      <c r="BB39" s="1"/>
+      <c r="BC39" s="1"/>
       <c r="BD39" s="10"/>
       <c r="BE39" s="10"/>
       <c r="BF39" s="10"/>
@@ -3776,10 +4005,14 @@
       <c r="BM39" s="10"/>
       <c r="BN39" s="10"/>
       <c r="BO39" s="10"/>
-      <c r="BP39" s="1"/>
+      <c r="BP39" s="10"/>
       <c r="BQ39" s="10"/>
-    </row>
-    <row r="40" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR39" s="10"/>
+      <c r="BS39" s="10"/>
+      <c r="BT39" s="1"/>
+      <c r="BU39" s="10"/>
+    </row>
+    <row r="40" spans="1:73" ht="12.75" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="8"/>
       <c r="C40" s="9"/>
@@ -3790,11 +4023,11 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
-      <c r="K40" s="13"/>
+      <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
+      <c r="O40" s="13"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
@@ -3831,10 +4064,10 @@
       <c r="AW40" s="1"/>
       <c r="AX40" s="1"/>
       <c r="AY40" s="1"/>
-      <c r="AZ40" s="10"/>
-      <c r="BA40" s="10"/>
-      <c r="BB40" s="10"/>
-      <c r="BC40" s="10"/>
+      <c r="AZ40" s="1"/>
+      <c r="BA40" s="1"/>
+      <c r="BB40" s="1"/>
+      <c r="BC40" s="1"/>
       <c r="BD40" s="10"/>
       <c r="BE40" s="10"/>
       <c r="BF40" s="10"/>
@@ -3847,10 +4080,14 @@
       <c r="BM40" s="10"/>
       <c r="BN40" s="10"/>
       <c r="BO40" s="10"/>
-      <c r="BP40" s="1"/>
+      <c r="BP40" s="10"/>
       <c r="BQ40" s="10"/>
-    </row>
-    <row r="41" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR40" s="10"/>
+      <c r="BS40" s="10"/>
+      <c r="BT40" s="1"/>
+      <c r="BU40" s="10"/>
+    </row>
+    <row r="41" spans="1:73" ht="12.75" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="8"/>
       <c r="C41" s="9"/>
@@ -3861,11 +4098,11 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
-      <c r="K41" s="13"/>
+      <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
+      <c r="O41" s="13"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
@@ -3902,10 +4139,10 @@
       <c r="AW41" s="1"/>
       <c r="AX41" s="1"/>
       <c r="AY41" s="1"/>
-      <c r="AZ41" s="10"/>
-      <c r="BA41" s="10"/>
-      <c r="BB41" s="10"/>
-      <c r="BC41" s="10"/>
+      <c r="AZ41" s="1"/>
+      <c r="BA41" s="1"/>
+      <c r="BB41" s="1"/>
+      <c r="BC41" s="1"/>
       <c r="BD41" s="10"/>
       <c r="BE41" s="10"/>
       <c r="BF41" s="10"/>
@@ -3918,10 +4155,14 @@
       <c r="BM41" s="10"/>
       <c r="BN41" s="10"/>
       <c r="BO41" s="10"/>
-      <c r="BP41" s="1"/>
+      <c r="BP41" s="10"/>
       <c r="BQ41" s="10"/>
-    </row>
-    <row r="42" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR41" s="10"/>
+      <c r="BS41" s="10"/>
+      <c r="BT41" s="1"/>
+      <c r="BU41" s="10"/>
+    </row>
+    <row r="42" spans="1:73" ht="12.75" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="8"/>
       <c r="C42" s="9"/>
@@ -3932,11 +4173,11 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="13"/>
+      <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
+      <c r="O42" s="13"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
@@ -3973,10 +4214,10 @@
       <c r="AW42" s="1"/>
       <c r="AX42" s="1"/>
       <c r="AY42" s="1"/>
-      <c r="AZ42" s="10"/>
-      <c r="BA42" s="10"/>
-      <c r="BB42" s="10"/>
-      <c r="BC42" s="10"/>
+      <c r="AZ42" s="1"/>
+      <c r="BA42" s="1"/>
+      <c r="BB42" s="1"/>
+      <c r="BC42" s="1"/>
       <c r="BD42" s="10"/>
       <c r="BE42" s="10"/>
       <c r="BF42" s="10"/>
@@ -3989,10 +4230,14 @@
       <c r="BM42" s="10"/>
       <c r="BN42" s="10"/>
       <c r="BO42" s="10"/>
-      <c r="BP42" s="1"/>
+      <c r="BP42" s="10"/>
       <c r="BQ42" s="10"/>
-    </row>
-    <row r="43" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR42" s="10"/>
+      <c r="BS42" s="10"/>
+      <c r="BT42" s="1"/>
+      <c r="BU42" s="10"/>
+    </row>
+    <row r="43" spans="1:73" ht="12.75" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="8"/>
       <c r="C43" s="9"/>
@@ -4003,11 +4248,11 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
-      <c r="K43" s="13"/>
+      <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
+      <c r="O43" s="13"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
@@ -4044,10 +4289,10 @@
       <c r="AW43" s="1"/>
       <c r="AX43" s="1"/>
       <c r="AY43" s="1"/>
-      <c r="AZ43" s="10"/>
-      <c r="BA43" s="10"/>
-      <c r="BB43" s="10"/>
-      <c r="BC43" s="10"/>
+      <c r="AZ43" s="1"/>
+      <c r="BA43" s="1"/>
+      <c r="BB43" s="1"/>
+      <c r="BC43" s="1"/>
       <c r="BD43" s="10"/>
       <c r="BE43" s="10"/>
       <c r="BF43" s="10"/>
@@ -4060,10 +4305,14 @@
       <c r="BM43" s="10"/>
       <c r="BN43" s="10"/>
       <c r="BO43" s="10"/>
-      <c r="BP43" s="1"/>
+      <c r="BP43" s="10"/>
       <c r="BQ43" s="10"/>
-    </row>
-    <row r="44" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR43" s="10"/>
+      <c r="BS43" s="10"/>
+      <c r="BT43" s="1"/>
+      <c r="BU43" s="10"/>
+    </row>
+    <row r="44" spans="1:73" ht="12.75" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="8"/>
       <c r="C44" s="9"/>
@@ -4074,11 +4323,11 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
-      <c r="K44" s="13"/>
+      <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
+      <c r="O44" s="13"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
@@ -4115,10 +4364,10 @@
       <c r="AW44" s="1"/>
       <c r="AX44" s="1"/>
       <c r="AY44" s="1"/>
-      <c r="AZ44" s="10"/>
-      <c r="BA44" s="10"/>
-      <c r="BB44" s="10"/>
-      <c r="BC44" s="10"/>
+      <c r="AZ44" s="1"/>
+      <c r="BA44" s="1"/>
+      <c r="BB44" s="1"/>
+      <c r="BC44" s="1"/>
       <c r="BD44" s="10"/>
       <c r="BE44" s="10"/>
       <c r="BF44" s="10"/>
@@ -4131,10 +4380,14 @@
       <c r="BM44" s="10"/>
       <c r="BN44" s="10"/>
       <c r="BO44" s="10"/>
-      <c r="BP44" s="1"/>
+      <c r="BP44" s="10"/>
       <c r="BQ44" s="10"/>
-    </row>
-    <row r="45" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR44" s="10"/>
+      <c r="BS44" s="10"/>
+      <c r="BT44" s="1"/>
+      <c r="BU44" s="10"/>
+    </row>
+    <row r="45" spans="1:73" ht="12.75" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="8"/>
       <c r="C45" s="9"/>
@@ -4145,11 +4398,11 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
-      <c r="K45" s="13"/>
+      <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
+      <c r="O45" s="13"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
@@ -4186,10 +4439,10 @@
       <c r="AW45" s="1"/>
       <c r="AX45" s="1"/>
       <c r="AY45" s="1"/>
-      <c r="AZ45" s="10"/>
-      <c r="BA45" s="10"/>
-      <c r="BB45" s="10"/>
-      <c r="BC45" s="10"/>
+      <c r="AZ45" s="1"/>
+      <c r="BA45" s="1"/>
+      <c r="BB45" s="1"/>
+      <c r="BC45" s="1"/>
       <c r="BD45" s="10"/>
       <c r="BE45" s="10"/>
       <c r="BF45" s="10"/>
@@ -4202,10 +4455,14 @@
       <c r="BM45" s="10"/>
       <c r="BN45" s="10"/>
       <c r="BO45" s="10"/>
-      <c r="BP45" s="1"/>
+      <c r="BP45" s="10"/>
       <c r="BQ45" s="10"/>
-    </row>
-    <row r="46" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR45" s="10"/>
+      <c r="BS45" s="10"/>
+      <c r="BT45" s="1"/>
+      <c r="BU45" s="10"/>
+    </row>
+    <row r="46" spans="1:73" ht="12.75" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="8"/>
       <c r="C46" s="9"/>
@@ -4216,11 +4473,11 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
-      <c r="K46" s="13"/>
+      <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
+      <c r="O46" s="13"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
@@ -4257,10 +4514,10 @@
       <c r="AW46" s="1"/>
       <c r="AX46" s="1"/>
       <c r="AY46" s="1"/>
-      <c r="AZ46" s="10"/>
-      <c r="BA46" s="10"/>
-      <c r="BB46" s="10"/>
-      <c r="BC46" s="10"/>
+      <c r="AZ46" s="1"/>
+      <c r="BA46" s="1"/>
+      <c r="BB46" s="1"/>
+      <c r="BC46" s="1"/>
       <c r="BD46" s="10"/>
       <c r="BE46" s="10"/>
       <c r="BF46" s="10"/>
@@ -4273,10 +4530,14 @@
       <c r="BM46" s="10"/>
       <c r="BN46" s="10"/>
       <c r="BO46" s="10"/>
-      <c r="BP46" s="1"/>
+      <c r="BP46" s="10"/>
       <c r="BQ46" s="10"/>
-    </row>
-    <row r="47" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR46" s="10"/>
+      <c r="BS46" s="10"/>
+      <c r="BT46" s="1"/>
+      <c r="BU46" s="10"/>
+    </row>
+    <row r="47" spans="1:73" ht="12.75" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="8"/>
       <c r="C47" s="9"/>
@@ -4287,11 +4548,11 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
-      <c r="K47" s="13"/>
+      <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
+      <c r="O47" s="13"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
@@ -4328,10 +4589,10 @@
       <c r="AW47" s="1"/>
       <c r="AX47" s="1"/>
       <c r="AY47" s="1"/>
-      <c r="AZ47" s="10"/>
-      <c r="BA47" s="10"/>
-      <c r="BB47" s="10"/>
-      <c r="BC47" s="10"/>
+      <c r="AZ47" s="1"/>
+      <c r="BA47" s="1"/>
+      <c r="BB47" s="1"/>
+      <c r="BC47" s="1"/>
       <c r="BD47" s="10"/>
       <c r="BE47" s="10"/>
       <c r="BF47" s="10"/>
@@ -4344,10 +4605,14 @@
       <c r="BM47" s="10"/>
       <c r="BN47" s="10"/>
       <c r="BO47" s="10"/>
-      <c r="BP47" s="1"/>
+      <c r="BP47" s="10"/>
       <c r="BQ47" s="10"/>
-    </row>
-    <row r="48" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR47" s="10"/>
+      <c r="BS47" s="10"/>
+      <c r="BT47" s="1"/>
+      <c r="BU47" s="10"/>
+    </row>
+    <row r="48" spans="1:73" ht="12.75" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="8"/>
       <c r="C48" s="9"/>
@@ -4358,11 +4623,11 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
-      <c r="K48" s="13"/>
+      <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
+      <c r="O48" s="13"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
@@ -4399,10 +4664,10 @@
       <c r="AW48" s="1"/>
       <c r="AX48" s="1"/>
       <c r="AY48" s="1"/>
-      <c r="AZ48" s="10"/>
-      <c r="BA48" s="10"/>
-      <c r="BB48" s="10"/>
-      <c r="BC48" s="10"/>
+      <c r="AZ48" s="1"/>
+      <c r="BA48" s="1"/>
+      <c r="BB48" s="1"/>
+      <c r="BC48" s="1"/>
       <c r="BD48" s="10"/>
       <c r="BE48" s="10"/>
       <c r="BF48" s="10"/>
@@ -4415,10 +4680,14 @@
       <c r="BM48" s="10"/>
       <c r="BN48" s="10"/>
       <c r="BO48" s="10"/>
-      <c r="BP48" s="1"/>
+      <c r="BP48" s="10"/>
       <c r="BQ48" s="10"/>
-    </row>
-    <row r="49" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR48" s="10"/>
+      <c r="BS48" s="10"/>
+      <c r="BT48" s="1"/>
+      <c r="BU48" s="10"/>
+    </row>
+    <row r="49" spans="1:73" ht="12.75" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="8"/>
       <c r="C49" s="9"/>
@@ -4429,11 +4698,11 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
-      <c r="K49" s="13"/>
+      <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
+      <c r="O49" s="13"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
@@ -4470,10 +4739,10 @@
       <c r="AW49" s="1"/>
       <c r="AX49" s="1"/>
       <c r="AY49" s="1"/>
-      <c r="AZ49" s="10"/>
-      <c r="BA49" s="10"/>
-      <c r="BB49" s="10"/>
-      <c r="BC49" s="10"/>
+      <c r="AZ49" s="1"/>
+      <c r="BA49" s="1"/>
+      <c r="BB49" s="1"/>
+      <c r="BC49" s="1"/>
       <c r="BD49" s="10"/>
       <c r="BE49" s="10"/>
       <c r="BF49" s="10"/>
@@ -4486,10 +4755,14 @@
       <c r="BM49" s="10"/>
       <c r="BN49" s="10"/>
       <c r="BO49" s="10"/>
-      <c r="BP49" s="1"/>
+      <c r="BP49" s="10"/>
       <c r="BQ49" s="10"/>
-    </row>
-    <row r="50" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR49" s="10"/>
+      <c r="BS49" s="10"/>
+      <c r="BT49" s="1"/>
+      <c r="BU49" s="10"/>
+    </row>
+    <row r="50" spans="1:73" ht="12.75" customHeight="1">
       <c r="A50" s="3"/>
       <c r="B50" s="8"/>
       <c r="C50" s="9"/>
@@ -4500,11 +4773,11 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
-      <c r="K50" s="13"/>
+      <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
+      <c r="O50" s="13"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
@@ -4541,10 +4814,10 @@
       <c r="AW50" s="1"/>
       <c r="AX50" s="1"/>
       <c r="AY50" s="1"/>
-      <c r="AZ50" s="10"/>
-      <c r="BA50" s="10"/>
-      <c r="BB50" s="10"/>
-      <c r="BC50" s="10"/>
+      <c r="AZ50" s="1"/>
+      <c r="BA50" s="1"/>
+      <c r="BB50" s="1"/>
+      <c r="BC50" s="1"/>
       <c r="BD50" s="10"/>
       <c r="BE50" s="10"/>
       <c r="BF50" s="10"/>
@@ -4557,10 +4830,14 @@
       <c r="BM50" s="10"/>
       <c r="BN50" s="10"/>
       <c r="BO50" s="10"/>
-      <c r="BP50" s="1"/>
+      <c r="BP50" s="10"/>
       <c r="BQ50" s="10"/>
-    </row>
-    <row r="51" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR50" s="10"/>
+      <c r="BS50" s="10"/>
+      <c r="BT50" s="1"/>
+      <c r="BU50" s="10"/>
+    </row>
+    <row r="51" spans="1:73" ht="12.75" customHeight="1">
       <c r="A51" s="3"/>
       <c r="B51" s="8"/>
       <c r="C51" s="9"/>
@@ -4571,11 +4848,11 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
-      <c r="K51" s="13"/>
+      <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
+      <c r="O51" s="13"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
@@ -4612,10 +4889,10 @@
       <c r="AW51" s="1"/>
       <c r="AX51" s="1"/>
       <c r="AY51" s="1"/>
-      <c r="AZ51" s="10"/>
-      <c r="BA51" s="10"/>
-      <c r="BB51" s="10"/>
-      <c r="BC51" s="10"/>
+      <c r="AZ51" s="1"/>
+      <c r="BA51" s="1"/>
+      <c r="BB51" s="1"/>
+      <c r="BC51" s="1"/>
       <c r="BD51" s="10"/>
       <c r="BE51" s="10"/>
       <c r="BF51" s="10"/>
@@ -4628,10 +4905,14 @@
       <c r="BM51" s="10"/>
       <c r="BN51" s="10"/>
       <c r="BO51" s="10"/>
-      <c r="BP51" s="1"/>
+      <c r="BP51" s="10"/>
       <c r="BQ51" s="10"/>
-    </row>
-    <row r="52" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR51" s="10"/>
+      <c r="BS51" s="10"/>
+      <c r="BT51" s="1"/>
+      <c r="BU51" s="10"/>
+    </row>
+    <row r="52" spans="1:73" ht="12.75" customHeight="1">
       <c r="A52" s="3"/>
       <c r="B52" s="8"/>
       <c r="C52" s="9"/>
@@ -4642,11 +4923,11 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
-      <c r="K52" s="13"/>
+      <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
+      <c r="O52" s="13"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
@@ -4683,10 +4964,10 @@
       <c r="AW52" s="1"/>
       <c r="AX52" s="1"/>
       <c r="AY52" s="1"/>
-      <c r="AZ52" s="10"/>
-      <c r="BA52" s="10"/>
-      <c r="BB52" s="10"/>
-      <c r="BC52" s="10"/>
+      <c r="AZ52" s="1"/>
+      <c r="BA52" s="1"/>
+      <c r="BB52" s="1"/>
+      <c r="BC52" s="1"/>
       <c r="BD52" s="10"/>
       <c r="BE52" s="10"/>
       <c r="BF52" s="10"/>
@@ -4699,10 +4980,14 @@
       <c r="BM52" s="10"/>
       <c r="BN52" s="10"/>
       <c r="BO52" s="10"/>
-      <c r="BP52" s="1"/>
+      <c r="BP52" s="10"/>
       <c r="BQ52" s="10"/>
-    </row>
-    <row r="53" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR52" s="10"/>
+      <c r="BS52" s="10"/>
+      <c r="BT52" s="1"/>
+      <c r="BU52" s="10"/>
+    </row>
+    <row r="53" spans="1:73" ht="12.75" customHeight="1">
       <c r="A53" s="3"/>
       <c r="B53" s="8"/>
       <c r="C53" s="9"/>
@@ -4713,11 +4998,11 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
-      <c r="K53" s="13"/>
+      <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
+      <c r="O53" s="13"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
@@ -4754,10 +5039,10 @@
       <c r="AW53" s="1"/>
       <c r="AX53" s="1"/>
       <c r="AY53" s="1"/>
-      <c r="AZ53" s="10"/>
-      <c r="BA53" s="10"/>
-      <c r="BB53" s="10"/>
-      <c r="BC53" s="10"/>
+      <c r="AZ53" s="1"/>
+      <c r="BA53" s="1"/>
+      <c r="BB53" s="1"/>
+      <c r="BC53" s="1"/>
       <c r="BD53" s="10"/>
       <c r="BE53" s="10"/>
       <c r="BF53" s="10"/>
@@ -4770,10 +5055,14 @@
       <c r="BM53" s="10"/>
       <c r="BN53" s="10"/>
       <c r="BO53" s="10"/>
-      <c r="BP53" s="1"/>
+      <c r="BP53" s="10"/>
       <c r="BQ53" s="10"/>
-    </row>
-    <row r="54" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR53" s="10"/>
+      <c r="BS53" s="10"/>
+      <c r="BT53" s="1"/>
+      <c r="BU53" s="10"/>
+    </row>
+    <row r="54" spans="1:73" ht="12.75" customHeight="1">
       <c r="A54" s="3"/>
       <c r="B54" s="8"/>
       <c r="C54" s="9"/>
@@ -4784,11 +5073,11 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
-      <c r="K54" s="13"/>
+      <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
+      <c r="O54" s="13"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
@@ -4825,10 +5114,10 @@
       <c r="AW54" s="1"/>
       <c r="AX54" s="1"/>
       <c r="AY54" s="1"/>
-      <c r="AZ54" s="10"/>
-      <c r="BA54" s="10"/>
-      <c r="BB54" s="10"/>
-      <c r="BC54" s="10"/>
+      <c r="AZ54" s="1"/>
+      <c r="BA54" s="1"/>
+      <c r="BB54" s="1"/>
+      <c r="BC54" s="1"/>
       <c r="BD54" s="10"/>
       <c r="BE54" s="10"/>
       <c r="BF54" s="10"/>
@@ -4841,10 +5130,14 @@
       <c r="BM54" s="10"/>
       <c r="BN54" s="10"/>
       <c r="BO54" s="10"/>
-      <c r="BP54" s="1"/>
+      <c r="BP54" s="10"/>
       <c r="BQ54" s="10"/>
-    </row>
-    <row r="55" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR54" s="10"/>
+      <c r="BS54" s="10"/>
+      <c r="BT54" s="1"/>
+      <c r="BU54" s="10"/>
+    </row>
+    <row r="55" spans="1:73" ht="12.75" customHeight="1">
       <c r="A55" s="3"/>
       <c r="B55" s="8"/>
       <c r="C55" s="9"/>
@@ -4855,11 +5148,11 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
-      <c r="K55" s="13"/>
+      <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
+      <c r="O55" s="13"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
@@ -4896,10 +5189,10 @@
       <c r="AW55" s="1"/>
       <c r="AX55" s="1"/>
       <c r="AY55" s="1"/>
-      <c r="AZ55" s="10"/>
-      <c r="BA55" s="10"/>
-      <c r="BB55" s="10"/>
-      <c r="BC55" s="10"/>
+      <c r="AZ55" s="1"/>
+      <c r="BA55" s="1"/>
+      <c r="BB55" s="1"/>
+      <c r="BC55" s="1"/>
       <c r="BD55" s="10"/>
       <c r="BE55" s="10"/>
       <c r="BF55" s="10"/>
@@ -4912,10 +5205,14 @@
       <c r="BM55" s="10"/>
       <c r="BN55" s="10"/>
       <c r="BO55" s="10"/>
-      <c r="BP55" s="1"/>
+      <c r="BP55" s="10"/>
       <c r="BQ55" s="10"/>
-    </row>
-    <row r="56" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR55" s="10"/>
+      <c r="BS55" s="10"/>
+      <c r="BT55" s="1"/>
+      <c r="BU55" s="10"/>
+    </row>
+    <row r="56" spans="1:73" ht="12.75" customHeight="1">
       <c r="A56" s="3"/>
       <c r="B56" s="8"/>
       <c r="C56" s="9"/>
@@ -4926,11 +5223,11 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
-      <c r="K56" s="13"/>
+      <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
+      <c r="O56" s="13"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
@@ -4967,10 +5264,10 @@
       <c r="AW56" s="1"/>
       <c r="AX56" s="1"/>
       <c r="AY56" s="1"/>
-      <c r="AZ56" s="10"/>
-      <c r="BA56" s="10"/>
-      <c r="BB56" s="10"/>
-      <c r="BC56" s="10"/>
+      <c r="AZ56" s="1"/>
+      <c r="BA56" s="1"/>
+      <c r="BB56" s="1"/>
+      <c r="BC56" s="1"/>
       <c r="BD56" s="10"/>
       <c r="BE56" s="10"/>
       <c r="BF56" s="10"/>
@@ -4983,10 +5280,14 @@
       <c r="BM56" s="10"/>
       <c r="BN56" s="10"/>
       <c r="BO56" s="10"/>
-      <c r="BP56" s="1"/>
+      <c r="BP56" s="10"/>
       <c r="BQ56" s="10"/>
-    </row>
-    <row r="57" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR56" s="10"/>
+      <c r="BS56" s="10"/>
+      <c r="BT56" s="1"/>
+      <c r="BU56" s="10"/>
+    </row>
+    <row r="57" spans="1:73" ht="12.75" customHeight="1">
       <c r="A57" s="3"/>
       <c r="B57" s="8"/>
       <c r="C57" s="9"/>
@@ -4997,11 +5298,11 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
-      <c r="K57" s="13"/>
+      <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
+      <c r="O57" s="13"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
@@ -5038,10 +5339,10 @@
       <c r="AW57" s="1"/>
       <c r="AX57" s="1"/>
       <c r="AY57" s="1"/>
-      <c r="AZ57" s="10"/>
-      <c r="BA57" s="10"/>
-      <c r="BB57" s="10"/>
-      <c r="BC57" s="10"/>
+      <c r="AZ57" s="1"/>
+      <c r="BA57" s="1"/>
+      <c r="BB57" s="1"/>
+      <c r="BC57" s="1"/>
       <c r="BD57" s="10"/>
       <c r="BE57" s="10"/>
       <c r="BF57" s="10"/>
@@ -5054,10 +5355,14 @@
       <c r="BM57" s="10"/>
       <c r="BN57" s="10"/>
       <c r="BO57" s="10"/>
-      <c r="BP57" s="1"/>
+      <c r="BP57" s="10"/>
       <c r="BQ57" s="10"/>
-    </row>
-    <row r="58" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR57" s="10"/>
+      <c r="BS57" s="10"/>
+      <c r="BT57" s="1"/>
+      <c r="BU57" s="10"/>
+    </row>
+    <row r="58" spans="1:73" ht="12.75" customHeight="1">
       <c r="A58" s="3"/>
       <c r="B58" s="8"/>
       <c r="C58" s="9"/>
@@ -5068,11 +5373,11 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
-      <c r="K58" s="13"/>
+      <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
+      <c r="O58" s="13"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
@@ -5109,10 +5414,10 @@
       <c r="AW58" s="1"/>
       <c r="AX58" s="1"/>
       <c r="AY58" s="1"/>
-      <c r="AZ58" s="10"/>
-      <c r="BA58" s="10"/>
-      <c r="BB58" s="10"/>
-      <c r="BC58" s="10"/>
+      <c r="AZ58" s="1"/>
+      <c r="BA58" s="1"/>
+      <c r="BB58" s="1"/>
+      <c r="BC58" s="1"/>
       <c r="BD58" s="10"/>
       <c r="BE58" s="10"/>
       <c r="BF58" s="10"/>
@@ -5125,10 +5430,14 @@
       <c r="BM58" s="10"/>
       <c r="BN58" s="10"/>
       <c r="BO58" s="10"/>
-      <c r="BP58" s="1"/>
+      <c r="BP58" s="10"/>
       <c r="BQ58" s="10"/>
-    </row>
-    <row r="59" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR58" s="10"/>
+      <c r="BS58" s="10"/>
+      <c r="BT58" s="1"/>
+      <c r="BU58" s="10"/>
+    </row>
+    <row r="59" spans="1:73" ht="12.75" customHeight="1">
       <c r="A59" s="3"/>
       <c r="B59" s="8"/>
       <c r="C59" s="9"/>
@@ -5139,11 +5448,11 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
-      <c r="K59" s="13"/>
+      <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
+      <c r="O59" s="13"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
@@ -5180,10 +5489,10 @@
       <c r="AW59" s="1"/>
       <c r="AX59" s="1"/>
       <c r="AY59" s="1"/>
-      <c r="AZ59" s="10"/>
-      <c r="BA59" s="10"/>
-      <c r="BB59" s="10"/>
-      <c r="BC59" s="10"/>
+      <c r="AZ59" s="1"/>
+      <c r="BA59" s="1"/>
+      <c r="BB59" s="1"/>
+      <c r="BC59" s="1"/>
       <c r="BD59" s="10"/>
       <c r="BE59" s="10"/>
       <c r="BF59" s="10"/>
@@ -5196,10 +5505,14 @@
       <c r="BM59" s="10"/>
       <c r="BN59" s="10"/>
       <c r="BO59" s="10"/>
-      <c r="BP59" s="1"/>
+      <c r="BP59" s="10"/>
       <c r="BQ59" s="10"/>
-    </row>
-    <row r="60" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR59" s="10"/>
+      <c r="BS59" s="10"/>
+      <c r="BT59" s="1"/>
+      <c r="BU59" s="10"/>
+    </row>
+    <row r="60" spans="1:73" ht="12.75" customHeight="1">
       <c r="A60" s="3"/>
       <c r="B60" s="8"/>
       <c r="C60" s="9"/>
@@ -5210,11 +5523,11 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
-      <c r="K60" s="13"/>
+      <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
+      <c r="O60" s="13"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
@@ -5251,10 +5564,10 @@
       <c r="AW60" s="1"/>
       <c r="AX60" s="1"/>
       <c r="AY60" s="1"/>
-      <c r="AZ60" s="10"/>
-      <c r="BA60" s="10"/>
-      <c r="BB60" s="10"/>
-      <c r="BC60" s="10"/>
+      <c r="AZ60" s="1"/>
+      <c r="BA60" s="1"/>
+      <c r="BB60" s="1"/>
+      <c r="BC60" s="1"/>
       <c r="BD60" s="10"/>
       <c r="BE60" s="10"/>
       <c r="BF60" s="10"/>
@@ -5267,10 +5580,14 @@
       <c r="BM60" s="10"/>
       <c r="BN60" s="10"/>
       <c r="BO60" s="10"/>
-      <c r="BP60" s="1"/>
+      <c r="BP60" s="10"/>
       <c r="BQ60" s="10"/>
-    </row>
-    <row r="61" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR60" s="10"/>
+      <c r="BS60" s="10"/>
+      <c r="BT60" s="1"/>
+      <c r="BU60" s="10"/>
+    </row>
+    <row r="61" spans="1:73" ht="12.75" customHeight="1">
       <c r="A61" s="3"/>
       <c r="B61" s="8"/>
       <c r="C61" s="9"/>
@@ -5281,11 +5598,11 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
-      <c r="K61" s="13"/>
+      <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
+      <c r="O61" s="13"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
@@ -5322,10 +5639,10 @@
       <c r="AW61" s="1"/>
       <c r="AX61" s="1"/>
       <c r="AY61" s="1"/>
-      <c r="AZ61" s="10"/>
-      <c r="BA61" s="10"/>
-      <c r="BB61" s="10"/>
-      <c r="BC61" s="10"/>
+      <c r="AZ61" s="1"/>
+      <c r="BA61" s="1"/>
+      <c r="BB61" s="1"/>
+      <c r="BC61" s="1"/>
       <c r="BD61" s="10"/>
       <c r="BE61" s="10"/>
       <c r="BF61" s="10"/>
@@ -5338,10 +5655,14 @@
       <c r="BM61" s="10"/>
       <c r="BN61" s="10"/>
       <c r="BO61" s="10"/>
-      <c r="BP61" s="1"/>
+      <c r="BP61" s="10"/>
       <c r="BQ61" s="10"/>
-    </row>
-    <row r="62" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR61" s="10"/>
+      <c r="BS61" s="10"/>
+      <c r="BT61" s="1"/>
+      <c r="BU61" s="10"/>
+    </row>
+    <row r="62" spans="1:73" ht="12.75" customHeight="1">
       <c r="A62" s="3"/>
       <c r="B62" s="8"/>
       <c r="C62" s="9"/>
@@ -5352,11 +5673,11 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
-      <c r="K62" s="13"/>
+      <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
+      <c r="O62" s="13"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
@@ -5393,10 +5714,10 @@
       <c r="AW62" s="1"/>
       <c r="AX62" s="1"/>
       <c r="AY62" s="1"/>
-      <c r="AZ62" s="10"/>
-      <c r="BA62" s="10"/>
-      <c r="BB62" s="10"/>
-      <c r="BC62" s="10"/>
+      <c r="AZ62" s="1"/>
+      <c r="BA62" s="1"/>
+      <c r="BB62" s="1"/>
+      <c r="BC62" s="1"/>
       <c r="BD62" s="10"/>
       <c r="BE62" s="10"/>
       <c r="BF62" s="10"/>
@@ -5409,10 +5730,14 @@
       <c r="BM62" s="10"/>
       <c r="BN62" s="10"/>
       <c r="BO62" s="10"/>
-      <c r="BP62" s="1"/>
+      <c r="BP62" s="10"/>
       <c r="BQ62" s="10"/>
-    </row>
-    <row r="63" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR62" s="10"/>
+      <c r="BS62" s="10"/>
+      <c r="BT62" s="1"/>
+      <c r="BU62" s="10"/>
+    </row>
+    <row r="63" spans="1:73" ht="12.75" customHeight="1">
       <c r="A63" s="3"/>
       <c r="B63" s="8"/>
       <c r="C63" s="9"/>
@@ -5423,11 +5748,11 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
-      <c r="K63" s="13"/>
+      <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
+      <c r="O63" s="13"/>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
@@ -5464,10 +5789,10 @@
       <c r="AW63" s="1"/>
       <c r="AX63" s="1"/>
       <c r="AY63" s="1"/>
-      <c r="AZ63" s="10"/>
-      <c r="BA63" s="10"/>
-      <c r="BB63" s="10"/>
-      <c r="BC63" s="10"/>
+      <c r="AZ63" s="1"/>
+      <c r="BA63" s="1"/>
+      <c r="BB63" s="1"/>
+      <c r="BC63" s="1"/>
       <c r="BD63" s="10"/>
       <c r="BE63" s="10"/>
       <c r="BF63" s="10"/>
@@ -5480,10 +5805,14 @@
       <c r="BM63" s="10"/>
       <c r="BN63" s="10"/>
       <c r="BO63" s="10"/>
-      <c r="BP63" s="1"/>
+      <c r="BP63" s="10"/>
       <c r="BQ63" s="10"/>
-    </row>
-    <row r="64" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR63" s="10"/>
+      <c r="BS63" s="10"/>
+      <c r="BT63" s="1"/>
+      <c r="BU63" s="10"/>
+    </row>
+    <row r="64" spans="1:73" ht="12.75" customHeight="1">
       <c r="A64" s="3"/>
       <c r="B64" s="8"/>
       <c r="C64" s="9"/>
@@ -5494,11 +5823,11 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
-      <c r="K64" s="13"/>
+      <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
-      <c r="O64" s="1"/>
+      <c r="O64" s="13"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
@@ -5535,10 +5864,10 @@
       <c r="AW64" s="1"/>
       <c r="AX64" s="1"/>
       <c r="AY64" s="1"/>
-      <c r="AZ64" s="10"/>
-      <c r="BA64" s="10"/>
-      <c r="BB64" s="10"/>
-      <c r="BC64" s="10"/>
+      <c r="AZ64" s="1"/>
+      <c r="BA64" s="1"/>
+      <c r="BB64" s="1"/>
+      <c r="BC64" s="1"/>
       <c r="BD64" s="10"/>
       <c r="BE64" s="10"/>
       <c r="BF64" s="10"/>
@@ -5551,10 +5880,14 @@
       <c r="BM64" s="10"/>
       <c r="BN64" s="10"/>
       <c r="BO64" s="10"/>
-      <c r="BP64" s="1"/>
+      <c r="BP64" s="10"/>
       <c r="BQ64" s="10"/>
-    </row>
-    <row r="65" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR64" s="10"/>
+      <c r="BS64" s="10"/>
+      <c r="BT64" s="1"/>
+      <c r="BU64" s="10"/>
+    </row>
+    <row r="65" spans="1:73" ht="12.75" customHeight="1">
       <c r="A65" s="3"/>
       <c r="B65" s="8"/>
       <c r="C65" s="9"/>
@@ -5565,11 +5898,11 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
-      <c r="K65" s="13"/>
+      <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
-      <c r="O65" s="1"/>
+      <c r="O65" s="13"/>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
@@ -5606,10 +5939,10 @@
       <c r="AW65" s="1"/>
       <c r="AX65" s="1"/>
       <c r="AY65" s="1"/>
-      <c r="AZ65" s="10"/>
-      <c r="BA65" s="10"/>
-      <c r="BB65" s="10"/>
-      <c r="BC65" s="10"/>
+      <c r="AZ65" s="1"/>
+      <c r="BA65" s="1"/>
+      <c r="BB65" s="1"/>
+      <c r="BC65" s="1"/>
       <c r="BD65" s="10"/>
       <c r="BE65" s="10"/>
       <c r="BF65" s="10"/>
@@ -5622,10 +5955,14 @@
       <c r="BM65" s="10"/>
       <c r="BN65" s="10"/>
       <c r="BO65" s="10"/>
-      <c r="BP65" s="1"/>
+      <c r="BP65" s="10"/>
       <c r="BQ65" s="10"/>
-    </row>
-    <row r="66" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR65" s="10"/>
+      <c r="BS65" s="10"/>
+      <c r="BT65" s="1"/>
+      <c r="BU65" s="10"/>
+    </row>
+    <row r="66" spans="1:73" ht="12.75" customHeight="1">
       <c r="A66" s="3"/>
       <c r="B66" s="8"/>
       <c r="C66" s="9"/>
@@ -5636,11 +5973,11 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
-      <c r="K66" s="13"/>
+      <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
+      <c r="O66" s="13"/>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
@@ -5677,10 +6014,10 @@
       <c r="AW66" s="1"/>
       <c r="AX66" s="1"/>
       <c r="AY66" s="1"/>
-      <c r="AZ66" s="10"/>
-      <c r="BA66" s="10"/>
-      <c r="BB66" s="10"/>
-      <c r="BC66" s="10"/>
+      <c r="AZ66" s="1"/>
+      <c r="BA66" s="1"/>
+      <c r="BB66" s="1"/>
+      <c r="BC66" s="1"/>
       <c r="BD66" s="10"/>
       <c r="BE66" s="10"/>
       <c r="BF66" s="10"/>
@@ -5693,10 +6030,14 @@
       <c r="BM66" s="10"/>
       <c r="BN66" s="10"/>
       <c r="BO66" s="10"/>
-      <c r="BP66" s="1"/>
+      <c r="BP66" s="10"/>
       <c r="BQ66" s="10"/>
-    </row>
-    <row r="67" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR66" s="10"/>
+      <c r="BS66" s="10"/>
+      <c r="BT66" s="1"/>
+      <c r="BU66" s="10"/>
+    </row>
+    <row r="67" spans="1:73" ht="12.75" customHeight="1">
       <c r="A67" s="3"/>
       <c r="B67" s="8"/>
       <c r="C67" s="9"/>
@@ -5707,11 +6048,11 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
-      <c r="K67" s="13"/>
+      <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
+      <c r="O67" s="13"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
@@ -5748,10 +6089,10 @@
       <c r="AW67" s="1"/>
       <c r="AX67" s="1"/>
       <c r="AY67" s="1"/>
-      <c r="AZ67" s="10"/>
-      <c r="BA67" s="10"/>
-      <c r="BB67" s="10"/>
-      <c r="BC67" s="10"/>
+      <c r="AZ67" s="1"/>
+      <c r="BA67" s="1"/>
+      <c r="BB67" s="1"/>
+      <c r="BC67" s="1"/>
       <c r="BD67" s="10"/>
       <c r="BE67" s="10"/>
       <c r="BF67" s="10"/>
@@ -5764,10 +6105,14 @@
       <c r="BM67" s="10"/>
       <c r="BN67" s="10"/>
       <c r="BO67" s="10"/>
-      <c r="BP67" s="1"/>
+      <c r="BP67" s="10"/>
       <c r="BQ67" s="10"/>
-    </row>
-    <row r="68" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR67" s="10"/>
+      <c r="BS67" s="10"/>
+      <c r="BT67" s="1"/>
+      <c r="BU67" s="10"/>
+    </row>
+    <row r="68" spans="1:73" ht="12.75" customHeight="1">
       <c r="A68" s="3"/>
       <c r="B68" s="8"/>
       <c r="C68" s="9"/>
@@ -5778,11 +6123,11 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
-      <c r="K68" s="13"/>
+      <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
+      <c r="O68" s="13"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
@@ -5819,10 +6164,10 @@
       <c r="AW68" s="1"/>
       <c r="AX68" s="1"/>
       <c r="AY68" s="1"/>
-      <c r="AZ68" s="10"/>
-      <c r="BA68" s="10"/>
-      <c r="BB68" s="10"/>
-      <c r="BC68" s="10"/>
+      <c r="AZ68" s="1"/>
+      <c r="BA68" s="1"/>
+      <c r="BB68" s="1"/>
+      <c r="BC68" s="1"/>
       <c r="BD68" s="10"/>
       <c r="BE68" s="10"/>
       <c r="BF68" s="10"/>
@@ -5835,10 +6180,14 @@
       <c r="BM68" s="10"/>
       <c r="BN68" s="10"/>
       <c r="BO68" s="10"/>
-      <c r="BP68" s="1"/>
+      <c r="BP68" s="10"/>
       <c r="BQ68" s="10"/>
-    </row>
-    <row r="69" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR68" s="10"/>
+      <c r="BS68" s="10"/>
+      <c r="BT68" s="1"/>
+      <c r="BU68" s="10"/>
+    </row>
+    <row r="69" spans="1:73" ht="12.75" customHeight="1">
       <c r="A69" s="3"/>
       <c r="B69" s="8"/>
       <c r="C69" s="9"/>
@@ -5849,11 +6198,11 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
-      <c r="K69" s="13"/>
+      <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
+      <c r="O69" s="13"/>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
@@ -5890,10 +6239,10 @@
       <c r="AW69" s="1"/>
       <c r="AX69" s="1"/>
       <c r="AY69" s="1"/>
-      <c r="AZ69" s="10"/>
-      <c r="BA69" s="10"/>
-      <c r="BB69" s="10"/>
-      <c r="BC69" s="10"/>
+      <c r="AZ69" s="1"/>
+      <c r="BA69" s="1"/>
+      <c r="BB69" s="1"/>
+      <c r="BC69" s="1"/>
       <c r="BD69" s="10"/>
       <c r="BE69" s="10"/>
       <c r="BF69" s="10"/>
@@ -5906,10 +6255,14 @@
       <c r="BM69" s="10"/>
       <c r="BN69" s="10"/>
       <c r="BO69" s="10"/>
-      <c r="BP69" s="1"/>
+      <c r="BP69" s="10"/>
       <c r="BQ69" s="10"/>
-    </row>
-    <row r="70" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR69" s="10"/>
+      <c r="BS69" s="10"/>
+      <c r="BT69" s="1"/>
+      <c r="BU69" s="10"/>
+    </row>
+    <row r="70" spans="1:73" ht="12.75" customHeight="1">
       <c r="A70" s="3"/>
       <c r="B70" s="8"/>
       <c r="C70" s="9"/>
@@ -5920,11 +6273,11 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
-      <c r="K70" s="13"/>
+      <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
+      <c r="O70" s="13"/>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
@@ -5961,10 +6314,10 @@
       <c r="AW70" s="1"/>
       <c r="AX70" s="1"/>
       <c r="AY70" s="1"/>
-      <c r="AZ70" s="10"/>
-      <c r="BA70" s="10"/>
-      <c r="BB70" s="10"/>
-      <c r="BC70" s="10"/>
+      <c r="AZ70" s="1"/>
+      <c r="BA70" s="1"/>
+      <c r="BB70" s="1"/>
+      <c r="BC70" s="1"/>
       <c r="BD70" s="10"/>
       <c r="BE70" s="10"/>
       <c r="BF70" s="10"/>
@@ -5977,10 +6330,14 @@
       <c r="BM70" s="10"/>
       <c r="BN70" s="10"/>
       <c r="BO70" s="10"/>
-      <c r="BP70" s="1"/>
+      <c r="BP70" s="10"/>
       <c r="BQ70" s="10"/>
-    </row>
-    <row r="71" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR70" s="10"/>
+      <c r="BS70" s="10"/>
+      <c r="BT70" s="1"/>
+      <c r="BU70" s="10"/>
+    </row>
+    <row r="71" spans="1:73" ht="12.75" customHeight="1">
       <c r="A71" s="3"/>
       <c r="B71" s="8"/>
       <c r="C71" s="9"/>
@@ -5991,11 +6348,11 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
-      <c r="K71" s="13"/>
+      <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
+      <c r="O71" s="13"/>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
@@ -6032,10 +6389,10 @@
       <c r="AW71" s="1"/>
       <c r="AX71" s="1"/>
       <c r="AY71" s="1"/>
-      <c r="AZ71" s="10"/>
-      <c r="BA71" s="10"/>
-      <c r="BB71" s="10"/>
-      <c r="BC71" s="10"/>
+      <c r="AZ71" s="1"/>
+      <c r="BA71" s="1"/>
+      <c r="BB71" s="1"/>
+      <c r="BC71" s="1"/>
       <c r="BD71" s="10"/>
       <c r="BE71" s="10"/>
       <c r="BF71" s="10"/>
@@ -6048,10 +6405,14 @@
       <c r="BM71" s="10"/>
       <c r="BN71" s="10"/>
       <c r="BO71" s="10"/>
-      <c r="BP71" s="1"/>
+      <c r="BP71" s="10"/>
       <c r="BQ71" s="10"/>
-    </row>
-    <row r="72" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR71" s="10"/>
+      <c r="BS71" s="10"/>
+      <c r="BT71" s="1"/>
+      <c r="BU71" s="10"/>
+    </row>
+    <row r="72" spans="1:73" ht="12.75" customHeight="1">
       <c r="A72" s="3"/>
       <c r="B72" s="8"/>
       <c r="C72" s="9"/>
@@ -6062,11 +6423,11 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
-      <c r="K72" s="13"/>
+      <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
+      <c r="O72" s="13"/>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
@@ -6103,10 +6464,10 @@
       <c r="AW72" s="1"/>
       <c r="AX72" s="1"/>
       <c r="AY72" s="1"/>
-      <c r="AZ72" s="10"/>
-      <c r="BA72" s="10"/>
-      <c r="BB72" s="10"/>
-      <c r="BC72" s="10"/>
+      <c r="AZ72" s="1"/>
+      <c r="BA72" s="1"/>
+      <c r="BB72" s="1"/>
+      <c r="BC72" s="1"/>
       <c r="BD72" s="10"/>
       <c r="BE72" s="10"/>
       <c r="BF72" s="10"/>
@@ -6119,10 +6480,14 @@
       <c r="BM72" s="10"/>
       <c r="BN72" s="10"/>
       <c r="BO72" s="10"/>
-      <c r="BP72" s="1"/>
+      <c r="BP72" s="10"/>
       <c r="BQ72" s="10"/>
-    </row>
-    <row r="73" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR72" s="10"/>
+      <c r="BS72" s="10"/>
+      <c r="BT72" s="1"/>
+      <c r="BU72" s="10"/>
+    </row>
+    <row r="73" spans="1:73" ht="12.75" customHeight="1">
       <c r="A73" s="3"/>
       <c r="B73" s="8"/>
       <c r="C73" s="9"/>
@@ -6133,11 +6498,11 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
-      <c r="K73" s="13"/>
+      <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
+      <c r="O73" s="13"/>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
@@ -6174,10 +6539,10 @@
       <c r="AW73" s="1"/>
       <c r="AX73" s="1"/>
       <c r="AY73" s="1"/>
-      <c r="AZ73" s="10"/>
-      <c r="BA73" s="10"/>
-      <c r="BB73" s="10"/>
-      <c r="BC73" s="10"/>
+      <c r="AZ73" s="1"/>
+      <c r="BA73" s="1"/>
+      <c r="BB73" s="1"/>
+      <c r="BC73" s="1"/>
       <c r="BD73" s="10"/>
       <c r="BE73" s="10"/>
       <c r="BF73" s="10"/>
@@ -6190,10 +6555,14 @@
       <c r="BM73" s="10"/>
       <c r="BN73" s="10"/>
       <c r="BO73" s="10"/>
-      <c r="BP73" s="1"/>
+      <c r="BP73" s="10"/>
       <c r="BQ73" s="10"/>
-    </row>
-    <row r="74" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR73" s="10"/>
+      <c r="BS73" s="10"/>
+      <c r="BT73" s="1"/>
+      <c r="BU73" s="10"/>
+    </row>
+    <row r="74" spans="1:73" ht="12.75" customHeight="1">
       <c r="A74" s="3"/>
       <c r="B74" s="8"/>
       <c r="C74" s="9"/>
@@ -6204,11 +6573,11 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
-      <c r="K74" s="13"/>
+      <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
+      <c r="O74" s="13"/>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
@@ -6245,10 +6614,10 @@
       <c r="AW74" s="1"/>
       <c r="AX74" s="1"/>
       <c r="AY74" s="1"/>
-      <c r="AZ74" s="10"/>
-      <c r="BA74" s="10"/>
-      <c r="BB74" s="10"/>
-      <c r="BC74" s="10"/>
+      <c r="AZ74" s="1"/>
+      <c r="BA74" s="1"/>
+      <c r="BB74" s="1"/>
+      <c r="BC74" s="1"/>
       <c r="BD74" s="10"/>
       <c r="BE74" s="10"/>
       <c r="BF74" s="10"/>
@@ -6261,10 +6630,14 @@
       <c r="BM74" s="10"/>
       <c r="BN74" s="10"/>
       <c r="BO74" s="10"/>
-      <c r="BP74" s="1"/>
+      <c r="BP74" s="10"/>
       <c r="BQ74" s="10"/>
-    </row>
-    <row r="75" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR74" s="10"/>
+      <c r="BS74" s="10"/>
+      <c r="BT74" s="1"/>
+      <c r="BU74" s="10"/>
+    </row>
+    <row r="75" spans="1:73" ht="12.75" customHeight="1">
       <c r="A75" s="3"/>
       <c r="B75" s="8"/>
       <c r="C75" s="9"/>
@@ -6275,11 +6648,11 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
-      <c r="K75" s="13"/>
+      <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
+      <c r="O75" s="13"/>
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
@@ -6316,10 +6689,10 @@
       <c r="AW75" s="1"/>
       <c r="AX75" s="1"/>
       <c r="AY75" s="1"/>
-      <c r="AZ75" s="10"/>
-      <c r="BA75" s="10"/>
-      <c r="BB75" s="10"/>
-      <c r="BC75" s="10"/>
+      <c r="AZ75" s="1"/>
+      <c r="BA75" s="1"/>
+      <c r="BB75" s="1"/>
+      <c r="BC75" s="1"/>
       <c r="BD75" s="10"/>
       <c r="BE75" s="10"/>
       <c r="BF75" s="10"/>
@@ -6332,10 +6705,14 @@
       <c r="BM75" s="10"/>
       <c r="BN75" s="10"/>
       <c r="BO75" s="10"/>
-      <c r="BP75" s="1"/>
+      <c r="BP75" s="10"/>
       <c r="BQ75" s="10"/>
-    </row>
-    <row r="76" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR75" s="10"/>
+      <c r="BS75" s="10"/>
+      <c r="BT75" s="1"/>
+      <c r="BU75" s="10"/>
+    </row>
+    <row r="76" spans="1:73" ht="12.75" customHeight="1">
       <c r="A76" s="3"/>
       <c r="B76" s="8"/>
       <c r="C76" s="9"/>
@@ -6346,11 +6723,11 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
-      <c r="K76" s="13"/>
+      <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
+      <c r="O76" s="13"/>
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
@@ -6387,10 +6764,10 @@
       <c r="AW76" s="1"/>
       <c r="AX76" s="1"/>
       <c r="AY76" s="1"/>
-      <c r="AZ76" s="10"/>
-      <c r="BA76" s="10"/>
-      <c r="BB76" s="10"/>
-      <c r="BC76" s="10"/>
+      <c r="AZ76" s="1"/>
+      <c r="BA76" s="1"/>
+      <c r="BB76" s="1"/>
+      <c r="BC76" s="1"/>
       <c r="BD76" s="10"/>
       <c r="BE76" s="10"/>
       <c r="BF76" s="10"/>
@@ -6403,10 +6780,14 @@
       <c r="BM76" s="10"/>
       <c r="BN76" s="10"/>
       <c r="BO76" s="10"/>
-      <c r="BP76" s="1"/>
+      <c r="BP76" s="10"/>
       <c r="BQ76" s="10"/>
-    </row>
-    <row r="77" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR76" s="10"/>
+      <c r="BS76" s="10"/>
+      <c r="BT76" s="1"/>
+      <c r="BU76" s="10"/>
+    </row>
+    <row r="77" spans="1:73" ht="12.75" customHeight="1">
       <c r="A77" s="3"/>
       <c r="B77" s="8"/>
       <c r="C77" s="9"/>
@@ -6417,11 +6798,11 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
-      <c r="K77" s="13"/>
+      <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
+      <c r="O77" s="13"/>
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
@@ -6458,10 +6839,10 @@
       <c r="AW77" s="1"/>
       <c r="AX77" s="1"/>
       <c r="AY77" s="1"/>
-      <c r="AZ77" s="10"/>
-      <c r="BA77" s="10"/>
-      <c r="BB77" s="10"/>
-      <c r="BC77" s="10"/>
+      <c r="AZ77" s="1"/>
+      <c r="BA77" s="1"/>
+      <c r="BB77" s="1"/>
+      <c r="BC77" s="1"/>
       <c r="BD77" s="10"/>
       <c r="BE77" s="10"/>
       <c r="BF77" s="10"/>
@@ -6474,10 +6855,14 @@
       <c r="BM77" s="10"/>
       <c r="BN77" s="10"/>
       <c r="BO77" s="10"/>
-      <c r="BP77" s="1"/>
+      <c r="BP77" s="10"/>
       <c r="BQ77" s="10"/>
-    </row>
-    <row r="78" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR77" s="10"/>
+      <c r="BS77" s="10"/>
+      <c r="BT77" s="1"/>
+      <c r="BU77" s="10"/>
+    </row>
+    <row r="78" spans="1:73" ht="12.75" customHeight="1">
       <c r="A78" s="3"/>
       <c r="B78" s="8"/>
       <c r="C78" s="9"/>
@@ -6488,11 +6873,11 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
-      <c r="K78" s="13"/>
+      <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
+      <c r="O78" s="13"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
@@ -6529,10 +6914,10 @@
       <c r="AW78" s="1"/>
       <c r="AX78" s="1"/>
       <c r="AY78" s="1"/>
-      <c r="AZ78" s="10"/>
-      <c r="BA78" s="10"/>
-      <c r="BB78" s="10"/>
-      <c r="BC78" s="10"/>
+      <c r="AZ78" s="1"/>
+      <c r="BA78" s="1"/>
+      <c r="BB78" s="1"/>
+      <c r="BC78" s="1"/>
       <c r="BD78" s="10"/>
       <c r="BE78" s="10"/>
       <c r="BF78" s="10"/>
@@ -6545,10 +6930,14 @@
       <c r="BM78" s="10"/>
       <c r="BN78" s="10"/>
       <c r="BO78" s="10"/>
-      <c r="BP78" s="1"/>
+      <c r="BP78" s="10"/>
       <c r="BQ78" s="10"/>
-    </row>
-    <row r="79" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR78" s="10"/>
+      <c r="BS78" s="10"/>
+      <c r="BT78" s="1"/>
+      <c r="BU78" s="10"/>
+    </row>
+    <row r="79" spans="1:73" ht="12.75" customHeight="1">
       <c r="A79" s="3"/>
       <c r="B79" s="8"/>
       <c r="C79" s="9"/>
@@ -6559,11 +6948,11 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
-      <c r="K79" s="13"/>
+      <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
-      <c r="O79" s="1"/>
+      <c r="O79" s="13"/>
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
       <c r="R79" s="1"/>
@@ -6600,10 +6989,10 @@
       <c r="AW79" s="1"/>
       <c r="AX79" s="1"/>
       <c r="AY79" s="1"/>
-      <c r="AZ79" s="10"/>
-      <c r="BA79" s="10"/>
-      <c r="BB79" s="10"/>
-      <c r="BC79" s="10"/>
+      <c r="AZ79" s="1"/>
+      <c r="BA79" s="1"/>
+      <c r="BB79" s="1"/>
+      <c r="BC79" s="1"/>
       <c r="BD79" s="10"/>
       <c r="BE79" s="10"/>
       <c r="BF79" s="10"/>
@@ -6616,10 +7005,14 @@
       <c r="BM79" s="10"/>
       <c r="BN79" s="10"/>
       <c r="BO79" s="10"/>
-      <c r="BP79" s="1"/>
+      <c r="BP79" s="10"/>
       <c r="BQ79" s="10"/>
-    </row>
-    <row r="80" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR79" s="10"/>
+      <c r="BS79" s="10"/>
+      <c r="BT79" s="1"/>
+      <c r="BU79" s="10"/>
+    </row>
+    <row r="80" spans="1:73" ht="12.75" customHeight="1">
       <c r="A80" s="3"/>
       <c r="B80" s="8"/>
       <c r="C80" s="9"/>
@@ -6630,11 +7023,11 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
-      <c r="K80" s="13"/>
+      <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
-      <c r="O80" s="1"/>
+      <c r="O80" s="13"/>
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
@@ -6671,10 +7064,10 @@
       <c r="AW80" s="1"/>
       <c r="AX80" s="1"/>
       <c r="AY80" s="1"/>
-      <c r="AZ80" s="10"/>
-      <c r="BA80" s="10"/>
-      <c r="BB80" s="10"/>
-      <c r="BC80" s="10"/>
+      <c r="AZ80" s="1"/>
+      <c r="BA80" s="1"/>
+      <c r="BB80" s="1"/>
+      <c r="BC80" s="1"/>
       <c r="BD80" s="10"/>
       <c r="BE80" s="10"/>
       <c r="BF80" s="10"/>
@@ -6687,10 +7080,14 @@
       <c r="BM80" s="10"/>
       <c r="BN80" s="10"/>
       <c r="BO80" s="10"/>
-      <c r="BP80" s="1"/>
+      <c r="BP80" s="10"/>
       <c r="BQ80" s="10"/>
-    </row>
-    <row r="81" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR80" s="10"/>
+      <c r="BS80" s="10"/>
+      <c r="BT80" s="1"/>
+      <c r="BU80" s="10"/>
+    </row>
+    <row r="81" spans="1:73" ht="12.75" customHeight="1">
       <c r="A81" s="3"/>
       <c r="B81" s="8"/>
       <c r="C81" s="9"/>
@@ -6701,11 +7098,11 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
-      <c r="K81" s="13"/>
+      <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
-      <c r="O81" s="1"/>
+      <c r="O81" s="13"/>
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
       <c r="R81" s="1"/>
@@ -6742,10 +7139,10 @@
       <c r="AW81" s="1"/>
       <c r="AX81" s="1"/>
       <c r="AY81" s="1"/>
-      <c r="AZ81" s="10"/>
-      <c r="BA81" s="10"/>
-      <c r="BB81" s="10"/>
-      <c r="BC81" s="10"/>
+      <c r="AZ81" s="1"/>
+      <c r="BA81" s="1"/>
+      <c r="BB81" s="1"/>
+      <c r="BC81" s="1"/>
       <c r="BD81" s="10"/>
       <c r="BE81" s="10"/>
       <c r="BF81" s="10"/>
@@ -6758,10 +7155,14 @@
       <c r="BM81" s="10"/>
       <c r="BN81" s="10"/>
       <c r="BO81" s="10"/>
-      <c r="BP81" s="1"/>
+      <c r="BP81" s="10"/>
       <c r="BQ81" s="10"/>
-    </row>
-    <row r="82" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR81" s="10"/>
+      <c r="BS81" s="10"/>
+      <c r="BT81" s="1"/>
+      <c r="BU81" s="10"/>
+    </row>
+    <row r="82" spans="1:73" ht="12.75" customHeight="1">
       <c r="A82" s="3"/>
       <c r="B82" s="8"/>
       <c r="C82" s="9"/>
@@ -6772,11 +7173,11 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
-      <c r="K82" s="13"/>
+      <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
-      <c r="O82" s="1"/>
+      <c r="O82" s="13"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
@@ -6813,10 +7214,10 @@
       <c r="AW82" s="1"/>
       <c r="AX82" s="1"/>
       <c r="AY82" s="1"/>
-      <c r="AZ82" s="10"/>
-      <c r="BA82" s="10"/>
-      <c r="BB82" s="10"/>
-      <c r="BC82" s="10"/>
+      <c r="AZ82" s="1"/>
+      <c r="BA82" s="1"/>
+      <c r="BB82" s="1"/>
+      <c r="BC82" s="1"/>
       <c r="BD82" s="10"/>
       <c r="BE82" s="10"/>
       <c r="BF82" s="10"/>
@@ -6829,10 +7230,14 @@
       <c r="BM82" s="10"/>
       <c r="BN82" s="10"/>
       <c r="BO82" s="10"/>
-      <c r="BP82" s="1"/>
+      <c r="BP82" s="10"/>
       <c r="BQ82" s="10"/>
-    </row>
-    <row r="83" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR82" s="10"/>
+      <c r="BS82" s="10"/>
+      <c r="BT82" s="1"/>
+      <c r="BU82" s="10"/>
+    </row>
+    <row r="83" spans="1:73" ht="12.75" customHeight="1">
       <c r="A83" s="3"/>
       <c r="B83" s="8"/>
       <c r="C83" s="9"/>
@@ -6843,11 +7248,11 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
-      <c r="K83" s="13"/>
+      <c r="K83" s="1"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
-      <c r="O83" s="1"/>
+      <c r="O83" s="13"/>
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
       <c r="R83" s="1"/>
@@ -6884,10 +7289,10 @@
       <c r="AW83" s="1"/>
       <c r="AX83" s="1"/>
       <c r="AY83" s="1"/>
-      <c r="AZ83" s="10"/>
-      <c r="BA83" s="10"/>
-      <c r="BB83" s="10"/>
-      <c r="BC83" s="10"/>
+      <c r="AZ83" s="1"/>
+      <c r="BA83" s="1"/>
+      <c r="BB83" s="1"/>
+      <c r="BC83" s="1"/>
       <c r="BD83" s="10"/>
       <c r="BE83" s="10"/>
       <c r="BF83" s="10"/>
@@ -6900,10 +7305,14 @@
       <c r="BM83" s="10"/>
       <c r="BN83" s="10"/>
       <c r="BO83" s="10"/>
-      <c r="BP83" s="1"/>
+      <c r="BP83" s="10"/>
       <c r="BQ83" s="10"/>
-    </row>
-    <row r="84" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR83" s="10"/>
+      <c r="BS83" s="10"/>
+      <c r="BT83" s="1"/>
+      <c r="BU83" s="10"/>
+    </row>
+    <row r="84" spans="1:73" ht="12.75" customHeight="1">
       <c r="A84" s="3"/>
       <c r="B84" s="8"/>
       <c r="C84" s="9"/>
@@ -6914,11 +7323,11 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
-      <c r="K84" s="13"/>
+      <c r="K84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
-      <c r="O84" s="1"/>
+      <c r="O84" s="13"/>
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
@@ -6955,10 +7364,10 @@
       <c r="AW84" s="1"/>
       <c r="AX84" s="1"/>
       <c r="AY84" s="1"/>
-      <c r="AZ84" s="10"/>
-      <c r="BA84" s="10"/>
-      <c r="BB84" s="10"/>
-      <c r="BC84" s="10"/>
+      <c r="AZ84" s="1"/>
+      <c r="BA84" s="1"/>
+      <c r="BB84" s="1"/>
+      <c r="BC84" s="1"/>
       <c r="BD84" s="10"/>
       <c r="BE84" s="10"/>
       <c r="BF84" s="10"/>
@@ -6971,10 +7380,14 @@
       <c r="BM84" s="10"/>
       <c r="BN84" s="10"/>
       <c r="BO84" s="10"/>
-      <c r="BP84" s="1"/>
+      <c r="BP84" s="10"/>
       <c r="BQ84" s="10"/>
-    </row>
-    <row r="85" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR84" s="10"/>
+      <c r="BS84" s="10"/>
+      <c r="BT84" s="1"/>
+      <c r="BU84" s="10"/>
+    </row>
+    <row r="85" spans="1:73" ht="12.75" customHeight="1">
       <c r="A85" s="3"/>
       <c r="B85" s="8"/>
       <c r="C85" s="9"/>
@@ -6985,11 +7398,11 @@
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
-      <c r="K85" s="13"/>
+      <c r="K85" s="1"/>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
-      <c r="O85" s="1"/>
+      <c r="O85" s="13"/>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
@@ -7026,10 +7439,10 @@
       <c r="AW85" s="1"/>
       <c r="AX85" s="1"/>
       <c r="AY85" s="1"/>
-      <c r="AZ85" s="10"/>
-      <c r="BA85" s="10"/>
-      <c r="BB85" s="10"/>
-      <c r="BC85" s="10"/>
+      <c r="AZ85" s="1"/>
+      <c r="BA85" s="1"/>
+      <c r="BB85" s="1"/>
+      <c r="BC85" s="1"/>
       <c r="BD85" s="10"/>
       <c r="BE85" s="10"/>
       <c r="BF85" s="10"/>
@@ -7042,10 +7455,14 @@
       <c r="BM85" s="10"/>
       <c r="BN85" s="10"/>
       <c r="BO85" s="10"/>
-      <c r="BP85" s="1"/>
+      <c r="BP85" s="10"/>
       <c r="BQ85" s="10"/>
-    </row>
-    <row r="86" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR85" s="10"/>
+      <c r="BS85" s="10"/>
+      <c r="BT85" s="1"/>
+      <c r="BU85" s="10"/>
+    </row>
+    <row r="86" spans="1:73" ht="12.75" customHeight="1">
       <c r="A86" s="3"/>
       <c r="B86" s="8"/>
       <c r="C86" s="9"/>
@@ -7056,11 +7473,11 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
-      <c r="K86" s="13"/>
+      <c r="K86" s="1"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
-      <c r="O86" s="1"/>
+      <c r="O86" s="13"/>
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
@@ -7097,10 +7514,10 @@
       <c r="AW86" s="1"/>
       <c r="AX86" s="1"/>
       <c r="AY86" s="1"/>
-      <c r="AZ86" s="10"/>
-      <c r="BA86" s="10"/>
-      <c r="BB86" s="10"/>
-      <c r="BC86" s="10"/>
+      <c r="AZ86" s="1"/>
+      <c r="BA86" s="1"/>
+      <c r="BB86" s="1"/>
+      <c r="BC86" s="1"/>
       <c r="BD86" s="10"/>
       <c r="BE86" s="10"/>
       <c r="BF86" s="10"/>
@@ -7113,10 +7530,14 @@
       <c r="BM86" s="10"/>
       <c r="BN86" s="10"/>
       <c r="BO86" s="10"/>
-      <c r="BP86" s="1"/>
+      <c r="BP86" s="10"/>
       <c r="BQ86" s="10"/>
-    </row>
-    <row r="87" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR86" s="10"/>
+      <c r="BS86" s="10"/>
+      <c r="BT86" s="1"/>
+      <c r="BU86" s="10"/>
+    </row>
+    <row r="87" spans="1:73" ht="12.75" customHeight="1">
       <c r="A87" s="3"/>
       <c r="B87" s="8"/>
       <c r="C87" s="9"/>
@@ -7127,11 +7548,11 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
-      <c r="K87" s="13"/>
+      <c r="K87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
-      <c r="O87" s="1"/>
+      <c r="O87" s="13"/>
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
       <c r="R87" s="1"/>
@@ -7168,10 +7589,10 @@
       <c r="AW87" s="1"/>
       <c r="AX87" s="1"/>
       <c r="AY87" s="1"/>
-      <c r="AZ87" s="10"/>
-      <c r="BA87" s="10"/>
-      <c r="BB87" s="10"/>
-      <c r="BC87" s="10"/>
+      <c r="AZ87" s="1"/>
+      <c r="BA87" s="1"/>
+      <c r="BB87" s="1"/>
+      <c r="BC87" s="1"/>
       <c r="BD87" s="10"/>
       <c r="BE87" s="10"/>
       <c r="BF87" s="10"/>
@@ -7184,10 +7605,14 @@
       <c r="BM87" s="10"/>
       <c r="BN87" s="10"/>
       <c r="BO87" s="10"/>
-      <c r="BP87" s="1"/>
+      <c r="BP87" s="10"/>
       <c r="BQ87" s="10"/>
-    </row>
-    <row r="88" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR87" s="10"/>
+      <c r="BS87" s="10"/>
+      <c r="BT87" s="1"/>
+      <c r="BU87" s="10"/>
+    </row>
+    <row r="88" spans="1:73" ht="12.75" customHeight="1">
       <c r="A88" s="3"/>
       <c r="B88" s="8"/>
       <c r="C88" s="9"/>
@@ -7198,11 +7623,11 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
-      <c r="K88" s="13"/>
+      <c r="K88" s="1"/>
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
-      <c r="O88" s="1"/>
+      <c r="O88" s="13"/>
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
@@ -7239,10 +7664,10 @@
       <c r="AW88" s="1"/>
       <c r="AX88" s="1"/>
       <c r="AY88" s="1"/>
-      <c r="AZ88" s="10"/>
-      <c r="BA88" s="10"/>
-      <c r="BB88" s="10"/>
-      <c r="BC88" s="10"/>
+      <c r="AZ88" s="1"/>
+      <c r="BA88" s="1"/>
+      <c r="BB88" s="1"/>
+      <c r="BC88" s="1"/>
       <c r="BD88" s="10"/>
       <c r="BE88" s="10"/>
       <c r="BF88" s="10"/>
@@ -7255,10 +7680,14 @@
       <c r="BM88" s="10"/>
       <c r="BN88" s="10"/>
       <c r="BO88" s="10"/>
-      <c r="BP88" s="1"/>
+      <c r="BP88" s="10"/>
       <c r="BQ88" s="10"/>
-    </row>
-    <row r="89" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR88" s="10"/>
+      <c r="BS88" s="10"/>
+      <c r="BT88" s="1"/>
+      <c r="BU88" s="10"/>
+    </row>
+    <row r="89" spans="1:73" ht="12.75" customHeight="1">
       <c r="A89" s="3"/>
       <c r="B89" s="8"/>
       <c r="C89" s="9"/>
@@ -7269,11 +7698,11 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
-      <c r="K89" s="13"/>
+      <c r="K89" s="1"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
-      <c r="O89" s="1"/>
+      <c r="O89" s="13"/>
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
       <c r="R89" s="1"/>
@@ -7310,10 +7739,10 @@
       <c r="AW89" s="1"/>
       <c r="AX89" s="1"/>
       <c r="AY89" s="1"/>
-      <c r="AZ89" s="10"/>
-      <c r="BA89" s="10"/>
-      <c r="BB89" s="10"/>
-      <c r="BC89" s="10"/>
+      <c r="AZ89" s="1"/>
+      <c r="BA89" s="1"/>
+      <c r="BB89" s="1"/>
+      <c r="BC89" s="1"/>
       <c r="BD89" s="10"/>
       <c r="BE89" s="10"/>
       <c r="BF89" s="10"/>
@@ -7326,10 +7755,14 @@
       <c r="BM89" s="10"/>
       <c r="BN89" s="10"/>
       <c r="BO89" s="10"/>
-      <c r="BP89" s="1"/>
+      <c r="BP89" s="10"/>
       <c r="BQ89" s="10"/>
-    </row>
-    <row r="90" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR89" s="10"/>
+      <c r="BS89" s="10"/>
+      <c r="BT89" s="1"/>
+      <c r="BU89" s="10"/>
+    </row>
+    <row r="90" spans="1:73" ht="12.75" customHeight="1">
       <c r="A90" s="3"/>
       <c r="B90" s="8"/>
       <c r="C90" s="9"/>
@@ -7340,11 +7773,11 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
-      <c r="K90" s="13"/>
+      <c r="K90" s="1"/>
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
-      <c r="O90" s="1"/>
+      <c r="O90" s="13"/>
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
       <c r="R90" s="1"/>
@@ -7381,10 +7814,10 @@
       <c r="AW90" s="1"/>
       <c r="AX90" s="1"/>
       <c r="AY90" s="1"/>
-      <c r="AZ90" s="10"/>
-      <c r="BA90" s="10"/>
-      <c r="BB90" s="10"/>
-      <c r="BC90" s="10"/>
+      <c r="AZ90" s="1"/>
+      <c r="BA90" s="1"/>
+      <c r="BB90" s="1"/>
+      <c r="BC90" s="1"/>
       <c r="BD90" s="10"/>
       <c r="BE90" s="10"/>
       <c r="BF90" s="10"/>
@@ -7397,10 +7830,14 @@
       <c r="BM90" s="10"/>
       <c r="BN90" s="10"/>
       <c r="BO90" s="10"/>
-      <c r="BP90" s="1"/>
+      <c r="BP90" s="10"/>
       <c r="BQ90" s="10"/>
-    </row>
-    <row r="91" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR90" s="10"/>
+      <c r="BS90" s="10"/>
+      <c r="BT90" s="1"/>
+      <c r="BU90" s="10"/>
+    </row>
+    <row r="91" spans="1:73" ht="12.75" customHeight="1">
       <c r="A91" s="3"/>
       <c r="B91" s="8"/>
       <c r="C91" s="9"/>
@@ -7411,11 +7848,11 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
-      <c r="K91" s="13"/>
+      <c r="K91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
-      <c r="O91" s="1"/>
+      <c r="O91" s="13"/>
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
       <c r="R91" s="1"/>
@@ -7452,10 +7889,10 @@
       <c r="AW91" s="1"/>
       <c r="AX91" s="1"/>
       <c r="AY91" s="1"/>
-      <c r="AZ91" s="10"/>
-      <c r="BA91" s="10"/>
-      <c r="BB91" s="10"/>
-      <c r="BC91" s="10"/>
+      <c r="AZ91" s="1"/>
+      <c r="BA91" s="1"/>
+      <c r="BB91" s="1"/>
+      <c r="BC91" s="1"/>
       <c r="BD91" s="10"/>
       <c r="BE91" s="10"/>
       <c r="BF91" s="10"/>
@@ -7468,10 +7905,14 @@
       <c r="BM91" s="10"/>
       <c r="BN91" s="10"/>
       <c r="BO91" s="10"/>
-      <c r="BP91" s="1"/>
+      <c r="BP91" s="10"/>
       <c r="BQ91" s="10"/>
-    </row>
-    <row r="92" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR91" s="10"/>
+      <c r="BS91" s="10"/>
+      <c r="BT91" s="1"/>
+      <c r="BU91" s="10"/>
+    </row>
+    <row r="92" spans="1:73" ht="12.75" customHeight="1">
       <c r="A92" s="3"/>
       <c r="B92" s="8"/>
       <c r="C92" s="9"/>
@@ -7482,11 +7923,11 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
-      <c r="K92" s="13"/>
+      <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
-      <c r="O92" s="1"/>
+      <c r="O92" s="13"/>
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
       <c r="R92" s="1"/>
@@ -7523,10 +7964,10 @@
       <c r="AW92" s="1"/>
       <c r="AX92" s="1"/>
       <c r="AY92" s="1"/>
-      <c r="AZ92" s="10"/>
-      <c r="BA92" s="10"/>
-      <c r="BB92" s="10"/>
-      <c r="BC92" s="10"/>
+      <c r="AZ92" s="1"/>
+      <c r="BA92" s="1"/>
+      <c r="BB92" s="1"/>
+      <c r="BC92" s="1"/>
       <c r="BD92" s="10"/>
       <c r="BE92" s="10"/>
       <c r="BF92" s="10"/>
@@ -7539,10 +7980,14 @@
       <c r="BM92" s="10"/>
       <c r="BN92" s="10"/>
       <c r="BO92" s="10"/>
-      <c r="BP92" s="1"/>
+      <c r="BP92" s="10"/>
       <c r="BQ92" s="10"/>
-    </row>
-    <row r="93" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR92" s="10"/>
+      <c r="BS92" s="10"/>
+      <c r="BT92" s="1"/>
+      <c r="BU92" s="10"/>
+    </row>
+    <row r="93" spans="1:73" ht="12.75" customHeight="1">
       <c r="A93" s="3"/>
       <c r="B93" s="8"/>
       <c r="C93" s="9"/>
@@ -7553,11 +7998,11 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
-      <c r="K93" s="13"/>
+      <c r="K93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
-      <c r="O93" s="1"/>
+      <c r="O93" s="13"/>
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
       <c r="R93" s="1"/>
@@ -7594,10 +8039,10 @@
       <c r="AW93" s="1"/>
       <c r="AX93" s="1"/>
       <c r="AY93" s="1"/>
-      <c r="AZ93" s="10"/>
-      <c r="BA93" s="10"/>
-      <c r="BB93" s="10"/>
-      <c r="BC93" s="10"/>
+      <c r="AZ93" s="1"/>
+      <c r="BA93" s="1"/>
+      <c r="BB93" s="1"/>
+      <c r="BC93" s="1"/>
       <c r="BD93" s="10"/>
       <c r="BE93" s="10"/>
       <c r="BF93" s="10"/>
@@ -7610,10 +8055,14 @@
       <c r="BM93" s="10"/>
       <c r="BN93" s="10"/>
       <c r="BO93" s="10"/>
-      <c r="BP93" s="1"/>
+      <c r="BP93" s="10"/>
       <c r="BQ93" s="10"/>
-    </row>
-    <row r="94" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR93" s="10"/>
+      <c r="BS93" s="10"/>
+      <c r="BT93" s="1"/>
+      <c r="BU93" s="10"/>
+    </row>
+    <row r="94" spans="1:73" ht="12.75" customHeight="1">
       <c r="A94" s="3"/>
       <c r="B94" s="8"/>
       <c r="C94" s="9"/>
@@ -7624,11 +8073,11 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
-      <c r="K94" s="13"/>
+      <c r="K94" s="1"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
-      <c r="O94" s="1"/>
+      <c r="O94" s="13"/>
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
       <c r="R94" s="1"/>
@@ -7665,10 +8114,10 @@
       <c r="AW94" s="1"/>
       <c r="AX94" s="1"/>
       <c r="AY94" s="1"/>
-      <c r="AZ94" s="10"/>
-      <c r="BA94" s="10"/>
-      <c r="BB94" s="10"/>
-      <c r="BC94" s="10"/>
+      <c r="AZ94" s="1"/>
+      <c r="BA94" s="1"/>
+      <c r="BB94" s="1"/>
+      <c r="BC94" s="1"/>
       <c r="BD94" s="10"/>
       <c r="BE94" s="10"/>
       <c r="BF94" s="10"/>
@@ -7681,10 +8130,14 @@
       <c r="BM94" s="10"/>
       <c r="BN94" s="10"/>
       <c r="BO94" s="10"/>
-      <c r="BP94" s="1"/>
+      <c r="BP94" s="10"/>
       <c r="BQ94" s="10"/>
-    </row>
-    <row r="95" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR94" s="10"/>
+      <c r="BS94" s="10"/>
+      <c r="BT94" s="1"/>
+      <c r="BU94" s="10"/>
+    </row>
+    <row r="95" spans="1:73" ht="12.75" customHeight="1">
       <c r="A95" s="3"/>
       <c r="B95" s="8"/>
       <c r="C95" s="9"/>
@@ -7695,11 +8148,11 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
-      <c r="K95" s="13"/>
+      <c r="K95" s="1"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
-      <c r="O95" s="1"/>
+      <c r="O95" s="13"/>
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
@@ -7736,10 +8189,10 @@
       <c r="AW95" s="1"/>
       <c r="AX95" s="1"/>
       <c r="AY95" s="1"/>
-      <c r="AZ95" s="10"/>
-      <c r="BA95" s="10"/>
-      <c r="BB95" s="10"/>
-      <c r="BC95" s="10"/>
+      <c r="AZ95" s="1"/>
+      <c r="BA95" s="1"/>
+      <c r="BB95" s="1"/>
+      <c r="BC95" s="1"/>
       <c r="BD95" s="10"/>
       <c r="BE95" s="10"/>
       <c r="BF95" s="10"/>
@@ -7752,10 +8205,14 @@
       <c r="BM95" s="10"/>
       <c r="BN95" s="10"/>
       <c r="BO95" s="10"/>
-      <c r="BP95" s="1"/>
+      <c r="BP95" s="10"/>
       <c r="BQ95" s="10"/>
-    </row>
-    <row r="96" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR95" s="10"/>
+      <c r="BS95" s="10"/>
+      <c r="BT95" s="1"/>
+      <c r="BU95" s="10"/>
+    </row>
+    <row r="96" spans="1:73" ht="12.75" customHeight="1">
       <c r="A96" s="3"/>
       <c r="B96" s="8"/>
       <c r="C96" s="9"/>
@@ -7766,11 +8223,11 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
-      <c r="K96" s="13"/>
+      <c r="K96" s="1"/>
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
-      <c r="O96" s="1"/>
+      <c r="O96" s="13"/>
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
@@ -7807,10 +8264,10 @@
       <c r="AW96" s="1"/>
       <c r="AX96" s="1"/>
       <c r="AY96" s="1"/>
-      <c r="AZ96" s="10"/>
-      <c r="BA96" s="10"/>
-      <c r="BB96" s="10"/>
-      <c r="BC96" s="10"/>
+      <c r="AZ96" s="1"/>
+      <c r="BA96" s="1"/>
+      <c r="BB96" s="1"/>
+      <c r="BC96" s="1"/>
       <c r="BD96" s="10"/>
       <c r="BE96" s="10"/>
       <c r="BF96" s="10"/>
@@ -7823,10 +8280,14 @@
       <c r="BM96" s="10"/>
       <c r="BN96" s="10"/>
       <c r="BO96" s="10"/>
-      <c r="BP96" s="1"/>
+      <c r="BP96" s="10"/>
       <c r="BQ96" s="10"/>
-    </row>
-    <row r="97" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR96" s="10"/>
+      <c r="BS96" s="10"/>
+      <c r="BT96" s="1"/>
+      <c r="BU96" s="10"/>
+    </row>
+    <row r="97" spans="1:73" ht="12.75" customHeight="1">
       <c r="A97" s="3"/>
       <c r="B97" s="8"/>
       <c r="C97" s="9"/>
@@ -7837,11 +8298,11 @@
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
-      <c r="K97" s="13"/>
+      <c r="K97" s="1"/>
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
-      <c r="O97" s="1"/>
+      <c r="O97" s="13"/>
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
@@ -7878,10 +8339,10 @@
       <c r="AW97" s="1"/>
       <c r="AX97" s="1"/>
       <c r="AY97" s="1"/>
-      <c r="AZ97" s="10"/>
-      <c r="BA97" s="10"/>
-      <c r="BB97" s="10"/>
-      <c r="BC97" s="10"/>
+      <c r="AZ97" s="1"/>
+      <c r="BA97" s="1"/>
+      <c r="BB97" s="1"/>
+      <c r="BC97" s="1"/>
       <c r="BD97" s="10"/>
       <c r="BE97" s="10"/>
       <c r="BF97" s="10"/>
@@ -7894,10 +8355,14 @@
       <c r="BM97" s="10"/>
       <c r="BN97" s="10"/>
       <c r="BO97" s="10"/>
-      <c r="BP97" s="1"/>
+      <c r="BP97" s="10"/>
       <c r="BQ97" s="10"/>
-    </row>
-    <row r="98" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR97" s="10"/>
+      <c r="BS97" s="10"/>
+      <c r="BT97" s="1"/>
+      <c r="BU97" s="10"/>
+    </row>
+    <row r="98" spans="1:73" ht="12.75" customHeight="1">
       <c r="A98" s="3"/>
       <c r="B98" s="8"/>
       <c r="C98" s="9"/>
@@ -7908,11 +8373,11 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
-      <c r="K98" s="13"/>
+      <c r="K98" s="1"/>
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
-      <c r="O98" s="1"/>
+      <c r="O98" s="13"/>
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
@@ -7949,10 +8414,10 @@
       <c r="AW98" s="1"/>
       <c r="AX98" s="1"/>
       <c r="AY98" s="1"/>
-      <c r="AZ98" s="10"/>
-      <c r="BA98" s="10"/>
-      <c r="BB98" s="10"/>
-      <c r="BC98" s="10"/>
+      <c r="AZ98" s="1"/>
+      <c r="BA98" s="1"/>
+      <c r="BB98" s="1"/>
+      <c r="BC98" s="1"/>
       <c r="BD98" s="10"/>
       <c r="BE98" s="10"/>
       <c r="BF98" s="10"/>
@@ -7965,10 +8430,14 @@
       <c r="BM98" s="10"/>
       <c r="BN98" s="10"/>
       <c r="BO98" s="10"/>
-      <c r="BP98" s="1"/>
+      <c r="BP98" s="10"/>
       <c r="BQ98" s="10"/>
-    </row>
-    <row r="99" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR98" s="10"/>
+      <c r="BS98" s="10"/>
+      <c r="BT98" s="1"/>
+      <c r="BU98" s="10"/>
+    </row>
+    <row r="99" spans="1:73" ht="12.75" customHeight="1">
       <c r="A99" s="3"/>
       <c r="B99" s="8"/>
       <c r="C99" s="9"/>
@@ -7979,11 +8448,11 @@
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
-      <c r="K99" s="13"/>
+      <c r="K99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
-      <c r="O99" s="1"/>
+      <c r="O99" s="13"/>
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
@@ -8020,10 +8489,10 @@
       <c r="AW99" s="1"/>
       <c r="AX99" s="1"/>
       <c r="AY99" s="1"/>
-      <c r="AZ99" s="10"/>
-      <c r="BA99" s="10"/>
-      <c r="BB99" s="10"/>
-      <c r="BC99" s="10"/>
+      <c r="AZ99" s="1"/>
+      <c r="BA99" s="1"/>
+      <c r="BB99" s="1"/>
+      <c r="BC99" s="1"/>
       <c r="BD99" s="10"/>
       <c r="BE99" s="10"/>
       <c r="BF99" s="10"/>
@@ -8036,10 +8505,14 @@
       <c r="BM99" s="10"/>
       <c r="BN99" s="10"/>
       <c r="BO99" s="10"/>
-      <c r="BP99" s="1"/>
+      <c r="BP99" s="10"/>
       <c r="BQ99" s="10"/>
-    </row>
-    <row r="100" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR99" s="10"/>
+      <c r="BS99" s="10"/>
+      <c r="BT99" s="1"/>
+      <c r="BU99" s="10"/>
+    </row>
+    <row r="100" spans="1:73" ht="12.75" customHeight="1">
       <c r="A100" s="3"/>
       <c r="B100" s="8"/>
       <c r="C100" s="9"/>
@@ -8050,11 +8523,11 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
-      <c r="K100" s="13"/>
+      <c r="K100" s="1"/>
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
-      <c r="O100" s="1"/>
+      <c r="O100" s="13"/>
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
       <c r="R100" s="1"/>
@@ -8091,10 +8564,10 @@
       <c r="AW100" s="1"/>
       <c r="AX100" s="1"/>
       <c r="AY100" s="1"/>
-      <c r="AZ100" s="10"/>
-      <c r="BA100" s="10"/>
-      <c r="BB100" s="10"/>
-      <c r="BC100" s="10"/>
+      <c r="AZ100" s="1"/>
+      <c r="BA100" s="1"/>
+      <c r="BB100" s="1"/>
+      <c r="BC100" s="1"/>
       <c r="BD100" s="10"/>
       <c r="BE100" s="10"/>
       <c r="BF100" s="10"/>
@@ -8107,10 +8580,14 @@
       <c r="BM100" s="10"/>
       <c r="BN100" s="10"/>
       <c r="BO100" s="10"/>
-      <c r="BP100" s="1"/>
+      <c r="BP100" s="10"/>
       <c r="BQ100" s="10"/>
-    </row>
-    <row r="101" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR100" s="10"/>
+      <c r="BS100" s="10"/>
+      <c r="BT100" s="1"/>
+      <c r="BU100" s="10"/>
+    </row>
+    <row r="101" spans="1:73" ht="12.75" customHeight="1">
       <c r="A101" s="3"/>
       <c r="B101" s="8"/>
       <c r="C101" s="9"/>
@@ -8121,11 +8598,11 @@
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
-      <c r="K101" s="13"/>
+      <c r="K101" s="1"/>
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
-      <c r="O101" s="1"/>
+      <c r="O101" s="13"/>
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
       <c r="R101" s="1"/>
@@ -8162,10 +8639,10 @@
       <c r="AW101" s="1"/>
       <c r="AX101" s="1"/>
       <c r="AY101" s="1"/>
-      <c r="AZ101" s="10"/>
-      <c r="BA101" s="10"/>
-      <c r="BB101" s="10"/>
-      <c r="BC101" s="10"/>
+      <c r="AZ101" s="1"/>
+      <c r="BA101" s="1"/>
+      <c r="BB101" s="1"/>
+      <c r="BC101" s="1"/>
       <c r="BD101" s="10"/>
       <c r="BE101" s="10"/>
       <c r="BF101" s="10"/>
@@ -8178,10 +8655,14 @@
       <c r="BM101" s="10"/>
       <c r="BN101" s="10"/>
       <c r="BO101" s="10"/>
-      <c r="BP101" s="1"/>
+      <c r="BP101" s="10"/>
       <c r="BQ101" s="10"/>
-    </row>
-    <row r="102" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR101" s="10"/>
+      <c r="BS101" s="10"/>
+      <c r="BT101" s="1"/>
+      <c r="BU101" s="10"/>
+    </row>
+    <row r="102" spans="1:73" ht="12.75" customHeight="1">
       <c r="A102" s="3"/>
       <c r="B102" s="8"/>
       <c r="C102" s="9"/>
@@ -8192,11 +8673,11 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
-      <c r="K102" s="13"/>
+      <c r="K102" s="1"/>
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
-      <c r="O102" s="1"/>
+      <c r="O102" s="13"/>
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
@@ -8233,10 +8714,10 @@
       <c r="AW102" s="1"/>
       <c r="AX102" s="1"/>
       <c r="AY102" s="1"/>
-      <c r="AZ102" s="10"/>
-      <c r="BA102" s="10"/>
-      <c r="BB102" s="10"/>
-      <c r="BC102" s="10"/>
+      <c r="AZ102" s="1"/>
+      <c r="BA102" s="1"/>
+      <c r="BB102" s="1"/>
+      <c r="BC102" s="1"/>
       <c r="BD102" s="10"/>
       <c r="BE102" s="10"/>
       <c r="BF102" s="10"/>
@@ -8249,37 +8730,41 @@
       <c r="BM102" s="10"/>
       <c r="BN102" s="10"/>
       <c r="BO102" s="10"/>
-      <c r="BP102" s="1"/>
+      <c r="BP102" s="10"/>
       <c r="BQ102" s="10"/>
-    </row>
-    <row r="103" spans="1:69" ht="12.75" customHeight="1">
+      <c r="BR102" s="10"/>
+      <c r="BS102" s="10"/>
+      <c r="BT102" s="1"/>
+      <c r="BU102" s="10"/>
+    </row>
+    <row r="103" spans="1:73" ht="12.75" customHeight="1">
       <c r="B103" s="11"/>
     </row>
-    <row r="104" spans="1:69" ht="12.75" customHeight="1">
+    <row r="104" spans="1:73" ht="12.75" customHeight="1">
       <c r="B104" s="11"/>
     </row>
-    <row r="105" spans="1:69" ht="12.75" customHeight="1">
+    <row r="105" spans="1:73" ht="12.75" customHeight="1">
       <c r="B105" s="11"/>
     </row>
-    <row r="106" spans="1:69" ht="12.75" customHeight="1">
+    <row r="106" spans="1:73" ht="12.75" customHeight="1">
       <c r="B106" s="11"/>
     </row>
-    <row r="107" spans="1:69" ht="12.75" customHeight="1">
+    <row r="107" spans="1:73" ht="12.75" customHeight="1">
       <c r="B107" s="11"/>
     </row>
-    <row r="108" spans="1:69" ht="12.75" customHeight="1">
+    <row r="108" spans="1:73" ht="12.75" customHeight="1">
       <c r="B108" s="11"/>
     </row>
-    <row r="109" spans="1:69" ht="12.75" customHeight="1">
+    <row r="109" spans="1:73" ht="12.75" customHeight="1">
       <c r="B109" s="11"/>
     </row>
-    <row r="110" spans="1:69" ht="12.75" customHeight="1">
+    <row r="110" spans="1:73" ht="12.75" customHeight="1">
       <c r="B110" s="11"/>
     </row>
-    <row r="111" spans="1:69" ht="12.75" customHeight="1">
+    <row r="111" spans="1:73" ht="12.75" customHeight="1">
       <c r="B111" s="11"/>
     </row>
-    <row r="112" spans="1:69" ht="12.75" customHeight="1">
+    <row r="112" spans="1:73" ht="12.75" customHeight="1">
       <c r="B112" s="11"/>
     </row>
     <row r="113" spans="2:2" ht="12.75" customHeight="1">

--- a/Excel/14_item.xlsx
+++ b/Excel/14_item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hoon\EEA\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0E6BB6-EB77-4D94-B560-FE3D27848537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725B7A2E-14E7-43A9-8FDB-1CDBBD9AE357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39135" yWindow="330" windowWidth="29010" windowHeight="16515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="3465" windowWidth="31200" windowHeight="16515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -308,7 +308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="N1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -326,7 +326,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BD1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="BE1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -359,7 +359,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>No</t>
   </si>
@@ -454,6 +454,25 @@
   </si>
   <si>
     <t>evolution_code</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>해머</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>방패</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_path</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Items/_1.png</t>
+  </si>
+  <si>
+    <t>UI/Items/_2.png</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -862,13 +881,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BU1000"/>
+  <dimension ref="A1:BV1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -883,60 +902,60 @@
     <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="46.5703125" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" customWidth="1"/>
-    <col min="15" max="15" width="92.140625" style="14" customWidth="1"/>
-    <col min="16" max="17" width="11.42578125" customWidth="1"/>
-    <col min="18" max="19" width="21.42578125" customWidth="1"/>
-    <col min="20" max="22" width="8.42578125" customWidth="1"/>
-    <col min="23" max="23" width="10.7109375" customWidth="1"/>
-    <col min="24" max="24" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="32" width="21.42578125" customWidth="1"/>
-    <col min="33" max="33" width="14.140625" customWidth="1"/>
-    <col min="34" max="34" width="10.28515625" customWidth="1"/>
-    <col min="35" max="35" width="20.5703125" customWidth="1"/>
-    <col min="36" max="36" width="21.42578125" customWidth="1"/>
-    <col min="37" max="37" width="20.5703125" customWidth="1"/>
-    <col min="38" max="38" width="21.42578125" customWidth="1"/>
-    <col min="39" max="39" width="20.5703125" customWidth="1"/>
-    <col min="40" max="40" width="21.42578125" customWidth="1"/>
-    <col min="41" max="41" width="20.5703125" customWidth="1"/>
-    <col min="42" max="42" width="21.42578125" customWidth="1"/>
-    <col min="43" max="43" width="20.5703125" customWidth="1"/>
-    <col min="44" max="44" width="21.42578125" customWidth="1"/>
-    <col min="45" max="45" width="19.7109375" customWidth="1"/>
-    <col min="46" max="46" width="20.42578125" customWidth="1"/>
-    <col min="47" max="47" width="19.7109375" customWidth="1"/>
-    <col min="48" max="48" width="20.42578125" customWidth="1"/>
-    <col min="49" max="49" width="19.7109375" customWidth="1"/>
-    <col min="50" max="50" width="20.42578125" customWidth="1"/>
-    <col min="51" max="51" width="19.7109375" customWidth="1"/>
-    <col min="52" max="52" width="20.42578125" customWidth="1"/>
-    <col min="53" max="53" width="19.7109375" customWidth="1"/>
-    <col min="54" max="55" width="20.42578125" customWidth="1"/>
-    <col min="56" max="56" width="13" customWidth="1"/>
-    <col min="57" max="57" width="12.5703125" customWidth="1"/>
-    <col min="58" max="58" width="13" customWidth="1"/>
-    <col min="59" max="59" width="12.5703125" customWidth="1"/>
-    <col min="60" max="60" width="13" customWidth="1"/>
-    <col min="61" max="61" width="12.5703125" customWidth="1"/>
-    <col min="62" max="62" width="13" customWidth="1"/>
-    <col min="63" max="63" width="12.5703125" customWidth="1"/>
-    <col min="64" max="64" width="17.42578125" customWidth="1"/>
-    <col min="65" max="65" width="18.140625" customWidth="1"/>
-    <col min="66" max="66" width="17.42578125" customWidth="1"/>
-    <col min="67" max="67" width="18.140625" customWidth="1"/>
-    <col min="68" max="68" width="17.42578125" customWidth="1"/>
-    <col min="69" max="69" width="18.140625" customWidth="1"/>
-    <col min="70" max="70" width="17.42578125" customWidth="1"/>
-    <col min="71" max="71" width="18.140625" customWidth="1"/>
-    <col min="72" max="72" width="84.7109375" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="13.85546875" customWidth="1"/>
+    <col min="11" max="12" width="46.5703125" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" customWidth="1"/>
+    <col min="15" max="15" width="19.42578125" customWidth="1"/>
+    <col min="16" max="16" width="92.140625" style="14" customWidth="1"/>
+    <col min="17" max="18" width="11.42578125" customWidth="1"/>
+    <col min="19" max="20" width="21.42578125" customWidth="1"/>
+    <col min="21" max="23" width="8.42578125" customWidth="1"/>
+    <col min="24" max="24" width="10.7109375" customWidth="1"/>
+    <col min="25" max="25" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="33" width="21.42578125" customWidth="1"/>
+    <col min="34" max="34" width="14.140625" customWidth="1"/>
+    <col min="35" max="35" width="10.28515625" customWidth="1"/>
+    <col min="36" max="36" width="20.5703125" customWidth="1"/>
+    <col min="37" max="37" width="21.42578125" customWidth="1"/>
+    <col min="38" max="38" width="20.5703125" customWidth="1"/>
+    <col min="39" max="39" width="21.42578125" customWidth="1"/>
+    <col min="40" max="40" width="20.5703125" customWidth="1"/>
+    <col min="41" max="41" width="21.42578125" customWidth="1"/>
+    <col min="42" max="42" width="20.5703125" customWidth="1"/>
+    <col min="43" max="43" width="21.42578125" customWidth="1"/>
+    <col min="44" max="44" width="20.5703125" customWidth="1"/>
+    <col min="45" max="45" width="21.42578125" customWidth="1"/>
+    <col min="46" max="46" width="19.7109375" customWidth="1"/>
+    <col min="47" max="47" width="20.42578125" customWidth="1"/>
+    <col min="48" max="48" width="19.7109375" customWidth="1"/>
+    <col min="49" max="49" width="20.42578125" customWidth="1"/>
+    <col min="50" max="50" width="19.7109375" customWidth="1"/>
+    <col min="51" max="51" width="20.42578125" customWidth="1"/>
+    <col min="52" max="52" width="19.7109375" customWidth="1"/>
+    <col min="53" max="53" width="20.42578125" customWidth="1"/>
+    <col min="54" max="54" width="19.7109375" customWidth="1"/>
+    <col min="55" max="56" width="20.42578125" customWidth="1"/>
+    <col min="57" max="57" width="13" customWidth="1"/>
+    <col min="58" max="58" width="12.5703125" customWidth="1"/>
+    <col min="59" max="59" width="13" customWidth="1"/>
+    <col min="60" max="60" width="12.5703125" customWidth="1"/>
+    <col min="61" max="61" width="13" customWidth="1"/>
+    <col min="62" max="62" width="12.5703125" customWidth="1"/>
+    <col min="63" max="63" width="13" customWidth="1"/>
+    <col min="64" max="64" width="12.5703125" customWidth="1"/>
+    <col min="65" max="65" width="17.42578125" customWidth="1"/>
+    <col min="66" max="66" width="18.140625" customWidth="1"/>
+    <col min="67" max="67" width="17.42578125" customWidth="1"/>
+    <col min="68" max="68" width="18.140625" customWidth="1"/>
+    <col min="69" max="69" width="17.42578125" customWidth="1"/>
+    <col min="70" max="70" width="18.140625" customWidth="1"/>
+    <col min="71" max="71" width="17.42578125" customWidth="1"/>
+    <col min="72" max="72" width="18.140625" customWidth="1"/>
+    <col min="73" max="73" width="84.7109375" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" ht="12.75" customHeight="1">
+    <row r="1" spans="1:74" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -970,7 +989,9 @@
       <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -992,7 +1013,7 @@
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
-      <c r="AH1" s="3"/>
+      <c r="AH1" s="1"/>
       <c r="AI1" s="3"/>
       <c r="AJ1" s="3"/>
       <c r="AK1" s="3"/>
@@ -1014,7 +1035,7 @@
       <c r="BA1" s="3"/>
       <c r="BB1" s="3"/>
       <c r="BC1" s="3"/>
-      <c r="BD1" s="4"/>
+      <c r="BD1" s="3"/>
       <c r="BE1" s="4"/>
       <c r="BF1" s="4"/>
       <c r="BG1" s="4"/>
@@ -1030,10 +1051,11 @@
       <c r="BQ1" s="4"/>
       <c r="BR1" s="4"/>
       <c r="BS1" s="4"/>
-      <c r="BT1" s="1"/>
-      <c r="BU1" s="4"/>
-    </row>
-    <row r="2" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT1" s="4"/>
+      <c r="BU1" s="1"/>
+      <c r="BV1" s="4"/>
+    </row>
+    <row r="2" spans="1:74" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1067,7 +1089,9 @@
       <c r="K2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="6"/>
+      <c r="L2" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
@@ -1111,7 +1135,7 @@
       <c r="BA2" s="6"/>
       <c r="BB2" s="6"/>
       <c r="BC2" s="6"/>
-      <c r="BD2" s="7"/>
+      <c r="BD2" s="6"/>
       <c r="BE2" s="7"/>
       <c r="BF2" s="7"/>
       <c r="BG2" s="7"/>
@@ -1127,12 +1151,13 @@
       <c r="BQ2" s="7"/>
       <c r="BR2" s="7"/>
       <c r="BS2" s="7"/>
-      <c r="BT2" s="6"/>
-      <c r="BU2" s="7"/>
-    </row>
-    <row r="3" spans="1:73" ht="16.5">
+      <c r="BT2" s="7"/>
+      <c r="BU2" s="6"/>
+      <c r="BV2" s="7"/>
+    </row>
+    <row r="3" spans="1:74" ht="16.5">
       <c r="A3" s="3">
-        <f t="shared" ref="A3:A7" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A9" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="8">
@@ -1164,8 +1189,8 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="13"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -1205,7 +1230,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
       <c r="BC3" s="1"/>
-      <c r="BD3" s="10"/>
+      <c r="BD3" s="1"/>
       <c r="BE3" s="10"/>
       <c r="BF3" s="10"/>
       <c r="BG3" s="10"/>
@@ -1221,10 +1246,11 @@
       <c r="BQ3" s="10"/>
       <c r="BR3" s="10"/>
       <c r="BS3" s="10"/>
-      <c r="BT3" s="1"/>
-      <c r="BU3" s="10"/>
-    </row>
-    <row r="4" spans="1:73" ht="16.5">
+      <c r="BT3" s="10"/>
+      <c r="BU3" s="1"/>
+      <c r="BV3" s="10"/>
+    </row>
+    <row r="4" spans="1:74" ht="16.5">
       <c r="A4" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1258,8 +1284,8 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="13"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -1299,7 +1325,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
       <c r="BC4" s="1"/>
-      <c r="BD4" s="10"/>
+      <c r="BD4" s="1"/>
       <c r="BE4" s="10"/>
       <c r="BF4" s="10"/>
       <c r="BG4" s="10"/>
@@ -1315,10 +1341,11 @@
       <c r="BQ4" s="10"/>
       <c r="BR4" s="10"/>
       <c r="BS4" s="10"/>
-      <c r="BT4" s="1"/>
-      <c r="BU4" s="10"/>
-    </row>
-    <row r="5" spans="1:73" ht="16.5">
+      <c r="BT4" s="10"/>
+      <c r="BU4" s="1"/>
+      <c r="BV4" s="10"/>
+    </row>
+    <row r="5" spans="1:74" ht="16.5">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1356,8 +1383,8 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="13"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -1397,7 +1424,7 @@
       <c r="BA5" s="1"/>
       <c r="BB5" s="1"/>
       <c r="BC5" s="1"/>
-      <c r="BD5" s="10"/>
+      <c r="BD5" s="1"/>
       <c r="BE5" s="10"/>
       <c r="BF5" s="10"/>
       <c r="BG5" s="10"/>
@@ -1413,10 +1440,11 @@
       <c r="BQ5" s="10"/>
       <c r="BR5" s="10"/>
       <c r="BS5" s="10"/>
-      <c r="BT5" s="1"/>
-      <c r="BU5" s="10"/>
-    </row>
-    <row r="6" spans="1:73" ht="16.5">
+      <c r="BT5" s="10"/>
+      <c r="BU5" s="1"/>
+      <c r="BV5" s="10"/>
+    </row>
+    <row r="6" spans="1:74" ht="16.5">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1454,8 +1482,8 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="13"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -1495,7 +1523,7 @@
       <c r="BA6" s="1"/>
       <c r="BB6" s="1"/>
       <c r="BC6" s="1"/>
-      <c r="BD6" s="10"/>
+      <c r="BD6" s="1"/>
       <c r="BE6" s="10"/>
       <c r="BF6" s="10"/>
       <c r="BG6" s="10"/>
@@ -1511,10 +1539,11 @@
       <c r="BQ6" s="10"/>
       <c r="BR6" s="10"/>
       <c r="BS6" s="10"/>
-      <c r="BT6" s="1"/>
-      <c r="BU6" s="10"/>
-    </row>
-    <row r="7" spans="1:73" ht="16.5">
+      <c r="BT6" s="10"/>
+      <c r="BU6" s="1"/>
+      <c r="BV6" s="10"/>
+    </row>
+    <row r="7" spans="1:74" ht="16.5">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1552,8 +1581,8 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="13"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -1593,7 +1622,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
       <c r="BC7" s="1"/>
-      <c r="BD7" s="10"/>
+      <c r="BD7" s="1"/>
       <c r="BE7" s="10"/>
       <c r="BF7" s="10"/>
       <c r="BG7" s="10"/>
@@ -1609,26 +1638,48 @@
       <c r="BQ7" s="10"/>
       <c r="BR7" s="10"/>
       <c r="BS7" s="10"/>
-      <c r="BT7" s="1"/>
-      <c r="BU7" s="10"/>
-    </row>
-    <row r="8" spans="1:73" ht="12.75" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="BT7" s="10"/>
+      <c r="BU7" s="1"/>
+      <c r="BV7" s="10"/>
+    </row>
+    <row r="8" spans="1:74" ht="16.5">
+      <c r="A8" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="8">
+        <v>14000013</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>10</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="L8" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="13"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -1668,7 +1719,7 @@
       <c r="BA8" s="1"/>
       <c r="BB8" s="1"/>
       <c r="BC8" s="1"/>
-      <c r="BD8" s="10"/>
+      <c r="BD8" s="1"/>
       <c r="BE8" s="10"/>
       <c r="BF8" s="10"/>
       <c r="BG8" s="10"/>
@@ -1684,26 +1735,48 @@
       <c r="BQ8" s="10"/>
       <c r="BR8" s="10"/>
       <c r="BS8" s="10"/>
-      <c r="BT8" s="1"/>
-      <c r="BU8" s="10"/>
-    </row>
-    <row r="9" spans="1:73" ht="12.75" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="BT8" s="10"/>
+      <c r="BU8" s="1"/>
+      <c r="BV8" s="10"/>
+    </row>
+    <row r="9" spans="1:74" ht="16.5">
+      <c r="A9" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="8">
+        <v>14000014</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>10</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="L9" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="13"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -1743,7 +1816,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
       <c r="BC9" s="1"/>
-      <c r="BD9" s="10"/>
+      <c r="BD9" s="1"/>
       <c r="BE9" s="10"/>
       <c r="BF9" s="10"/>
       <c r="BG9" s="10"/>
@@ -1759,10 +1832,11 @@
       <c r="BQ9" s="10"/>
       <c r="BR9" s="10"/>
       <c r="BS9" s="10"/>
-      <c r="BT9" s="1"/>
-      <c r="BU9" s="10"/>
-    </row>
-    <row r="10" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT9" s="10"/>
+      <c r="BU9" s="1"/>
+      <c r="BV9" s="10"/>
+    </row>
+    <row r="10" spans="1:74" ht="12.75" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
@@ -1777,8 +1851,8 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="13"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -1818,7 +1892,7 @@
       <c r="BA10" s="1"/>
       <c r="BB10" s="1"/>
       <c r="BC10" s="1"/>
-      <c r="BD10" s="10"/>
+      <c r="BD10" s="1"/>
       <c r="BE10" s="10"/>
       <c r="BF10" s="10"/>
       <c r="BG10" s="10"/>
@@ -1834,10 +1908,11 @@
       <c r="BQ10" s="10"/>
       <c r="BR10" s="10"/>
       <c r="BS10" s="10"/>
-      <c r="BT10" s="1"/>
-      <c r="BU10" s="10"/>
-    </row>
-    <row r="11" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT10" s="10"/>
+      <c r="BU10" s="1"/>
+      <c r="BV10" s="10"/>
+    </row>
+    <row r="11" spans="1:74" ht="12.75" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
@@ -1852,8 +1927,8 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="13"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -1893,7 +1968,7 @@
       <c r="BA11" s="1"/>
       <c r="BB11" s="1"/>
       <c r="BC11" s="1"/>
-      <c r="BD11" s="10"/>
+      <c r="BD11" s="1"/>
       <c r="BE11" s="10"/>
       <c r="BF11" s="10"/>
       <c r="BG11" s="10"/>
@@ -1909,10 +1984,11 @@
       <c r="BQ11" s="10"/>
       <c r="BR11" s="10"/>
       <c r="BS11" s="10"/>
-      <c r="BT11" s="1"/>
-      <c r="BU11" s="10"/>
-    </row>
-    <row r="12" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT11" s="10"/>
+      <c r="BU11" s="1"/>
+      <c r="BV11" s="10"/>
+    </row>
+    <row r="12" spans="1:74" ht="12.75" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
@@ -1927,8 +2003,8 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="13"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -1968,7 +2044,7 @@
       <c r="BA12" s="1"/>
       <c r="BB12" s="1"/>
       <c r="BC12" s="1"/>
-      <c r="BD12" s="10"/>
+      <c r="BD12" s="1"/>
       <c r="BE12" s="10"/>
       <c r="BF12" s="10"/>
       <c r="BG12" s="10"/>
@@ -1984,10 +2060,11 @@
       <c r="BQ12" s="10"/>
       <c r="BR12" s="10"/>
       <c r="BS12" s="10"/>
-      <c r="BT12" s="1"/>
-      <c r="BU12" s="10"/>
-    </row>
-    <row r="13" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT12" s="10"/>
+      <c r="BU12" s="1"/>
+      <c r="BV12" s="10"/>
+    </row>
+    <row r="13" spans="1:74" ht="12.75" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
@@ -2002,8 +2079,8 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="13"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -2043,7 +2120,7 @@
       <c r="BA13" s="1"/>
       <c r="BB13" s="1"/>
       <c r="BC13" s="1"/>
-      <c r="BD13" s="10"/>
+      <c r="BD13" s="1"/>
       <c r="BE13" s="10"/>
       <c r="BF13" s="10"/>
       <c r="BG13" s="10"/>
@@ -2059,10 +2136,11 @@
       <c r="BQ13" s="10"/>
       <c r="BR13" s="10"/>
       <c r="BS13" s="10"/>
-      <c r="BT13" s="1"/>
-      <c r="BU13" s="10"/>
-    </row>
-    <row r="14" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT13" s="10"/>
+      <c r="BU13" s="1"/>
+      <c r="BV13" s="10"/>
+    </row>
+    <row r="14" spans="1:74" ht="12.75" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
@@ -2077,8 +2155,8 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="13"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -2118,7 +2196,7 @@
       <c r="BA14" s="1"/>
       <c r="BB14" s="1"/>
       <c r="BC14" s="1"/>
-      <c r="BD14" s="10"/>
+      <c r="BD14" s="1"/>
       <c r="BE14" s="10"/>
       <c r="BF14" s="10"/>
       <c r="BG14" s="10"/>
@@ -2134,10 +2212,11 @@
       <c r="BQ14" s="10"/>
       <c r="BR14" s="10"/>
       <c r="BS14" s="10"/>
-      <c r="BT14" s="1"/>
-      <c r="BU14" s="10"/>
-    </row>
-    <row r="15" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT14" s="10"/>
+      <c r="BU14" s="1"/>
+      <c r="BV14" s="10"/>
+    </row>
+    <row r="15" spans="1:74" ht="12.75" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
@@ -2152,8 +2231,8 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="13"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -2193,7 +2272,7 @@
       <c r="BA15" s="1"/>
       <c r="BB15" s="1"/>
       <c r="BC15" s="1"/>
-      <c r="BD15" s="10"/>
+      <c r="BD15" s="1"/>
       <c r="BE15" s="10"/>
       <c r="BF15" s="10"/>
       <c r="BG15" s="10"/>
@@ -2209,10 +2288,11 @@
       <c r="BQ15" s="10"/>
       <c r="BR15" s="10"/>
       <c r="BS15" s="10"/>
-      <c r="BT15" s="1"/>
-      <c r="BU15" s="10"/>
-    </row>
-    <row r="16" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT15" s="10"/>
+      <c r="BU15" s="1"/>
+      <c r="BV15" s="10"/>
+    </row>
+    <row r="16" spans="1:74" ht="12.75" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
@@ -2227,8 +2307,8 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="13"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -2268,7 +2348,7 @@
       <c r="BA16" s="1"/>
       <c r="BB16" s="1"/>
       <c r="BC16" s="1"/>
-      <c r="BD16" s="10"/>
+      <c r="BD16" s="1"/>
       <c r="BE16" s="10"/>
       <c r="BF16" s="10"/>
       <c r="BG16" s="10"/>
@@ -2284,10 +2364,11 @@
       <c r="BQ16" s="10"/>
       <c r="BR16" s="10"/>
       <c r="BS16" s="10"/>
-      <c r="BT16" s="1"/>
-      <c r="BU16" s="10"/>
-    </row>
-    <row r="17" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT16" s="10"/>
+      <c r="BU16" s="1"/>
+      <c r="BV16" s="10"/>
+    </row>
+    <row r="17" spans="1:74" ht="12.75" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
@@ -2302,8 +2383,8 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="13"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
@@ -2343,7 +2424,7 @@
       <c r="BA17" s="1"/>
       <c r="BB17" s="1"/>
       <c r="BC17" s="1"/>
-      <c r="BD17" s="10"/>
+      <c r="BD17" s="1"/>
       <c r="BE17" s="10"/>
       <c r="BF17" s="10"/>
       <c r="BG17" s="10"/>
@@ -2359,10 +2440,11 @@
       <c r="BQ17" s="10"/>
       <c r="BR17" s="10"/>
       <c r="BS17" s="10"/>
-      <c r="BT17" s="1"/>
-      <c r="BU17" s="10"/>
-    </row>
-    <row r="18" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT17" s="10"/>
+      <c r="BU17" s="1"/>
+      <c r="BV17" s="10"/>
+    </row>
+    <row r="18" spans="1:74" ht="12.75" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
@@ -2377,8 +2459,8 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="13"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
@@ -2418,7 +2500,7 @@
       <c r="BA18" s="1"/>
       <c r="BB18" s="1"/>
       <c r="BC18" s="1"/>
-      <c r="BD18" s="10"/>
+      <c r="BD18" s="1"/>
       <c r="BE18" s="10"/>
       <c r="BF18" s="10"/>
       <c r="BG18" s="10"/>
@@ -2434,10 +2516,11 @@
       <c r="BQ18" s="10"/>
       <c r="BR18" s="10"/>
       <c r="BS18" s="10"/>
-      <c r="BT18" s="1"/>
-      <c r="BU18" s="10"/>
-    </row>
-    <row r="19" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT18" s="10"/>
+      <c r="BU18" s="1"/>
+      <c r="BV18" s="10"/>
+    </row>
+    <row r="19" spans="1:74" ht="12.75" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
@@ -2452,8 +2535,8 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="13"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
@@ -2493,7 +2576,7 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
       <c r="BC19" s="1"/>
-      <c r="BD19" s="10"/>
+      <c r="BD19" s="1"/>
       <c r="BE19" s="10"/>
       <c r="BF19" s="10"/>
       <c r="BG19" s="10"/>
@@ -2509,10 +2592,11 @@
       <c r="BQ19" s="10"/>
       <c r="BR19" s="10"/>
       <c r="BS19" s="10"/>
-      <c r="BT19" s="1"/>
-      <c r="BU19" s="10"/>
-    </row>
-    <row r="20" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT19" s="10"/>
+      <c r="BU19" s="1"/>
+      <c r="BV19" s="10"/>
+    </row>
+    <row r="20" spans="1:74" ht="12.75" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
@@ -2527,8 +2611,8 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="13"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
@@ -2568,7 +2652,7 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
       <c r="BC20" s="1"/>
-      <c r="BD20" s="10"/>
+      <c r="BD20" s="1"/>
       <c r="BE20" s="10"/>
       <c r="BF20" s="10"/>
       <c r="BG20" s="10"/>
@@ -2584,10 +2668,11 @@
       <c r="BQ20" s="10"/>
       <c r="BR20" s="10"/>
       <c r="BS20" s="10"/>
-      <c r="BT20" s="1"/>
-      <c r="BU20" s="10"/>
-    </row>
-    <row r="21" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT20" s="10"/>
+      <c r="BU20" s="1"/>
+      <c r="BV20" s="10"/>
+    </row>
+    <row r="21" spans="1:74" ht="12.75" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
@@ -2602,8 +2687,8 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="13"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -2643,7 +2728,7 @@
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
       <c r="BC21" s="1"/>
-      <c r="BD21" s="10"/>
+      <c r="BD21" s="1"/>
       <c r="BE21" s="10"/>
       <c r="BF21" s="10"/>
       <c r="BG21" s="10"/>
@@ -2659,10 +2744,11 @@
       <c r="BQ21" s="10"/>
       <c r="BR21" s="10"/>
       <c r="BS21" s="10"/>
-      <c r="BT21" s="1"/>
-      <c r="BU21" s="10"/>
-    </row>
-    <row r="22" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT21" s="10"/>
+      <c r="BU21" s="1"/>
+      <c r="BV21" s="10"/>
+    </row>
+    <row r="22" spans="1:74" ht="12.75" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
@@ -2677,8 +2763,8 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="13"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -2718,7 +2804,7 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
       <c r="BC22" s="1"/>
-      <c r="BD22" s="10"/>
+      <c r="BD22" s="1"/>
       <c r="BE22" s="10"/>
       <c r="BF22" s="10"/>
       <c r="BG22" s="10"/>
@@ -2734,10 +2820,11 @@
       <c r="BQ22" s="10"/>
       <c r="BR22" s="10"/>
       <c r="BS22" s="10"/>
-      <c r="BT22" s="1"/>
-      <c r="BU22" s="10"/>
-    </row>
-    <row r="23" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT22" s="10"/>
+      <c r="BU22" s="1"/>
+      <c r="BV22" s="10"/>
+    </row>
+    <row r="23" spans="1:74" ht="12.75" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
@@ -2752,8 +2839,8 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="13"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -2793,7 +2880,7 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
       <c r="BC23" s="1"/>
-      <c r="BD23" s="10"/>
+      <c r="BD23" s="1"/>
       <c r="BE23" s="10"/>
       <c r="BF23" s="10"/>
       <c r="BG23" s="10"/>
@@ -2809,10 +2896,11 @@
       <c r="BQ23" s="10"/>
       <c r="BR23" s="10"/>
       <c r="BS23" s="10"/>
-      <c r="BT23" s="1"/>
-      <c r="BU23" s="10"/>
-    </row>
-    <row r="24" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT23" s="10"/>
+      <c r="BU23" s="1"/>
+      <c r="BV23" s="10"/>
+    </row>
+    <row r="24" spans="1:74" ht="12.75" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
@@ -2827,8 +2915,8 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="13"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
@@ -2868,7 +2956,7 @@
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
       <c r="BC24" s="1"/>
-      <c r="BD24" s="10"/>
+      <c r="BD24" s="1"/>
       <c r="BE24" s="10"/>
       <c r="BF24" s="10"/>
       <c r="BG24" s="10"/>
@@ -2884,10 +2972,11 @@
       <c r="BQ24" s="10"/>
       <c r="BR24" s="10"/>
       <c r="BS24" s="10"/>
-      <c r="BT24" s="1"/>
-      <c r="BU24" s="10"/>
-    </row>
-    <row r="25" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT24" s="10"/>
+      <c r="BU24" s="1"/>
+      <c r="BV24" s="10"/>
+    </row>
+    <row r="25" spans="1:74" ht="12.75" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
@@ -2902,8 +2991,8 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="13"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
@@ -2943,7 +3032,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
       <c r="BC25" s="1"/>
-      <c r="BD25" s="10"/>
+      <c r="BD25" s="1"/>
       <c r="BE25" s="10"/>
       <c r="BF25" s="10"/>
       <c r="BG25" s="10"/>
@@ -2959,10 +3048,11 @@
       <c r="BQ25" s="10"/>
       <c r="BR25" s="10"/>
       <c r="BS25" s="10"/>
-      <c r="BT25" s="1"/>
-      <c r="BU25" s="10"/>
-    </row>
-    <row r="26" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT25" s="10"/>
+      <c r="BU25" s="1"/>
+      <c r="BV25" s="10"/>
+    </row>
+    <row r="26" spans="1:74" ht="12.75" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
@@ -2977,8 +3067,8 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="13"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
@@ -3018,7 +3108,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
       <c r="BC26" s="1"/>
-      <c r="BD26" s="10"/>
+      <c r="BD26" s="1"/>
       <c r="BE26" s="10"/>
       <c r="BF26" s="10"/>
       <c r="BG26" s="10"/>
@@ -3034,10 +3124,11 @@
       <c r="BQ26" s="10"/>
       <c r="BR26" s="10"/>
       <c r="BS26" s="10"/>
-      <c r="BT26" s="1"/>
-      <c r="BU26" s="10"/>
-    </row>
-    <row r="27" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT26" s="10"/>
+      <c r="BU26" s="1"/>
+      <c r="BV26" s="10"/>
+    </row>
+    <row r="27" spans="1:74" ht="12.75" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
@@ -3052,8 +3143,8 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="13"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -3093,7 +3184,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
       <c r="BC27" s="1"/>
-      <c r="BD27" s="10"/>
+      <c r="BD27" s="1"/>
       <c r="BE27" s="10"/>
       <c r="BF27" s="10"/>
       <c r="BG27" s="10"/>
@@ -3109,10 +3200,11 @@
       <c r="BQ27" s="10"/>
       <c r="BR27" s="10"/>
       <c r="BS27" s="10"/>
-      <c r="BT27" s="1"/>
-      <c r="BU27" s="10"/>
-    </row>
-    <row r="28" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT27" s="10"/>
+      <c r="BU27" s="1"/>
+      <c r="BV27" s="10"/>
+    </row>
+    <row r="28" spans="1:74" ht="12.75" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
@@ -3127,8 +3219,8 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="13"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
@@ -3168,7 +3260,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
       <c r="BC28" s="1"/>
-      <c r="BD28" s="10"/>
+      <c r="BD28" s="1"/>
       <c r="BE28" s="10"/>
       <c r="BF28" s="10"/>
       <c r="BG28" s="10"/>
@@ -3184,10 +3276,11 @@
       <c r="BQ28" s="10"/>
       <c r="BR28" s="10"/>
       <c r="BS28" s="10"/>
-      <c r="BT28" s="1"/>
-      <c r="BU28" s="10"/>
-    </row>
-    <row r="29" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT28" s="10"/>
+      <c r="BU28" s="1"/>
+      <c r="BV28" s="10"/>
+    </row>
+    <row r="29" spans="1:74" ht="12.75" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="8"/>
       <c r="C29" s="9"/>
@@ -3202,8 +3295,8 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="13"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
@@ -3243,7 +3336,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
       <c r="BC29" s="1"/>
-      <c r="BD29" s="10"/>
+      <c r="BD29" s="1"/>
       <c r="BE29" s="10"/>
       <c r="BF29" s="10"/>
       <c r="BG29" s="10"/>
@@ -3259,10 +3352,11 @@
       <c r="BQ29" s="10"/>
       <c r="BR29" s="10"/>
       <c r="BS29" s="10"/>
-      <c r="BT29" s="1"/>
-      <c r="BU29" s="10"/>
-    </row>
-    <row r="30" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT29" s="10"/>
+      <c r="BU29" s="1"/>
+      <c r="BV29" s="10"/>
+    </row>
+    <row r="30" spans="1:74" ht="12.75" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="8"/>
       <c r="C30" s="9"/>
@@ -3277,8 +3371,8 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="13"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
@@ -3318,7 +3412,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
       <c r="BC30" s="1"/>
-      <c r="BD30" s="10"/>
+      <c r="BD30" s="1"/>
       <c r="BE30" s="10"/>
       <c r="BF30" s="10"/>
       <c r="BG30" s="10"/>
@@ -3334,10 +3428,11 @@
       <c r="BQ30" s="10"/>
       <c r="BR30" s="10"/>
       <c r="BS30" s="10"/>
-      <c r="BT30" s="1"/>
-      <c r="BU30" s="10"/>
-    </row>
-    <row r="31" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT30" s="10"/>
+      <c r="BU30" s="1"/>
+      <c r="BV30" s="10"/>
+    </row>
+    <row r="31" spans="1:74" ht="12.75" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
@@ -3352,8 +3447,8 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="13"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -3393,7 +3488,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
       <c r="BC31" s="1"/>
-      <c r="BD31" s="10"/>
+      <c r="BD31" s="1"/>
       <c r="BE31" s="10"/>
       <c r="BF31" s="10"/>
       <c r="BG31" s="10"/>
@@ -3409,10 +3504,11 @@
       <c r="BQ31" s="10"/>
       <c r="BR31" s="10"/>
       <c r="BS31" s="10"/>
-      <c r="BT31" s="1"/>
-      <c r="BU31" s="10"/>
-    </row>
-    <row r="32" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT31" s="10"/>
+      <c r="BU31" s="1"/>
+      <c r="BV31" s="10"/>
+    </row>
+    <row r="32" spans="1:74" ht="12.75" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="8"/>
       <c r="C32" s="9"/>
@@ -3427,8 +3523,8 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="13"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
@@ -3468,7 +3564,7 @@
       <c r="BA32" s="1"/>
       <c r="BB32" s="1"/>
       <c r="BC32" s="1"/>
-      <c r="BD32" s="10"/>
+      <c r="BD32" s="1"/>
       <c r="BE32" s="10"/>
       <c r="BF32" s="10"/>
       <c r="BG32" s="10"/>
@@ -3484,10 +3580,11 @@
       <c r="BQ32" s="10"/>
       <c r="BR32" s="10"/>
       <c r="BS32" s="10"/>
-      <c r="BT32" s="1"/>
-      <c r="BU32" s="10"/>
-    </row>
-    <row r="33" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT32" s="10"/>
+      <c r="BU32" s="1"/>
+      <c r="BV32" s="10"/>
+    </row>
+    <row r="33" spans="1:74" ht="12.75" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
@@ -3502,8 +3599,8 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="13"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
@@ -3543,7 +3640,7 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
       <c r="BC33" s="1"/>
-      <c r="BD33" s="10"/>
+      <c r="BD33" s="1"/>
       <c r="BE33" s="10"/>
       <c r="BF33" s="10"/>
       <c r="BG33" s="10"/>
@@ -3559,10 +3656,11 @@
       <c r="BQ33" s="10"/>
       <c r="BR33" s="10"/>
       <c r="BS33" s="10"/>
-      <c r="BT33" s="1"/>
-      <c r="BU33" s="10"/>
-    </row>
-    <row r="34" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT33" s="10"/>
+      <c r="BU33" s="1"/>
+      <c r="BV33" s="10"/>
+    </row>
+    <row r="34" spans="1:74" ht="12.75" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="8"/>
       <c r="C34" s="9"/>
@@ -3577,8 +3675,8 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="13"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
@@ -3618,7 +3716,7 @@
       <c r="BA34" s="1"/>
       <c r="BB34" s="1"/>
       <c r="BC34" s="1"/>
-      <c r="BD34" s="10"/>
+      <c r="BD34" s="1"/>
       <c r="BE34" s="10"/>
       <c r="BF34" s="10"/>
       <c r="BG34" s="10"/>
@@ -3634,10 +3732,11 @@
       <c r="BQ34" s="10"/>
       <c r="BR34" s="10"/>
       <c r="BS34" s="10"/>
-      <c r="BT34" s="1"/>
-      <c r="BU34" s="10"/>
-    </row>
-    <row r="35" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT34" s="10"/>
+      <c r="BU34" s="1"/>
+      <c r="BV34" s="10"/>
+    </row>
+    <row r="35" spans="1:74" ht="12.75" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="8"/>
       <c r="C35" s="9"/>
@@ -3652,8 +3751,8 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="13"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
@@ -3693,7 +3792,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
       <c r="BC35" s="1"/>
-      <c r="BD35" s="10"/>
+      <c r="BD35" s="1"/>
       <c r="BE35" s="10"/>
       <c r="BF35" s="10"/>
       <c r="BG35" s="10"/>
@@ -3709,10 +3808,11 @@
       <c r="BQ35" s="10"/>
       <c r="BR35" s="10"/>
       <c r="BS35" s="10"/>
-      <c r="BT35" s="1"/>
-      <c r="BU35" s="10"/>
-    </row>
-    <row r="36" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT35" s="10"/>
+      <c r="BU35" s="1"/>
+      <c r="BV35" s="10"/>
+    </row>
+    <row r="36" spans="1:74" ht="12.75" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="8"/>
       <c r="C36" s="9"/>
@@ -3727,8 +3827,8 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="13"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
@@ -3768,7 +3868,7 @@
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
       <c r="BC36" s="1"/>
-      <c r="BD36" s="10"/>
+      <c r="BD36" s="1"/>
       <c r="BE36" s="10"/>
       <c r="BF36" s="10"/>
       <c r="BG36" s="10"/>
@@ -3784,10 +3884,11 @@
       <c r="BQ36" s="10"/>
       <c r="BR36" s="10"/>
       <c r="BS36" s="10"/>
-      <c r="BT36" s="1"/>
-      <c r="BU36" s="10"/>
-    </row>
-    <row r="37" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT36" s="10"/>
+      <c r="BU36" s="1"/>
+      <c r="BV36" s="10"/>
+    </row>
+    <row r="37" spans="1:74" ht="12.75" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
@@ -3802,8 +3903,8 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="13"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
@@ -3843,7 +3944,7 @@
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
       <c r="BC37" s="1"/>
-      <c r="BD37" s="10"/>
+      <c r="BD37" s="1"/>
       <c r="BE37" s="10"/>
       <c r="BF37" s="10"/>
       <c r="BG37" s="10"/>
@@ -3859,10 +3960,11 @@
       <c r="BQ37" s="10"/>
       <c r="BR37" s="10"/>
       <c r="BS37" s="10"/>
-      <c r="BT37" s="1"/>
-      <c r="BU37" s="10"/>
-    </row>
-    <row r="38" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT37" s="10"/>
+      <c r="BU37" s="1"/>
+      <c r="BV37" s="10"/>
+    </row>
+    <row r="38" spans="1:74" ht="12.75" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="8"/>
       <c r="C38" s="9"/>
@@ -3877,8 +3979,8 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="13"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
@@ -3918,7 +4020,7 @@
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
       <c r="BC38" s="1"/>
-      <c r="BD38" s="10"/>
+      <c r="BD38" s="1"/>
       <c r="BE38" s="10"/>
       <c r="BF38" s="10"/>
       <c r="BG38" s="10"/>
@@ -3934,10 +4036,11 @@
       <c r="BQ38" s="10"/>
       <c r="BR38" s="10"/>
       <c r="BS38" s="10"/>
-      <c r="BT38" s="1"/>
-      <c r="BU38" s="10"/>
-    </row>
-    <row r="39" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT38" s="10"/>
+      <c r="BU38" s="1"/>
+      <c r="BV38" s="10"/>
+    </row>
+    <row r="39" spans="1:74" ht="12.75" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="8"/>
       <c r="C39" s="9"/>
@@ -3952,8 +4055,8 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="13"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
@@ -3993,7 +4096,7 @@
       <c r="BA39" s="1"/>
       <c r="BB39" s="1"/>
       <c r="BC39" s="1"/>
-      <c r="BD39" s="10"/>
+      <c r="BD39" s="1"/>
       <c r="BE39" s="10"/>
       <c r="BF39" s="10"/>
       <c r="BG39" s="10"/>
@@ -4009,10 +4112,11 @@
       <c r="BQ39" s="10"/>
       <c r="BR39" s="10"/>
       <c r="BS39" s="10"/>
-      <c r="BT39" s="1"/>
-      <c r="BU39" s="10"/>
-    </row>
-    <row r="40" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT39" s="10"/>
+      <c r="BU39" s="1"/>
+      <c r="BV39" s="10"/>
+    </row>
+    <row r="40" spans="1:74" ht="12.75" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="8"/>
       <c r="C40" s="9"/>
@@ -4027,8 +4131,8 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="13"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
@@ -4068,7 +4172,7 @@
       <c r="BA40" s="1"/>
       <c r="BB40" s="1"/>
       <c r="BC40" s="1"/>
-      <c r="BD40" s="10"/>
+      <c r="BD40" s="1"/>
       <c r="BE40" s="10"/>
       <c r="BF40" s="10"/>
       <c r="BG40" s="10"/>
@@ -4084,10 +4188,11 @@
       <c r="BQ40" s="10"/>
       <c r="BR40" s="10"/>
       <c r="BS40" s="10"/>
-      <c r="BT40" s="1"/>
-      <c r="BU40" s="10"/>
-    </row>
-    <row r="41" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT40" s="10"/>
+      <c r="BU40" s="1"/>
+      <c r="BV40" s="10"/>
+    </row>
+    <row r="41" spans="1:74" ht="12.75" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="8"/>
       <c r="C41" s="9"/>
@@ -4102,8 +4207,8 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="13"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
@@ -4143,7 +4248,7 @@
       <c r="BA41" s="1"/>
       <c r="BB41" s="1"/>
       <c r="BC41" s="1"/>
-      <c r="BD41" s="10"/>
+      <c r="BD41" s="1"/>
       <c r="BE41" s="10"/>
       <c r="BF41" s="10"/>
       <c r="BG41" s="10"/>
@@ -4159,10 +4264,11 @@
       <c r="BQ41" s="10"/>
       <c r="BR41" s="10"/>
       <c r="BS41" s="10"/>
-      <c r="BT41" s="1"/>
-      <c r="BU41" s="10"/>
-    </row>
-    <row r="42" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT41" s="10"/>
+      <c r="BU41" s="1"/>
+      <c r="BV41" s="10"/>
+    </row>
+    <row r="42" spans="1:74" ht="12.75" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="8"/>
       <c r="C42" s="9"/>
@@ -4177,8 +4283,8 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="13"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
@@ -4218,7 +4324,7 @@
       <c r="BA42" s="1"/>
       <c r="BB42" s="1"/>
       <c r="BC42" s="1"/>
-      <c r="BD42" s="10"/>
+      <c r="BD42" s="1"/>
       <c r="BE42" s="10"/>
       <c r="BF42" s="10"/>
       <c r="BG42" s="10"/>
@@ -4234,10 +4340,11 @@
       <c r="BQ42" s="10"/>
       <c r="BR42" s="10"/>
       <c r="BS42" s="10"/>
-      <c r="BT42" s="1"/>
-      <c r="BU42" s="10"/>
-    </row>
-    <row r="43" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT42" s="10"/>
+      <c r="BU42" s="1"/>
+      <c r="BV42" s="10"/>
+    </row>
+    <row r="43" spans="1:74" ht="12.75" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="8"/>
       <c r="C43" s="9"/>
@@ -4252,8 +4359,8 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="13"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
@@ -4293,7 +4400,7 @@
       <c r="BA43" s="1"/>
       <c r="BB43" s="1"/>
       <c r="BC43" s="1"/>
-      <c r="BD43" s="10"/>
+      <c r="BD43" s="1"/>
       <c r="BE43" s="10"/>
       <c r="BF43" s="10"/>
       <c r="BG43" s="10"/>
@@ -4309,10 +4416,11 @@
       <c r="BQ43" s="10"/>
       <c r="BR43" s="10"/>
       <c r="BS43" s="10"/>
-      <c r="BT43" s="1"/>
-      <c r="BU43" s="10"/>
-    </row>
-    <row r="44" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT43" s="10"/>
+      <c r="BU43" s="1"/>
+      <c r="BV43" s="10"/>
+    </row>
+    <row r="44" spans="1:74" ht="12.75" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="8"/>
       <c r="C44" s="9"/>
@@ -4327,8 +4435,8 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="13"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
@@ -4368,7 +4476,7 @@
       <c r="BA44" s="1"/>
       <c r="BB44" s="1"/>
       <c r="BC44" s="1"/>
-      <c r="BD44" s="10"/>
+      <c r="BD44" s="1"/>
       <c r="BE44" s="10"/>
       <c r="BF44" s="10"/>
       <c r="BG44" s="10"/>
@@ -4384,10 +4492,11 @@
       <c r="BQ44" s="10"/>
       <c r="BR44" s="10"/>
       <c r="BS44" s="10"/>
-      <c r="BT44" s="1"/>
-      <c r="BU44" s="10"/>
-    </row>
-    <row r="45" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT44" s="10"/>
+      <c r="BU44" s="1"/>
+      <c r="BV44" s="10"/>
+    </row>
+    <row r="45" spans="1:74" ht="12.75" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="8"/>
       <c r="C45" s="9"/>
@@ -4402,8 +4511,8 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="13"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
@@ -4443,7 +4552,7 @@
       <c r="BA45" s="1"/>
       <c r="BB45" s="1"/>
       <c r="BC45" s="1"/>
-      <c r="BD45" s="10"/>
+      <c r="BD45" s="1"/>
       <c r="BE45" s="10"/>
       <c r="BF45" s="10"/>
       <c r="BG45" s="10"/>
@@ -4459,10 +4568,11 @@
       <c r="BQ45" s="10"/>
       <c r="BR45" s="10"/>
       <c r="BS45" s="10"/>
-      <c r="BT45" s="1"/>
-      <c r="BU45" s="10"/>
-    </row>
-    <row r="46" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT45" s="10"/>
+      <c r="BU45" s="1"/>
+      <c r="BV45" s="10"/>
+    </row>
+    <row r="46" spans="1:74" ht="12.75" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="8"/>
       <c r="C46" s="9"/>
@@ -4477,8 +4587,8 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
-      <c r="O46" s="13"/>
-      <c r="P46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="13"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
@@ -4518,7 +4628,7 @@
       <c r="BA46" s="1"/>
       <c r="BB46" s="1"/>
       <c r="BC46" s="1"/>
-      <c r="BD46" s="10"/>
+      <c r="BD46" s="1"/>
       <c r="BE46" s="10"/>
       <c r="BF46" s="10"/>
       <c r="BG46" s="10"/>
@@ -4534,10 +4644,11 @@
       <c r="BQ46" s="10"/>
       <c r="BR46" s="10"/>
       <c r="BS46" s="10"/>
-      <c r="BT46" s="1"/>
-      <c r="BU46" s="10"/>
-    </row>
-    <row r="47" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT46" s="10"/>
+      <c r="BU46" s="1"/>
+      <c r="BV46" s="10"/>
+    </row>
+    <row r="47" spans="1:74" ht="12.75" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="8"/>
       <c r="C47" s="9"/>
@@ -4552,8 +4663,8 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
-      <c r="O47" s="13"/>
-      <c r="P47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="13"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
@@ -4593,7 +4704,7 @@
       <c r="BA47" s="1"/>
       <c r="BB47" s="1"/>
       <c r="BC47" s="1"/>
-      <c r="BD47" s="10"/>
+      <c r="BD47" s="1"/>
       <c r="BE47" s="10"/>
       <c r="BF47" s="10"/>
       <c r="BG47" s="10"/>
@@ -4609,10 +4720,11 @@
       <c r="BQ47" s="10"/>
       <c r="BR47" s="10"/>
       <c r="BS47" s="10"/>
-      <c r="BT47" s="1"/>
-      <c r="BU47" s="10"/>
-    </row>
-    <row r="48" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT47" s="10"/>
+      <c r="BU47" s="1"/>
+      <c r="BV47" s="10"/>
+    </row>
+    <row r="48" spans="1:74" ht="12.75" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="8"/>
       <c r="C48" s="9"/>
@@ -4627,8 +4739,8 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
-      <c r="O48" s="13"/>
-      <c r="P48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="13"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
@@ -4668,7 +4780,7 @@
       <c r="BA48" s="1"/>
       <c r="BB48" s="1"/>
       <c r="BC48" s="1"/>
-      <c r="BD48" s="10"/>
+      <c r="BD48" s="1"/>
       <c r="BE48" s="10"/>
       <c r="BF48" s="10"/>
       <c r="BG48" s="10"/>
@@ -4684,10 +4796,11 @@
       <c r="BQ48" s="10"/>
       <c r="BR48" s="10"/>
       <c r="BS48" s="10"/>
-      <c r="BT48" s="1"/>
-      <c r="BU48" s="10"/>
-    </row>
-    <row r="49" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT48" s="10"/>
+      <c r="BU48" s="1"/>
+      <c r="BV48" s="10"/>
+    </row>
+    <row r="49" spans="1:74" ht="12.75" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="8"/>
       <c r="C49" s="9"/>
@@ -4702,8 +4815,8 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="13"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
@@ -4743,7 +4856,7 @@
       <c r="BA49" s="1"/>
       <c r="BB49" s="1"/>
       <c r="BC49" s="1"/>
-      <c r="BD49" s="10"/>
+      <c r="BD49" s="1"/>
       <c r="BE49" s="10"/>
       <c r="BF49" s="10"/>
       <c r="BG49" s="10"/>
@@ -4759,10 +4872,11 @@
       <c r="BQ49" s="10"/>
       <c r="BR49" s="10"/>
       <c r="BS49" s="10"/>
-      <c r="BT49" s="1"/>
-      <c r="BU49" s="10"/>
-    </row>
-    <row r="50" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT49" s="10"/>
+      <c r="BU49" s="1"/>
+      <c r="BV49" s="10"/>
+    </row>
+    <row r="50" spans="1:74" ht="12.75" customHeight="1">
       <c r="A50" s="3"/>
       <c r="B50" s="8"/>
       <c r="C50" s="9"/>
@@ -4777,8 +4891,8 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
-      <c r="O50" s="13"/>
-      <c r="P50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="13"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
@@ -4818,7 +4932,7 @@
       <c r="BA50" s="1"/>
       <c r="BB50" s="1"/>
       <c r="BC50" s="1"/>
-      <c r="BD50" s="10"/>
+      <c r="BD50" s="1"/>
       <c r="BE50" s="10"/>
       <c r="BF50" s="10"/>
       <c r="BG50" s="10"/>
@@ -4834,10 +4948,11 @@
       <c r="BQ50" s="10"/>
       <c r="BR50" s="10"/>
       <c r="BS50" s="10"/>
-      <c r="BT50" s="1"/>
-      <c r="BU50" s="10"/>
-    </row>
-    <row r="51" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT50" s="10"/>
+      <c r="BU50" s="1"/>
+      <c r="BV50" s="10"/>
+    </row>
+    <row r="51" spans="1:74" ht="12.75" customHeight="1">
       <c r="A51" s="3"/>
       <c r="B51" s="8"/>
       <c r="C51" s="9"/>
@@ -4852,8 +4967,8 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
-      <c r="O51" s="13"/>
-      <c r="P51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="13"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
@@ -4893,7 +5008,7 @@
       <c r="BA51" s="1"/>
       <c r="BB51" s="1"/>
       <c r="BC51" s="1"/>
-      <c r="BD51" s="10"/>
+      <c r="BD51" s="1"/>
       <c r="BE51" s="10"/>
       <c r="BF51" s="10"/>
       <c r="BG51" s="10"/>
@@ -4909,10 +5024,11 @@
       <c r="BQ51" s="10"/>
       <c r="BR51" s="10"/>
       <c r="BS51" s="10"/>
-      <c r="BT51" s="1"/>
-      <c r="BU51" s="10"/>
-    </row>
-    <row r="52" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT51" s="10"/>
+      <c r="BU51" s="1"/>
+      <c r="BV51" s="10"/>
+    </row>
+    <row r="52" spans="1:74" ht="12.75" customHeight="1">
       <c r="A52" s="3"/>
       <c r="B52" s="8"/>
       <c r="C52" s="9"/>
@@ -4927,8 +5043,8 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
-      <c r="O52" s="13"/>
-      <c r="P52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="13"/>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
@@ -4968,7 +5084,7 @@
       <c r="BA52" s="1"/>
       <c r="BB52" s="1"/>
       <c r="BC52" s="1"/>
-      <c r="BD52" s="10"/>
+      <c r="BD52" s="1"/>
       <c r="BE52" s="10"/>
       <c r="BF52" s="10"/>
       <c r="BG52" s="10"/>
@@ -4984,10 +5100,11 @@
       <c r="BQ52" s="10"/>
       <c r="BR52" s="10"/>
       <c r="BS52" s="10"/>
-      <c r="BT52" s="1"/>
-      <c r="BU52" s="10"/>
-    </row>
-    <row r="53" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT52" s="10"/>
+      <c r="BU52" s="1"/>
+      <c r="BV52" s="10"/>
+    </row>
+    <row r="53" spans="1:74" ht="12.75" customHeight="1">
       <c r="A53" s="3"/>
       <c r="B53" s="8"/>
       <c r="C53" s="9"/>
@@ -5002,8 +5119,8 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
-      <c r="O53" s="13"/>
-      <c r="P53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="13"/>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
@@ -5043,7 +5160,7 @@
       <c r="BA53" s="1"/>
       <c r="BB53" s="1"/>
       <c r="BC53" s="1"/>
-      <c r="BD53" s="10"/>
+      <c r="BD53" s="1"/>
       <c r="BE53" s="10"/>
       <c r="BF53" s="10"/>
       <c r="BG53" s="10"/>
@@ -5059,10 +5176,11 @@
       <c r="BQ53" s="10"/>
       <c r="BR53" s="10"/>
       <c r="BS53" s="10"/>
-      <c r="BT53" s="1"/>
-      <c r="BU53" s="10"/>
-    </row>
-    <row r="54" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT53" s="10"/>
+      <c r="BU53" s="1"/>
+      <c r="BV53" s="10"/>
+    </row>
+    <row r="54" spans="1:74" ht="12.75" customHeight="1">
       <c r="A54" s="3"/>
       <c r="B54" s="8"/>
       <c r="C54" s="9"/>
@@ -5077,8 +5195,8 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
-      <c r="O54" s="13"/>
-      <c r="P54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="13"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
@@ -5118,7 +5236,7 @@
       <c r="BA54" s="1"/>
       <c r="BB54" s="1"/>
       <c r="BC54" s="1"/>
-      <c r="BD54" s="10"/>
+      <c r="BD54" s="1"/>
       <c r="BE54" s="10"/>
       <c r="BF54" s="10"/>
       <c r="BG54" s="10"/>
@@ -5134,10 +5252,11 @@
       <c r="BQ54" s="10"/>
       <c r="BR54" s="10"/>
       <c r="BS54" s="10"/>
-      <c r="BT54" s="1"/>
-      <c r="BU54" s="10"/>
-    </row>
-    <row r="55" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT54" s="10"/>
+      <c r="BU54" s="1"/>
+      <c r="BV54" s="10"/>
+    </row>
+    <row r="55" spans="1:74" ht="12.75" customHeight="1">
       <c r="A55" s="3"/>
       <c r="B55" s="8"/>
       <c r="C55" s="9"/>
@@ -5152,8 +5271,8 @@
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
-      <c r="O55" s="13"/>
-      <c r="P55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="13"/>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
@@ -5193,7 +5312,7 @@
       <c r="BA55" s="1"/>
       <c r="BB55" s="1"/>
       <c r="BC55" s="1"/>
-      <c r="BD55" s="10"/>
+      <c r="BD55" s="1"/>
       <c r="BE55" s="10"/>
       <c r="BF55" s="10"/>
       <c r="BG55" s="10"/>
@@ -5209,10 +5328,11 @@
       <c r="BQ55" s="10"/>
       <c r="BR55" s="10"/>
       <c r="BS55" s="10"/>
-      <c r="BT55" s="1"/>
-      <c r="BU55" s="10"/>
-    </row>
-    <row r="56" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT55" s="10"/>
+      <c r="BU55" s="1"/>
+      <c r="BV55" s="10"/>
+    </row>
+    <row r="56" spans="1:74" ht="12.75" customHeight="1">
       <c r="A56" s="3"/>
       <c r="B56" s="8"/>
       <c r="C56" s="9"/>
@@ -5227,8 +5347,8 @@
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
-      <c r="O56" s="13"/>
-      <c r="P56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="13"/>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
@@ -5268,7 +5388,7 @@
       <c r="BA56" s="1"/>
       <c r="BB56" s="1"/>
       <c r="BC56" s="1"/>
-      <c r="BD56" s="10"/>
+      <c r="BD56" s="1"/>
       <c r="BE56" s="10"/>
       <c r="BF56" s="10"/>
       <c r="BG56" s="10"/>
@@ -5284,10 +5404,11 @@
       <c r="BQ56" s="10"/>
       <c r="BR56" s="10"/>
       <c r="BS56" s="10"/>
-      <c r="BT56" s="1"/>
-      <c r="BU56" s="10"/>
-    </row>
-    <row r="57" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT56" s="10"/>
+      <c r="BU56" s="1"/>
+      <c r="BV56" s="10"/>
+    </row>
+    <row r="57" spans="1:74" ht="12.75" customHeight="1">
       <c r="A57" s="3"/>
       <c r="B57" s="8"/>
       <c r="C57" s="9"/>
@@ -5302,8 +5423,8 @@
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
-      <c r="O57" s="13"/>
-      <c r="P57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="13"/>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
@@ -5343,7 +5464,7 @@
       <c r="BA57" s="1"/>
       <c r="BB57" s="1"/>
       <c r="BC57" s="1"/>
-      <c r="BD57" s="10"/>
+      <c r="BD57" s="1"/>
       <c r="BE57" s="10"/>
       <c r="BF57" s="10"/>
       <c r="BG57" s="10"/>
@@ -5359,10 +5480,11 @@
       <c r="BQ57" s="10"/>
       <c r="BR57" s="10"/>
       <c r="BS57" s="10"/>
-      <c r="BT57" s="1"/>
-      <c r="BU57" s="10"/>
-    </row>
-    <row r="58" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT57" s="10"/>
+      <c r="BU57" s="1"/>
+      <c r="BV57" s="10"/>
+    </row>
+    <row r="58" spans="1:74" ht="12.75" customHeight="1">
       <c r="A58" s="3"/>
       <c r="B58" s="8"/>
       <c r="C58" s="9"/>
@@ -5377,8 +5499,8 @@
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
-      <c r="O58" s="13"/>
-      <c r="P58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="13"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
@@ -5418,7 +5540,7 @@
       <c r="BA58" s="1"/>
       <c r="BB58" s="1"/>
       <c r="BC58" s="1"/>
-      <c r="BD58" s="10"/>
+      <c r="BD58" s="1"/>
       <c r="BE58" s="10"/>
       <c r="BF58" s="10"/>
       <c r="BG58" s="10"/>
@@ -5434,10 +5556,11 @@
       <c r="BQ58" s="10"/>
       <c r="BR58" s="10"/>
       <c r="BS58" s="10"/>
-      <c r="BT58" s="1"/>
-      <c r="BU58" s="10"/>
-    </row>
-    <row r="59" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT58" s="10"/>
+      <c r="BU58" s="1"/>
+      <c r="BV58" s="10"/>
+    </row>
+    <row r="59" spans="1:74" ht="12.75" customHeight="1">
       <c r="A59" s="3"/>
       <c r="B59" s="8"/>
       <c r="C59" s="9"/>
@@ -5452,8 +5575,8 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
-      <c r="O59" s="13"/>
-      <c r="P59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="13"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
@@ -5493,7 +5616,7 @@
       <c r="BA59" s="1"/>
       <c r="BB59" s="1"/>
       <c r="BC59" s="1"/>
-      <c r="BD59" s="10"/>
+      <c r="BD59" s="1"/>
       <c r="BE59" s="10"/>
       <c r="BF59" s="10"/>
       <c r="BG59" s="10"/>
@@ -5509,10 +5632,11 @@
       <c r="BQ59" s="10"/>
       <c r="BR59" s="10"/>
       <c r="BS59" s="10"/>
-      <c r="BT59" s="1"/>
-      <c r="BU59" s="10"/>
-    </row>
-    <row r="60" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT59" s="10"/>
+      <c r="BU59" s="1"/>
+      <c r="BV59" s="10"/>
+    </row>
+    <row r="60" spans="1:74" ht="12.75" customHeight="1">
       <c r="A60" s="3"/>
       <c r="B60" s="8"/>
       <c r="C60" s="9"/>
@@ -5527,8 +5651,8 @@
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
-      <c r="O60" s="13"/>
-      <c r="P60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="13"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
@@ -5568,7 +5692,7 @@
       <c r="BA60" s="1"/>
       <c r="BB60" s="1"/>
       <c r="BC60" s="1"/>
-      <c r="BD60" s="10"/>
+      <c r="BD60" s="1"/>
       <c r="BE60" s="10"/>
       <c r="BF60" s="10"/>
       <c r="BG60" s="10"/>
@@ -5584,10 +5708,11 @@
       <c r="BQ60" s="10"/>
       <c r="BR60" s="10"/>
       <c r="BS60" s="10"/>
-      <c r="BT60" s="1"/>
-      <c r="BU60" s="10"/>
-    </row>
-    <row r="61" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT60" s="10"/>
+      <c r="BU60" s="1"/>
+      <c r="BV60" s="10"/>
+    </row>
+    <row r="61" spans="1:74" ht="12.75" customHeight="1">
       <c r="A61" s="3"/>
       <c r="B61" s="8"/>
       <c r="C61" s="9"/>
@@ -5602,8 +5727,8 @@
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
-      <c r="O61" s="13"/>
-      <c r="P61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="13"/>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
@@ -5643,7 +5768,7 @@
       <c r="BA61" s="1"/>
       <c r="BB61" s="1"/>
       <c r="BC61" s="1"/>
-      <c r="BD61" s="10"/>
+      <c r="BD61" s="1"/>
       <c r="BE61" s="10"/>
       <c r="BF61" s="10"/>
       <c r="BG61" s="10"/>
@@ -5659,10 +5784,11 @@
       <c r="BQ61" s="10"/>
       <c r="BR61" s="10"/>
       <c r="BS61" s="10"/>
-      <c r="BT61" s="1"/>
-      <c r="BU61" s="10"/>
-    </row>
-    <row r="62" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT61" s="10"/>
+      <c r="BU61" s="1"/>
+      <c r="BV61" s="10"/>
+    </row>
+    <row r="62" spans="1:74" ht="12.75" customHeight="1">
       <c r="A62" s="3"/>
       <c r="B62" s="8"/>
       <c r="C62" s="9"/>
@@ -5677,8 +5803,8 @@
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
-      <c r="O62" s="13"/>
-      <c r="P62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="13"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
@@ -5718,7 +5844,7 @@
       <c r="BA62" s="1"/>
       <c r="BB62" s="1"/>
       <c r="BC62" s="1"/>
-      <c r="BD62" s="10"/>
+      <c r="BD62" s="1"/>
       <c r="BE62" s="10"/>
       <c r="BF62" s="10"/>
       <c r="BG62" s="10"/>
@@ -5734,10 +5860,11 @@
       <c r="BQ62" s="10"/>
       <c r="BR62" s="10"/>
       <c r="BS62" s="10"/>
-      <c r="BT62" s="1"/>
-      <c r="BU62" s="10"/>
-    </row>
-    <row r="63" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT62" s="10"/>
+      <c r="BU62" s="1"/>
+      <c r="BV62" s="10"/>
+    </row>
+    <row r="63" spans="1:74" ht="12.75" customHeight="1">
       <c r="A63" s="3"/>
       <c r="B63" s="8"/>
       <c r="C63" s="9"/>
@@ -5752,8 +5879,8 @@
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
-      <c r="O63" s="13"/>
-      <c r="P63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="13"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
@@ -5793,7 +5920,7 @@
       <c r="BA63" s="1"/>
       <c r="BB63" s="1"/>
       <c r="BC63" s="1"/>
-      <c r="BD63" s="10"/>
+      <c r="BD63" s="1"/>
       <c r="BE63" s="10"/>
       <c r="BF63" s="10"/>
       <c r="BG63" s="10"/>
@@ -5809,10 +5936,11 @@
       <c r="BQ63" s="10"/>
       <c r="BR63" s="10"/>
       <c r="BS63" s="10"/>
-      <c r="BT63" s="1"/>
-      <c r="BU63" s="10"/>
-    </row>
-    <row r="64" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT63" s="10"/>
+      <c r="BU63" s="1"/>
+      <c r="BV63" s="10"/>
+    </row>
+    <row r="64" spans="1:74" ht="12.75" customHeight="1">
       <c r="A64" s="3"/>
       <c r="B64" s="8"/>
       <c r="C64" s="9"/>
@@ -5827,8 +5955,8 @@
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
-      <c r="O64" s="13"/>
-      <c r="P64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="13"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
@@ -5868,7 +5996,7 @@
       <c r="BA64" s="1"/>
       <c r="BB64" s="1"/>
       <c r="BC64" s="1"/>
-      <c r="BD64" s="10"/>
+      <c r="BD64" s="1"/>
       <c r="BE64" s="10"/>
       <c r="BF64" s="10"/>
       <c r="BG64" s="10"/>
@@ -5884,10 +6012,11 @@
       <c r="BQ64" s="10"/>
       <c r="BR64" s="10"/>
       <c r="BS64" s="10"/>
-      <c r="BT64" s="1"/>
-      <c r="BU64" s="10"/>
-    </row>
-    <row r="65" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT64" s="10"/>
+      <c r="BU64" s="1"/>
+      <c r="BV64" s="10"/>
+    </row>
+    <row r="65" spans="1:74" ht="12.75" customHeight="1">
       <c r="A65" s="3"/>
       <c r="B65" s="8"/>
       <c r="C65" s="9"/>
@@ -5902,8 +6031,8 @@
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
-      <c r="O65" s="13"/>
-      <c r="P65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="13"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
@@ -5943,7 +6072,7 @@
       <c r="BA65" s="1"/>
       <c r="BB65" s="1"/>
       <c r="BC65" s="1"/>
-      <c r="BD65" s="10"/>
+      <c r="BD65" s="1"/>
       <c r="BE65" s="10"/>
       <c r="BF65" s="10"/>
       <c r="BG65" s="10"/>
@@ -5959,10 +6088,11 @@
       <c r="BQ65" s="10"/>
       <c r="BR65" s="10"/>
       <c r="BS65" s="10"/>
-      <c r="BT65" s="1"/>
-      <c r="BU65" s="10"/>
-    </row>
-    <row r="66" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT65" s="10"/>
+      <c r="BU65" s="1"/>
+      <c r="BV65" s="10"/>
+    </row>
+    <row r="66" spans="1:74" ht="12.75" customHeight="1">
       <c r="A66" s="3"/>
       <c r="B66" s="8"/>
       <c r="C66" s="9"/>
@@ -5977,8 +6107,8 @@
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
-      <c r="O66" s="13"/>
-      <c r="P66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="13"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
@@ -6018,7 +6148,7 @@
       <c r="BA66" s="1"/>
       <c r="BB66" s="1"/>
       <c r="BC66" s="1"/>
-      <c r="BD66" s="10"/>
+      <c r="BD66" s="1"/>
       <c r="BE66" s="10"/>
       <c r="BF66" s="10"/>
       <c r="BG66" s="10"/>
@@ -6034,10 +6164,11 @@
       <c r="BQ66" s="10"/>
       <c r="BR66" s="10"/>
       <c r="BS66" s="10"/>
-      <c r="BT66" s="1"/>
-      <c r="BU66" s="10"/>
-    </row>
-    <row r="67" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT66" s="10"/>
+      <c r="BU66" s="1"/>
+      <c r="BV66" s="10"/>
+    </row>
+    <row r="67" spans="1:74" ht="12.75" customHeight="1">
       <c r="A67" s="3"/>
       <c r="B67" s="8"/>
       <c r="C67" s="9"/>
@@ -6052,8 +6183,8 @@
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
-      <c r="O67" s="13"/>
-      <c r="P67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="13"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
@@ -6093,7 +6224,7 @@
       <c r="BA67" s="1"/>
       <c r="BB67" s="1"/>
       <c r="BC67" s="1"/>
-      <c r="BD67" s="10"/>
+      <c r="BD67" s="1"/>
       <c r="BE67" s="10"/>
       <c r="BF67" s="10"/>
       <c r="BG67" s="10"/>
@@ -6109,10 +6240,11 @@
       <c r="BQ67" s="10"/>
       <c r="BR67" s="10"/>
       <c r="BS67" s="10"/>
-      <c r="BT67" s="1"/>
-      <c r="BU67" s="10"/>
-    </row>
-    <row r="68" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT67" s="10"/>
+      <c r="BU67" s="1"/>
+      <c r="BV67" s="10"/>
+    </row>
+    <row r="68" spans="1:74" ht="12.75" customHeight="1">
       <c r="A68" s="3"/>
       <c r="B68" s="8"/>
       <c r="C68" s="9"/>
@@ -6127,8 +6259,8 @@
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
-      <c r="O68" s="13"/>
-      <c r="P68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="13"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
@@ -6168,7 +6300,7 @@
       <c r="BA68" s="1"/>
       <c r="BB68" s="1"/>
       <c r="BC68" s="1"/>
-      <c r="BD68" s="10"/>
+      <c r="BD68" s="1"/>
       <c r="BE68" s="10"/>
       <c r="BF68" s="10"/>
       <c r="BG68" s="10"/>
@@ -6184,10 +6316,11 @@
       <c r="BQ68" s="10"/>
       <c r="BR68" s="10"/>
       <c r="BS68" s="10"/>
-      <c r="BT68" s="1"/>
-      <c r="BU68" s="10"/>
-    </row>
-    <row r="69" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT68" s="10"/>
+      <c r="BU68" s="1"/>
+      <c r="BV68" s="10"/>
+    </row>
+    <row r="69" spans="1:74" ht="12.75" customHeight="1">
       <c r="A69" s="3"/>
       <c r="B69" s="8"/>
       <c r="C69" s="9"/>
@@ -6202,8 +6335,8 @@
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
-      <c r="O69" s="13"/>
-      <c r="P69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="13"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
@@ -6243,7 +6376,7 @@
       <c r="BA69" s="1"/>
       <c r="BB69" s="1"/>
       <c r="BC69" s="1"/>
-      <c r="BD69" s="10"/>
+      <c r="BD69" s="1"/>
       <c r="BE69" s="10"/>
       <c r="BF69" s="10"/>
       <c r="BG69" s="10"/>
@@ -6259,10 +6392,11 @@
       <c r="BQ69" s="10"/>
       <c r="BR69" s="10"/>
       <c r="BS69" s="10"/>
-      <c r="BT69" s="1"/>
-      <c r="BU69" s="10"/>
-    </row>
-    <row r="70" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT69" s="10"/>
+      <c r="BU69" s="1"/>
+      <c r="BV69" s="10"/>
+    </row>
+    <row r="70" spans="1:74" ht="12.75" customHeight="1">
       <c r="A70" s="3"/>
       <c r="B70" s="8"/>
       <c r="C70" s="9"/>
@@ -6277,8 +6411,8 @@
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
-      <c r="O70" s="13"/>
-      <c r="P70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="13"/>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
@@ -6318,7 +6452,7 @@
       <c r="BA70" s="1"/>
       <c r="BB70" s="1"/>
       <c r="BC70" s="1"/>
-      <c r="BD70" s="10"/>
+      <c r="BD70" s="1"/>
       <c r="BE70" s="10"/>
       <c r="BF70" s="10"/>
       <c r="BG70" s="10"/>
@@ -6334,10 +6468,11 @@
       <c r="BQ70" s="10"/>
       <c r="BR70" s="10"/>
       <c r="BS70" s="10"/>
-      <c r="BT70" s="1"/>
-      <c r="BU70" s="10"/>
-    </row>
-    <row r="71" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT70" s="10"/>
+      <c r="BU70" s="1"/>
+      <c r="BV70" s="10"/>
+    </row>
+    <row r="71" spans="1:74" ht="12.75" customHeight="1">
       <c r="A71" s="3"/>
       <c r="B71" s="8"/>
       <c r="C71" s="9"/>
@@ -6352,8 +6487,8 @@
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
-      <c r="O71" s="13"/>
-      <c r="P71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="13"/>
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
@@ -6393,7 +6528,7 @@
       <c r="BA71" s="1"/>
       <c r="BB71" s="1"/>
       <c r="BC71" s="1"/>
-      <c r="BD71" s="10"/>
+      <c r="BD71" s="1"/>
       <c r="BE71" s="10"/>
       <c r="BF71" s="10"/>
       <c r="BG71" s="10"/>
@@ -6409,10 +6544,11 @@
       <c r="BQ71" s="10"/>
       <c r="BR71" s="10"/>
       <c r="BS71" s="10"/>
-      <c r="BT71" s="1"/>
-      <c r="BU71" s="10"/>
-    </row>
-    <row r="72" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT71" s="10"/>
+      <c r="BU71" s="1"/>
+      <c r="BV71" s="10"/>
+    </row>
+    <row r="72" spans="1:74" ht="12.75" customHeight="1">
       <c r="A72" s="3"/>
       <c r="B72" s="8"/>
       <c r="C72" s="9"/>
@@ -6427,8 +6563,8 @@
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
-      <c r="O72" s="13"/>
-      <c r="P72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="13"/>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
@@ -6468,7 +6604,7 @@
       <c r="BA72" s="1"/>
       <c r="BB72" s="1"/>
       <c r="BC72" s="1"/>
-      <c r="BD72" s="10"/>
+      <c r="BD72" s="1"/>
       <c r="BE72" s="10"/>
       <c r="BF72" s="10"/>
       <c r="BG72" s="10"/>
@@ -6484,10 +6620,11 @@
       <c r="BQ72" s="10"/>
       <c r="BR72" s="10"/>
       <c r="BS72" s="10"/>
-      <c r="BT72" s="1"/>
-      <c r="BU72" s="10"/>
-    </row>
-    <row r="73" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT72" s="10"/>
+      <c r="BU72" s="1"/>
+      <c r="BV72" s="10"/>
+    </row>
+    <row r="73" spans="1:74" ht="12.75" customHeight="1">
       <c r="A73" s="3"/>
       <c r="B73" s="8"/>
       <c r="C73" s="9"/>
@@ -6502,8 +6639,8 @@
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
-      <c r="O73" s="13"/>
-      <c r="P73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="13"/>
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
@@ -6543,7 +6680,7 @@
       <c r="BA73" s="1"/>
       <c r="BB73" s="1"/>
       <c r="BC73" s="1"/>
-      <c r="BD73" s="10"/>
+      <c r="BD73" s="1"/>
       <c r="BE73" s="10"/>
       <c r="BF73" s="10"/>
       <c r="BG73" s="10"/>
@@ -6559,10 +6696,11 @@
       <c r="BQ73" s="10"/>
       <c r="BR73" s="10"/>
       <c r="BS73" s="10"/>
-      <c r="BT73" s="1"/>
-      <c r="BU73" s="10"/>
-    </row>
-    <row r="74" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT73" s="10"/>
+      <c r="BU73" s="1"/>
+      <c r="BV73" s="10"/>
+    </row>
+    <row r="74" spans="1:74" ht="12.75" customHeight="1">
       <c r="A74" s="3"/>
       <c r="B74" s="8"/>
       <c r="C74" s="9"/>
@@ -6577,8 +6715,8 @@
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
-      <c r="O74" s="13"/>
-      <c r="P74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="13"/>
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
@@ -6618,7 +6756,7 @@
       <c r="BA74" s="1"/>
       <c r="BB74" s="1"/>
       <c r="BC74" s="1"/>
-      <c r="BD74" s="10"/>
+      <c r="BD74" s="1"/>
       <c r="BE74" s="10"/>
       <c r="BF74" s="10"/>
       <c r="BG74" s="10"/>
@@ -6634,10 +6772,11 @@
       <c r="BQ74" s="10"/>
       <c r="BR74" s="10"/>
       <c r="BS74" s="10"/>
-      <c r="BT74" s="1"/>
-      <c r="BU74" s="10"/>
-    </row>
-    <row r="75" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT74" s="10"/>
+      <c r="BU74" s="1"/>
+      <c r="BV74" s="10"/>
+    </row>
+    <row r="75" spans="1:74" ht="12.75" customHeight="1">
       <c r="A75" s="3"/>
       <c r="B75" s="8"/>
       <c r="C75" s="9"/>
@@ -6652,8 +6791,8 @@
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
-      <c r="O75" s="13"/>
-      <c r="P75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="13"/>
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
@@ -6693,7 +6832,7 @@
       <c r="BA75" s="1"/>
       <c r="BB75" s="1"/>
       <c r="BC75" s="1"/>
-      <c r="BD75" s="10"/>
+      <c r="BD75" s="1"/>
       <c r="BE75" s="10"/>
       <c r="BF75" s="10"/>
       <c r="BG75" s="10"/>
@@ -6709,10 +6848,11 @@
       <c r="BQ75" s="10"/>
       <c r="BR75" s="10"/>
       <c r="BS75" s="10"/>
-      <c r="BT75" s="1"/>
-      <c r="BU75" s="10"/>
-    </row>
-    <row r="76" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT75" s="10"/>
+      <c r="BU75" s="1"/>
+      <c r="BV75" s="10"/>
+    </row>
+    <row r="76" spans="1:74" ht="12.75" customHeight="1">
       <c r="A76" s="3"/>
       <c r="B76" s="8"/>
       <c r="C76" s="9"/>
@@ -6727,8 +6867,8 @@
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
-      <c r="O76" s="13"/>
-      <c r="P76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="13"/>
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
@@ -6768,7 +6908,7 @@
       <c r="BA76" s="1"/>
       <c r="BB76" s="1"/>
       <c r="BC76" s="1"/>
-      <c r="BD76" s="10"/>
+      <c r="BD76" s="1"/>
       <c r="BE76" s="10"/>
       <c r="BF76" s="10"/>
       <c r="BG76" s="10"/>
@@ -6784,10 +6924,11 @@
       <c r="BQ76" s="10"/>
       <c r="BR76" s="10"/>
       <c r="BS76" s="10"/>
-      <c r="BT76" s="1"/>
-      <c r="BU76" s="10"/>
-    </row>
-    <row r="77" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT76" s="10"/>
+      <c r="BU76" s="1"/>
+      <c r="BV76" s="10"/>
+    </row>
+    <row r="77" spans="1:74" ht="12.75" customHeight="1">
       <c r="A77" s="3"/>
       <c r="B77" s="8"/>
       <c r="C77" s="9"/>
@@ -6802,8 +6943,8 @@
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
-      <c r="O77" s="13"/>
-      <c r="P77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="13"/>
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
@@ -6843,7 +6984,7 @@
       <c r="BA77" s="1"/>
       <c r="BB77" s="1"/>
       <c r="BC77" s="1"/>
-      <c r="BD77" s="10"/>
+      <c r="BD77" s="1"/>
       <c r="BE77" s="10"/>
       <c r="BF77" s="10"/>
       <c r="BG77" s="10"/>
@@ -6859,10 +7000,11 @@
       <c r="BQ77" s="10"/>
       <c r="BR77" s="10"/>
       <c r="BS77" s="10"/>
-      <c r="BT77" s="1"/>
-      <c r="BU77" s="10"/>
-    </row>
-    <row r="78" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT77" s="10"/>
+      <c r="BU77" s="1"/>
+      <c r="BV77" s="10"/>
+    </row>
+    <row r="78" spans="1:74" ht="12.75" customHeight="1">
       <c r="A78" s="3"/>
       <c r="B78" s="8"/>
       <c r="C78" s="9"/>
@@ -6877,8 +7019,8 @@
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
-      <c r="O78" s="13"/>
-      <c r="P78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="13"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
       <c r="S78" s="1"/>
@@ -6918,7 +7060,7 @@
       <c r="BA78" s="1"/>
       <c r="BB78" s="1"/>
       <c r="BC78" s="1"/>
-      <c r="BD78" s="10"/>
+      <c r="BD78" s="1"/>
       <c r="BE78" s="10"/>
       <c r="BF78" s="10"/>
       <c r="BG78" s="10"/>
@@ -6934,10 +7076,11 @@
       <c r="BQ78" s="10"/>
       <c r="BR78" s="10"/>
       <c r="BS78" s="10"/>
-      <c r="BT78" s="1"/>
-      <c r="BU78" s="10"/>
-    </row>
-    <row r="79" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT78" s="10"/>
+      <c r="BU78" s="1"/>
+      <c r="BV78" s="10"/>
+    </row>
+    <row r="79" spans="1:74" ht="12.75" customHeight="1">
       <c r="A79" s="3"/>
       <c r="B79" s="8"/>
       <c r="C79" s="9"/>
@@ -6952,8 +7095,8 @@
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
-      <c r="O79" s="13"/>
-      <c r="P79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="13"/>
       <c r="Q79" s="1"/>
       <c r="R79" s="1"/>
       <c r="S79" s="1"/>
@@ -6993,7 +7136,7 @@
       <c r="BA79" s="1"/>
       <c r="BB79" s="1"/>
       <c r="BC79" s="1"/>
-      <c r="BD79" s="10"/>
+      <c r="BD79" s="1"/>
       <c r="BE79" s="10"/>
       <c r="BF79" s="10"/>
       <c r="BG79" s="10"/>
@@ -7009,10 +7152,11 @@
       <c r="BQ79" s="10"/>
       <c r="BR79" s="10"/>
       <c r="BS79" s="10"/>
-      <c r="BT79" s="1"/>
-      <c r="BU79" s="10"/>
-    </row>
-    <row r="80" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT79" s="10"/>
+      <c r="BU79" s="1"/>
+      <c r="BV79" s="10"/>
+    </row>
+    <row r="80" spans="1:74" ht="12.75" customHeight="1">
       <c r="A80" s="3"/>
       <c r="B80" s="8"/>
       <c r="C80" s="9"/>
@@ -7027,8 +7171,8 @@
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
-      <c r="O80" s="13"/>
-      <c r="P80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="13"/>
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
@@ -7068,7 +7212,7 @@
       <c r="BA80" s="1"/>
       <c r="BB80" s="1"/>
       <c r="BC80" s="1"/>
-      <c r="BD80" s="10"/>
+      <c r="BD80" s="1"/>
       <c r="BE80" s="10"/>
       <c r="BF80" s="10"/>
       <c r="BG80" s="10"/>
@@ -7084,10 +7228,11 @@
       <c r="BQ80" s="10"/>
       <c r="BR80" s="10"/>
       <c r="BS80" s="10"/>
-      <c r="BT80" s="1"/>
-      <c r="BU80" s="10"/>
-    </row>
-    <row r="81" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT80" s="10"/>
+      <c r="BU80" s="1"/>
+      <c r="BV80" s="10"/>
+    </row>
+    <row r="81" spans="1:74" ht="12.75" customHeight="1">
       <c r="A81" s="3"/>
       <c r="B81" s="8"/>
       <c r="C81" s="9"/>
@@ -7102,8 +7247,8 @@
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
-      <c r="O81" s="13"/>
-      <c r="P81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="13"/>
       <c r="Q81" s="1"/>
       <c r="R81" s="1"/>
       <c r="S81" s="1"/>
@@ -7143,7 +7288,7 @@
       <c r="BA81" s="1"/>
       <c r="BB81" s="1"/>
       <c r="BC81" s="1"/>
-      <c r="BD81" s="10"/>
+      <c r="BD81" s="1"/>
       <c r="BE81" s="10"/>
       <c r="BF81" s="10"/>
       <c r="BG81" s="10"/>
@@ -7159,10 +7304,11 @@
       <c r="BQ81" s="10"/>
       <c r="BR81" s="10"/>
       <c r="BS81" s="10"/>
-      <c r="BT81" s="1"/>
-      <c r="BU81" s="10"/>
-    </row>
-    <row r="82" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT81" s="10"/>
+      <c r="BU81" s="1"/>
+      <c r="BV81" s="10"/>
+    </row>
+    <row r="82" spans="1:74" ht="12.75" customHeight="1">
       <c r="A82" s="3"/>
       <c r="B82" s="8"/>
       <c r="C82" s="9"/>
@@ -7177,8 +7323,8 @@
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
-      <c r="O82" s="13"/>
-      <c r="P82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="13"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
       <c r="S82" s="1"/>
@@ -7218,7 +7364,7 @@
       <c r="BA82" s="1"/>
       <c r="BB82" s="1"/>
       <c r="BC82" s="1"/>
-      <c r="BD82" s="10"/>
+      <c r="BD82" s="1"/>
       <c r="BE82" s="10"/>
       <c r="BF82" s="10"/>
       <c r="BG82" s="10"/>
@@ -7234,10 +7380,11 @@
       <c r="BQ82" s="10"/>
       <c r="BR82" s="10"/>
       <c r="BS82" s="10"/>
-      <c r="BT82" s="1"/>
-      <c r="BU82" s="10"/>
-    </row>
-    <row r="83" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT82" s="10"/>
+      <c r="BU82" s="1"/>
+      <c r="BV82" s="10"/>
+    </row>
+    <row r="83" spans="1:74" ht="12.75" customHeight="1">
       <c r="A83" s="3"/>
       <c r="B83" s="8"/>
       <c r="C83" s="9"/>
@@ -7252,8 +7399,8 @@
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
-      <c r="O83" s="13"/>
-      <c r="P83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="13"/>
       <c r="Q83" s="1"/>
       <c r="R83" s="1"/>
       <c r="S83" s="1"/>
@@ -7293,7 +7440,7 @@
       <c r="BA83" s="1"/>
       <c r="BB83" s="1"/>
       <c r="BC83" s="1"/>
-      <c r="BD83" s="10"/>
+      <c r="BD83" s="1"/>
       <c r="BE83" s="10"/>
       <c r="BF83" s="10"/>
       <c r="BG83" s="10"/>
@@ -7309,10 +7456,11 @@
       <c r="BQ83" s="10"/>
       <c r="BR83" s="10"/>
       <c r="BS83" s="10"/>
-      <c r="BT83" s="1"/>
-      <c r="BU83" s="10"/>
-    </row>
-    <row r="84" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT83" s="10"/>
+      <c r="BU83" s="1"/>
+      <c r="BV83" s="10"/>
+    </row>
+    <row r="84" spans="1:74" ht="12.75" customHeight="1">
       <c r="A84" s="3"/>
       <c r="B84" s="8"/>
       <c r="C84" s="9"/>
@@ -7327,8 +7475,8 @@
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
-      <c r="O84" s="13"/>
-      <c r="P84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="13"/>
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
       <c r="S84" s="1"/>
@@ -7368,7 +7516,7 @@
       <c r="BA84" s="1"/>
       <c r="BB84" s="1"/>
       <c r="BC84" s="1"/>
-      <c r="BD84" s="10"/>
+      <c r="BD84" s="1"/>
       <c r="BE84" s="10"/>
       <c r="BF84" s="10"/>
       <c r="BG84" s="10"/>
@@ -7384,10 +7532,11 @@
       <c r="BQ84" s="10"/>
       <c r="BR84" s="10"/>
       <c r="BS84" s="10"/>
-      <c r="BT84" s="1"/>
-      <c r="BU84" s="10"/>
-    </row>
-    <row r="85" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT84" s="10"/>
+      <c r="BU84" s="1"/>
+      <c r="BV84" s="10"/>
+    </row>
+    <row r="85" spans="1:74" ht="12.75" customHeight="1">
       <c r="A85" s="3"/>
       <c r="B85" s="8"/>
       <c r="C85" s="9"/>
@@ -7402,8 +7551,8 @@
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
-      <c r="O85" s="13"/>
-      <c r="P85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="13"/>
       <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
       <c r="S85" s="1"/>
@@ -7443,7 +7592,7 @@
       <c r="BA85" s="1"/>
       <c r="BB85" s="1"/>
       <c r="BC85" s="1"/>
-      <c r="BD85" s="10"/>
+      <c r="BD85" s="1"/>
       <c r="BE85" s="10"/>
       <c r="BF85" s="10"/>
       <c r="BG85" s="10"/>
@@ -7459,10 +7608,11 @@
       <c r="BQ85" s="10"/>
       <c r="BR85" s="10"/>
       <c r="BS85" s="10"/>
-      <c r="BT85" s="1"/>
-      <c r="BU85" s="10"/>
-    </row>
-    <row r="86" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT85" s="10"/>
+      <c r="BU85" s="1"/>
+      <c r="BV85" s="10"/>
+    </row>
+    <row r="86" spans="1:74" ht="12.75" customHeight="1">
       <c r="A86" s="3"/>
       <c r="B86" s="8"/>
       <c r="C86" s="9"/>
@@ -7477,8 +7627,8 @@
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
-      <c r="O86" s="13"/>
-      <c r="P86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="13"/>
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
       <c r="S86" s="1"/>
@@ -7518,7 +7668,7 @@
       <c r="BA86" s="1"/>
       <c r="BB86" s="1"/>
       <c r="BC86" s="1"/>
-      <c r="BD86" s="10"/>
+      <c r="BD86" s="1"/>
       <c r="BE86" s="10"/>
       <c r="BF86" s="10"/>
       <c r="BG86" s="10"/>
@@ -7534,10 +7684,11 @@
       <c r="BQ86" s="10"/>
       <c r="BR86" s="10"/>
       <c r="BS86" s="10"/>
-      <c r="BT86" s="1"/>
-      <c r="BU86" s="10"/>
-    </row>
-    <row r="87" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT86" s="10"/>
+      <c r="BU86" s="1"/>
+      <c r="BV86" s="10"/>
+    </row>
+    <row r="87" spans="1:74" ht="12.75" customHeight="1">
       <c r="A87" s="3"/>
       <c r="B87" s="8"/>
       <c r="C87" s="9"/>
@@ -7552,8 +7703,8 @@
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
-      <c r="O87" s="13"/>
-      <c r="P87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="13"/>
       <c r="Q87" s="1"/>
       <c r="R87" s="1"/>
       <c r="S87" s="1"/>
@@ -7593,7 +7744,7 @@
       <c r="BA87" s="1"/>
       <c r="BB87" s="1"/>
       <c r="BC87" s="1"/>
-      <c r="BD87" s="10"/>
+      <c r="BD87" s="1"/>
       <c r="BE87" s="10"/>
       <c r="BF87" s="10"/>
       <c r="BG87" s="10"/>
@@ -7609,10 +7760,11 @@
       <c r="BQ87" s="10"/>
       <c r="BR87" s="10"/>
       <c r="BS87" s="10"/>
-      <c r="BT87" s="1"/>
-      <c r="BU87" s="10"/>
-    </row>
-    <row r="88" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT87" s="10"/>
+      <c r="BU87" s="1"/>
+      <c r="BV87" s="10"/>
+    </row>
+    <row r="88" spans="1:74" ht="12.75" customHeight="1">
       <c r="A88" s="3"/>
       <c r="B88" s="8"/>
       <c r="C88" s="9"/>
@@ -7627,8 +7779,8 @@
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
-      <c r="O88" s="13"/>
-      <c r="P88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="13"/>
       <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
       <c r="S88" s="1"/>
@@ -7668,7 +7820,7 @@
       <c r="BA88" s="1"/>
       <c r="BB88" s="1"/>
       <c r="BC88" s="1"/>
-      <c r="BD88" s="10"/>
+      <c r="BD88" s="1"/>
       <c r="BE88" s="10"/>
       <c r="BF88" s="10"/>
       <c r="BG88" s="10"/>
@@ -7684,10 +7836,11 @@
       <c r="BQ88" s="10"/>
       <c r="BR88" s="10"/>
       <c r="BS88" s="10"/>
-      <c r="BT88" s="1"/>
-      <c r="BU88" s="10"/>
-    </row>
-    <row r="89" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT88" s="10"/>
+      <c r="BU88" s="1"/>
+      <c r="BV88" s="10"/>
+    </row>
+    <row r="89" spans="1:74" ht="12.75" customHeight="1">
       <c r="A89" s="3"/>
       <c r="B89" s="8"/>
       <c r="C89" s="9"/>
@@ -7702,8 +7855,8 @@
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
-      <c r="O89" s="13"/>
-      <c r="P89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="13"/>
       <c r="Q89" s="1"/>
       <c r="R89" s="1"/>
       <c r="S89" s="1"/>
@@ -7743,7 +7896,7 @@
       <c r="BA89" s="1"/>
       <c r="BB89" s="1"/>
       <c r="BC89" s="1"/>
-      <c r="BD89" s="10"/>
+      <c r="BD89" s="1"/>
       <c r="BE89" s="10"/>
       <c r="BF89" s="10"/>
       <c r="BG89" s="10"/>
@@ -7759,10 +7912,11 @@
       <c r="BQ89" s="10"/>
       <c r="BR89" s="10"/>
       <c r="BS89" s="10"/>
-      <c r="BT89" s="1"/>
-      <c r="BU89" s="10"/>
-    </row>
-    <row r="90" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT89" s="10"/>
+      <c r="BU89" s="1"/>
+      <c r="BV89" s="10"/>
+    </row>
+    <row r="90" spans="1:74" ht="12.75" customHeight="1">
       <c r="A90" s="3"/>
       <c r="B90" s="8"/>
       <c r="C90" s="9"/>
@@ -7777,8 +7931,8 @@
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
-      <c r="O90" s="13"/>
-      <c r="P90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="13"/>
       <c r="Q90" s="1"/>
       <c r="R90" s="1"/>
       <c r="S90" s="1"/>
@@ -7818,7 +7972,7 @@
       <c r="BA90" s="1"/>
       <c r="BB90" s="1"/>
       <c r="BC90" s="1"/>
-      <c r="BD90" s="10"/>
+      <c r="BD90" s="1"/>
       <c r="BE90" s="10"/>
       <c r="BF90" s="10"/>
       <c r="BG90" s="10"/>
@@ -7834,10 +7988,11 @@
       <c r="BQ90" s="10"/>
       <c r="BR90" s="10"/>
       <c r="BS90" s="10"/>
-      <c r="BT90" s="1"/>
-      <c r="BU90" s="10"/>
-    </row>
-    <row r="91" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT90" s="10"/>
+      <c r="BU90" s="1"/>
+      <c r="BV90" s="10"/>
+    </row>
+    <row r="91" spans="1:74" ht="12.75" customHeight="1">
       <c r="A91" s="3"/>
       <c r="B91" s="8"/>
       <c r="C91" s="9"/>
@@ -7852,8 +8007,8 @@
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
-      <c r="O91" s="13"/>
-      <c r="P91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="13"/>
       <c r="Q91" s="1"/>
       <c r="R91" s="1"/>
       <c r="S91" s="1"/>
@@ -7893,7 +8048,7 @@
       <c r="BA91" s="1"/>
       <c r="BB91" s="1"/>
       <c r="BC91" s="1"/>
-      <c r="BD91" s="10"/>
+      <c r="BD91" s="1"/>
       <c r="BE91" s="10"/>
       <c r="BF91" s="10"/>
       <c r="BG91" s="10"/>
@@ -7909,10 +8064,11 @@
       <c r="BQ91" s="10"/>
       <c r="BR91" s="10"/>
       <c r="BS91" s="10"/>
-      <c r="BT91" s="1"/>
-      <c r="BU91" s="10"/>
-    </row>
-    <row r="92" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT91" s="10"/>
+      <c r="BU91" s="1"/>
+      <c r="BV91" s="10"/>
+    </row>
+    <row r="92" spans="1:74" ht="12.75" customHeight="1">
       <c r="A92" s="3"/>
       <c r="B92" s="8"/>
       <c r="C92" s="9"/>
@@ -7927,8 +8083,8 @@
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
-      <c r="O92" s="13"/>
-      <c r="P92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="13"/>
       <c r="Q92" s="1"/>
       <c r="R92" s="1"/>
       <c r="S92" s="1"/>
@@ -7968,7 +8124,7 @@
       <c r="BA92" s="1"/>
       <c r="BB92" s="1"/>
       <c r="BC92" s="1"/>
-      <c r="BD92" s="10"/>
+      <c r="BD92" s="1"/>
       <c r="BE92" s="10"/>
       <c r="BF92" s="10"/>
       <c r="BG92" s="10"/>
@@ -7984,10 +8140,11 @@
       <c r="BQ92" s="10"/>
       <c r="BR92" s="10"/>
       <c r="BS92" s="10"/>
-      <c r="BT92" s="1"/>
-      <c r="BU92" s="10"/>
-    </row>
-    <row r="93" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT92" s="10"/>
+      <c r="BU92" s="1"/>
+      <c r="BV92" s="10"/>
+    </row>
+    <row r="93" spans="1:74" ht="12.75" customHeight="1">
       <c r="A93" s="3"/>
       <c r="B93" s="8"/>
       <c r="C93" s="9"/>
@@ -8002,8 +8159,8 @@
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
-      <c r="O93" s="13"/>
-      <c r="P93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="13"/>
       <c r="Q93" s="1"/>
       <c r="R93" s="1"/>
       <c r="S93" s="1"/>
@@ -8043,7 +8200,7 @@
       <c r="BA93" s="1"/>
       <c r="BB93" s="1"/>
       <c r="BC93" s="1"/>
-      <c r="BD93" s="10"/>
+      <c r="BD93" s="1"/>
       <c r="BE93" s="10"/>
       <c r="BF93" s="10"/>
       <c r="BG93" s="10"/>
@@ -8059,10 +8216,11 @@
       <c r="BQ93" s="10"/>
       <c r="BR93" s="10"/>
       <c r="BS93" s="10"/>
-      <c r="BT93" s="1"/>
-      <c r="BU93" s="10"/>
-    </row>
-    <row r="94" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT93" s="10"/>
+      <c r="BU93" s="1"/>
+      <c r="BV93" s="10"/>
+    </row>
+    <row r="94" spans="1:74" ht="12.75" customHeight="1">
       <c r="A94" s="3"/>
       <c r="B94" s="8"/>
       <c r="C94" s="9"/>
@@ -8077,8 +8235,8 @@
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
-      <c r="O94" s="13"/>
-      <c r="P94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="13"/>
       <c r="Q94" s="1"/>
       <c r="R94" s="1"/>
       <c r="S94" s="1"/>
@@ -8118,7 +8276,7 @@
       <c r="BA94" s="1"/>
       <c r="BB94" s="1"/>
       <c r="BC94" s="1"/>
-      <c r="BD94" s="10"/>
+      <c r="BD94" s="1"/>
       <c r="BE94" s="10"/>
       <c r="BF94" s="10"/>
       <c r="BG94" s="10"/>
@@ -8134,10 +8292,11 @@
       <c r="BQ94" s="10"/>
       <c r="BR94" s="10"/>
       <c r="BS94" s="10"/>
-      <c r="BT94" s="1"/>
-      <c r="BU94" s="10"/>
-    </row>
-    <row r="95" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT94" s="10"/>
+      <c r="BU94" s="1"/>
+      <c r="BV94" s="10"/>
+    </row>
+    <row r="95" spans="1:74" ht="12.75" customHeight="1">
       <c r="A95" s="3"/>
       <c r="B95" s="8"/>
       <c r="C95" s="9"/>
@@ -8152,8 +8311,8 @@
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
-      <c r="O95" s="13"/>
-      <c r="P95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="13"/>
       <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
       <c r="S95" s="1"/>
@@ -8193,7 +8352,7 @@
       <c r="BA95" s="1"/>
       <c r="BB95" s="1"/>
       <c r="BC95" s="1"/>
-      <c r="BD95" s="10"/>
+      <c r="BD95" s="1"/>
       <c r="BE95" s="10"/>
       <c r="BF95" s="10"/>
       <c r="BG95" s="10"/>
@@ -8209,10 +8368,11 @@
       <c r="BQ95" s="10"/>
       <c r="BR95" s="10"/>
       <c r="BS95" s="10"/>
-      <c r="BT95" s="1"/>
-      <c r="BU95" s="10"/>
-    </row>
-    <row r="96" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT95" s="10"/>
+      <c r="BU95" s="1"/>
+      <c r="BV95" s="10"/>
+    </row>
+    <row r="96" spans="1:74" ht="12.75" customHeight="1">
       <c r="A96" s="3"/>
       <c r="B96" s="8"/>
       <c r="C96" s="9"/>
@@ -8227,8 +8387,8 @@
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
-      <c r="O96" s="13"/>
-      <c r="P96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="13"/>
       <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
       <c r="S96" s="1"/>
@@ -8268,7 +8428,7 @@
       <c r="BA96" s="1"/>
       <c r="BB96" s="1"/>
       <c r="BC96" s="1"/>
-      <c r="BD96" s="10"/>
+      <c r="BD96" s="1"/>
       <c r="BE96" s="10"/>
       <c r="BF96" s="10"/>
       <c r="BG96" s="10"/>
@@ -8284,10 +8444,11 @@
       <c r="BQ96" s="10"/>
       <c r="BR96" s="10"/>
       <c r="BS96" s="10"/>
-      <c r="BT96" s="1"/>
-      <c r="BU96" s="10"/>
-    </row>
-    <row r="97" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT96" s="10"/>
+      <c r="BU96" s="1"/>
+      <c r="BV96" s="10"/>
+    </row>
+    <row r="97" spans="1:74" ht="12.75" customHeight="1">
       <c r="A97" s="3"/>
       <c r="B97" s="8"/>
       <c r="C97" s="9"/>
@@ -8302,8 +8463,8 @@
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
-      <c r="O97" s="13"/>
-      <c r="P97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="13"/>
       <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
       <c r="S97" s="1"/>
@@ -8343,7 +8504,7 @@
       <c r="BA97" s="1"/>
       <c r="BB97" s="1"/>
       <c r="BC97" s="1"/>
-      <c r="BD97" s="10"/>
+      <c r="BD97" s="1"/>
       <c r="BE97" s="10"/>
       <c r="BF97" s="10"/>
       <c r="BG97" s="10"/>
@@ -8359,10 +8520,11 @@
       <c r="BQ97" s="10"/>
       <c r="BR97" s="10"/>
       <c r="BS97" s="10"/>
-      <c r="BT97" s="1"/>
-      <c r="BU97" s="10"/>
-    </row>
-    <row r="98" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT97" s="10"/>
+      <c r="BU97" s="1"/>
+      <c r="BV97" s="10"/>
+    </row>
+    <row r="98" spans="1:74" ht="12.75" customHeight="1">
       <c r="A98" s="3"/>
       <c r="B98" s="8"/>
       <c r="C98" s="9"/>
@@ -8377,8 +8539,8 @@
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
-      <c r="O98" s="13"/>
-      <c r="P98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="13"/>
       <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
       <c r="S98" s="1"/>
@@ -8418,7 +8580,7 @@
       <c r="BA98" s="1"/>
       <c r="BB98" s="1"/>
       <c r="BC98" s="1"/>
-      <c r="BD98" s="10"/>
+      <c r="BD98" s="1"/>
       <c r="BE98" s="10"/>
       <c r="BF98" s="10"/>
       <c r="BG98" s="10"/>
@@ -8434,10 +8596,11 @@
       <c r="BQ98" s="10"/>
       <c r="BR98" s="10"/>
       <c r="BS98" s="10"/>
-      <c r="BT98" s="1"/>
-      <c r="BU98" s="10"/>
-    </row>
-    <row r="99" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT98" s="10"/>
+      <c r="BU98" s="1"/>
+      <c r="BV98" s="10"/>
+    </row>
+    <row r="99" spans="1:74" ht="12.75" customHeight="1">
       <c r="A99" s="3"/>
       <c r="B99" s="8"/>
       <c r="C99" s="9"/>
@@ -8452,8 +8615,8 @@
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
-      <c r="O99" s="13"/>
-      <c r="P99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="13"/>
       <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
       <c r="S99" s="1"/>
@@ -8493,7 +8656,7 @@
       <c r="BA99" s="1"/>
       <c r="BB99" s="1"/>
       <c r="BC99" s="1"/>
-      <c r="BD99" s="10"/>
+      <c r="BD99" s="1"/>
       <c r="BE99" s="10"/>
       <c r="BF99" s="10"/>
       <c r="BG99" s="10"/>
@@ -8509,10 +8672,11 @@
       <c r="BQ99" s="10"/>
       <c r="BR99" s="10"/>
       <c r="BS99" s="10"/>
-      <c r="BT99" s="1"/>
-      <c r="BU99" s="10"/>
-    </row>
-    <row r="100" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT99" s="10"/>
+      <c r="BU99" s="1"/>
+      <c r="BV99" s="10"/>
+    </row>
+    <row r="100" spans="1:74" ht="12.75" customHeight="1">
       <c r="A100" s="3"/>
       <c r="B100" s="8"/>
       <c r="C100" s="9"/>
@@ -8527,8 +8691,8 @@
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
-      <c r="O100" s="13"/>
-      <c r="P100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="13"/>
       <c r="Q100" s="1"/>
       <c r="R100" s="1"/>
       <c r="S100" s="1"/>
@@ -8568,7 +8732,7 @@
       <c r="BA100" s="1"/>
       <c r="BB100" s="1"/>
       <c r="BC100" s="1"/>
-      <c r="BD100" s="10"/>
+      <c r="BD100" s="1"/>
       <c r="BE100" s="10"/>
       <c r="BF100" s="10"/>
       <c r="BG100" s="10"/>
@@ -8584,10 +8748,11 @@
       <c r="BQ100" s="10"/>
       <c r="BR100" s="10"/>
       <c r="BS100" s="10"/>
-      <c r="BT100" s="1"/>
-      <c r="BU100" s="10"/>
-    </row>
-    <row r="101" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT100" s="10"/>
+      <c r="BU100" s="1"/>
+      <c r="BV100" s="10"/>
+    </row>
+    <row r="101" spans="1:74" ht="12.75" customHeight="1">
       <c r="A101" s="3"/>
       <c r="B101" s="8"/>
       <c r="C101" s="9"/>
@@ -8602,8 +8767,8 @@
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
-      <c r="O101" s="13"/>
-      <c r="P101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="13"/>
       <c r="Q101" s="1"/>
       <c r="R101" s="1"/>
       <c r="S101" s="1"/>
@@ -8643,7 +8808,7 @@
       <c r="BA101" s="1"/>
       <c r="BB101" s="1"/>
       <c r="BC101" s="1"/>
-      <c r="BD101" s="10"/>
+      <c r="BD101" s="1"/>
       <c r="BE101" s="10"/>
       <c r="BF101" s="10"/>
       <c r="BG101" s="10"/>
@@ -8659,10 +8824,11 @@
       <c r="BQ101" s="10"/>
       <c r="BR101" s="10"/>
       <c r="BS101" s="10"/>
-      <c r="BT101" s="1"/>
-      <c r="BU101" s="10"/>
-    </row>
-    <row r="102" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT101" s="10"/>
+      <c r="BU101" s="1"/>
+      <c r="BV101" s="10"/>
+    </row>
+    <row r="102" spans="1:74" ht="12.75" customHeight="1">
       <c r="A102" s="3"/>
       <c r="B102" s="8"/>
       <c r="C102" s="9"/>
@@ -8677,8 +8843,8 @@
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
-      <c r="O102" s="13"/>
-      <c r="P102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="13"/>
       <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
       <c r="S102" s="1"/>
@@ -8718,7 +8884,7 @@
       <c r="BA102" s="1"/>
       <c r="BB102" s="1"/>
       <c r="BC102" s="1"/>
-      <c r="BD102" s="10"/>
+      <c r="BD102" s="1"/>
       <c r="BE102" s="10"/>
       <c r="BF102" s="10"/>
       <c r="BG102" s="10"/>
@@ -8734,37 +8900,38 @@
       <c r="BQ102" s="10"/>
       <c r="BR102" s="10"/>
       <c r="BS102" s="10"/>
-      <c r="BT102" s="1"/>
-      <c r="BU102" s="10"/>
-    </row>
-    <row r="103" spans="1:73" ht="12.75" customHeight="1">
+      <c r="BT102" s="10"/>
+      <c r="BU102" s="1"/>
+      <c r="BV102" s="10"/>
+    </row>
+    <row r="103" spans="1:74" ht="12.75" customHeight="1">
       <c r="B103" s="11"/>
     </row>
-    <row r="104" spans="1:73" ht="12.75" customHeight="1">
+    <row r="104" spans="1:74" ht="12.75" customHeight="1">
       <c r="B104" s="11"/>
     </row>
-    <row r="105" spans="1:73" ht="12.75" customHeight="1">
+    <row r="105" spans="1:74" ht="12.75" customHeight="1">
       <c r="B105" s="11"/>
     </row>
-    <row r="106" spans="1:73" ht="12.75" customHeight="1">
+    <row r="106" spans="1:74" ht="12.75" customHeight="1">
       <c r="B106" s="11"/>
     </row>
-    <row r="107" spans="1:73" ht="12.75" customHeight="1">
+    <row r="107" spans="1:74" ht="12.75" customHeight="1">
       <c r="B107" s="11"/>
     </row>
-    <row r="108" spans="1:73" ht="12.75" customHeight="1">
+    <row r="108" spans="1:74" ht="12.75" customHeight="1">
       <c r="B108" s="11"/>
     </row>
-    <row r="109" spans="1:73" ht="12.75" customHeight="1">
+    <row r="109" spans="1:74" ht="12.75" customHeight="1">
       <c r="B109" s="11"/>
     </row>
-    <row r="110" spans="1:73" ht="12.75" customHeight="1">
+    <row r="110" spans="1:74" ht="12.75" customHeight="1">
       <c r="B110" s="11"/>
     </row>
-    <row r="111" spans="1:73" ht="12.75" customHeight="1">
+    <row r="111" spans="1:74" ht="12.75" customHeight="1">
       <c r="B111" s="11"/>
     </row>
-    <row r="112" spans="1:73" ht="12.75" customHeight="1">
+    <row r="112" spans="1:74" ht="12.75" customHeight="1">
       <c r="B112" s="11"/>
     </row>
     <row r="113" spans="2:2" ht="12.75" customHeight="1">
